--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -517,7 +517,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Czechoslovakia', 'Netherlands', 'West Germany']</t>
+          <t>['Netherlands', 'West Germany', 'Czechoslovakia']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -559,7 +559,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Italy', 'England', 'Belgium']</t>
+          <t>['Italy', 'Belgium', 'England']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -601,7 +601,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'France']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -649,7 +649,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Yugoslavia']</t>
+          <t>['Belgium', 'France', 'Yugoslavia']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -701,7 +701,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium', 'Denmark']</t>
+          <t>['Belgium', 'Denmark', 'France']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -747,7 +747,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -789,7 +789,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'West Germany']</t>
+          <t>['Italy', 'West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -831,7 +831,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -873,7 +873,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark', 'France']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -915,7 +915,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['CIS', 'Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'CIS', 'Germany']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -963,7 +963,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1099,7 +1099,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Spain', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1781,7 +1781,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1881,7 +1881,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1927,7 +1927,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1969,7 +1969,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2017,7 +2017,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2063,7 +2063,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2111,7 +2111,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2163,7 +2163,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2209,7 +2209,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2299,7 +2299,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2481,7 +2481,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2575,7 +2575,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2759,7 +2759,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2811,7 +2811,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2863,7 +2863,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3055,7 +3055,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3097,7 +3097,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Switzerland', 'France']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3139,7 +3139,7 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['England', 'Slovakia']</t>
+          <t>['Slovakia', 'England']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3187,7 +3187,7 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['Wales', 'England']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3233,7 +3233,7 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland']</t>
+          <t>['Northern Ireland', 'Germany']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3589,7 +3589,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3683,7 +3683,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England']</t>
+          <t>['England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3825,7 +3825,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4299,7 +4299,7 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4347,7 +4347,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>['Austria', 'France']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4399,7 +4399,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4451,7 +4451,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>['Austria', 'France']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4503,7 +4503,7 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4555,7 +4555,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>['Austria', 'France']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4601,7 +4601,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4649,7 +4649,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia']</t>
+          <t>['Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4701,7 +4701,7 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium']</t>
+          <t>['Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,30 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>scorer_team</t>
+          <t>new_top_teams</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>new_top_teams</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>1st</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>3rd</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>3rd</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>scorer_nationality</t>
         </is>
@@ -514,28 +509,27 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'West Germany', 'Czechoslovakia']</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Netherlands', 'West Germany', 'Czechoslovakia']</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>Czechoslovakia</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -556,28 +550,27 @@
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Italy', 'England']</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'England']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -598,28 +591,27 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Denmark', 'France']</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -646,28 +638,27 @@
           <t>Yugoslavia</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Yugoslavia', 'Belgium', 'France']</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Yugoslavia']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Yugoslavia</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
-        <is>
-          <t>Yugoslavia</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
         <is>
           <t>Yugoslavia</t>
         </is>
@@ -698,28 +689,27 @@
           <t>Yugoslavia</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Belgium', 'France', 'Denmark']</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
         <is>
           <t>France</t>
         </is>
@@ -744,28 +734,27 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Portugal', 'West Germany', 'Spain']</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain', 'Portugal']</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -786,28 +775,27 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Italy', 'West Germany', 'Spain']</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany', 'Spain']</t>
+          <t>West Germany</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -828,28 +816,27 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['Soviet Union', 'Netherlands', 'Republic of Ireland']</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union', 'Republic of Ireland']</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -870,28 +857,27 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['Denmark', 'France', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark', 'France']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -912,28 +898,27 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'CIS', 'Germany']</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Netherlands', 'CIS', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
           <t>CIS</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -960,28 +945,27 @@
           <t>CIS</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Scotland', 'Germany']</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Scotland', 'Germany']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
@@ -1006,28 +990,27 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'England']</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1048,28 +1031,27 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['France', 'Bulgaria']</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1096,28 +1078,27 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Spain']</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
@@ -1148,28 +1129,27 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['France', 'Spain']</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
         <is>
           <t>France</t>
         </is>
@@ -1200,28 +1180,27 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['France', 'Bulgaria']</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
@@ -1252,28 +1231,27 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['France', 'Spain']</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
@@ -1298,28 +1276,27 @@
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1346,28 +1323,27 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['Italy', 'Germany']</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
@@ -1398,28 +1374,27 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
@@ -1444,28 +1419,27 @@
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Croatia']</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1486,28 +1460,27 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['Portugal', 'England']</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1534,28 +1507,27 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Romania']</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
@@ -1586,28 +1558,27 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['Portugal', 'England']</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
         <is>
           <t>England</t>
         </is>
@@ -1638,28 +1609,27 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Romania']</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
@@ -1684,28 +1654,27 @@
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Italy']</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1732,28 +1701,27 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['Italy', 'Turkey']</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
@@ -1778,28 +1746,27 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['FR Yugoslavia', 'Spain']</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1826,28 +1793,27 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['Norway', 'FR Yugoslavia']</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
         <is>
           <t>FR Yugoslavia</t>
         </is>
@@ -1878,28 +1844,27 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['FR Yugoslavia', 'Spain']</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
@@ -1924,28 +1889,27 @@
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'France']</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1966,28 +1930,27 @@
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['Greece', 'Spain']</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2014,28 +1977,27 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Greece']</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
@@ -2060,28 +2022,27 @@
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['France', 'England']</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2108,28 +2069,27 @@
           <t>England</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['France', 'Croatia']</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
@@ -2160,28 +2120,27 @@
           <t>England</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['France', 'England']</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
         <is>
           <t>England</t>
         </is>
@@ -2206,28 +2165,27 @@
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2248,28 +2206,27 @@
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2296,28 +2253,27 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Netherlands']</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
@@ -2342,28 +2298,27 @@
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Czech Republic']</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2390,28 +2345,27 @@
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Turkey']</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
@@ -2436,28 +2390,27 @@
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Germany']</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2478,28 +2431,27 @@
       </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Romania']</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2526,28 +2478,27 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Italy']</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
@@ -2572,28 +2523,27 @@
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>['Sweden', 'Spain']</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2620,28 +2570,27 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>['Russia', 'Spain']</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
@@ -2666,28 +2615,27 @@
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['Russia', 'Czech Republic']</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2708,28 +2656,27 @@
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Germany']</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2756,28 +2703,27 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Germany']</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
@@ -2808,28 +2754,27 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Germany']</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
@@ -2860,28 +2805,27 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Germany']</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
@@ -2912,28 +2856,27 @@
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Germany']</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
@@ -2958,28 +2901,27 @@
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Spain']</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3006,28 +2948,27 @@
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>['Italy', 'Spain']</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
@@ -3052,28 +2993,27 @@
       </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>['France', 'England']</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3094,28 +3034,27 @@
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['France', 'Switzerland']</t>
+        </is>
+      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3136,15 +3075,19 @@
       </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>['Wales', 'England']</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3152,12 +3095,7 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Wales</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3165,51 +3103,40 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>11</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Wales</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['Poland', 'Germany']</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Wales</t>
-        </is>
-      </c>
+          <t>Northern Ireland</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3217,7 +3144,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3230,28 +3157,27 @@
       </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Spain']</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3259,51 +3185,40 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>30</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Northern Ireland</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Italy']</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Northern Ireland</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3311,7 +3226,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -3324,36 +3239,35 @@
       </c>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>['Hungary', 'Iceland']</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -3366,36 +3280,35 @@
       </c>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>['Wales', 'Italy']</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr"/>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3408,28 +3321,27 @@
       </c>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>['Russia', 'Belgium']</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3437,41 +3349,50 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>38</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Finland']</t>
+        </is>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3479,7 +3400,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3492,28 +3413,27 @@
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Ukraine']</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Finland</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3521,49 +3441,48 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'Austria']</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Denmark</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3492,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3586,28 +3505,27 @@
       </c>
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'England']</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3615,49 +3533,48 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>['Croatia', 'England']</t>
+        </is>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Austria</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3584,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3680,28 +3597,27 @@
       </c>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>['Slovakia', 'Sweden']</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3709,49 +3625,48 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['Sweden', 'Spain']</t>
+        </is>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['England', 'Croatia']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>Croatia</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3676,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3774,28 +3689,27 @@
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>['France', 'Germany']</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3803,59 +3717,58 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>['Portugal', 'France']</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3868,28 +3781,27 @@
       </c>
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>['Switzerland', 'Germany']</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3897,7 +3809,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3910,28 +3822,27 @@
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>['Italy', 'Spain']</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr"/>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3943,24 +3854,34 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D76" t="n">
+        <v>55</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Spain']</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3970,10 +3891,9 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Albania</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3985,10 +3905,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4000,15 +3920,19 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>['Italy', 'Spain']</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4019,11 +3943,6 @@
       <c r="K77" t="inlineStr">
         <is>
           <t>Italy</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -4033,51 +3952,40 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
-      </c>
-      <c r="D78" t="n">
-        <v>98</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>['Slovenia', 'England']</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4089,37 +3997,46 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>34</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>['Denmark', 'England']</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['England', 'Denmark']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4131,45 +4048,44 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>['Slovenia', 'England']</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>['England', 'Slovenia']</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>England</t>
         </is>
       </c>
     </row>
@@ -4179,51 +4095,40 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
-      </c>
-      <c r="D81" t="n">
-        <v>34</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'France']</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['England', 'Denmark']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4231,49 +4136,48 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>['Austria', 'France']</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['England', 'Slovenia']</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -4287,37 +4191,46 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D83" t="n">
+        <v>47</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'France']</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4329,10 +4242,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4344,10 +4257,14 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>['Austria', 'France']</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4357,15 +4274,10 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
@@ -4381,10 +4293,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4396,10 +4308,14 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>['Netherlands', 'France']</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4409,15 +4325,10 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
@@ -4433,10 +4344,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4448,10 +4359,14 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>['Austria', 'France']</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4461,15 +4376,10 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
@@ -4481,51 +4391,40 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
-      </c>
-      <c r="D87" t="n">
-        <v>75</v>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Romania']</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4533,49 +4432,48 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>['Slovakia', 'Belgium']</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Austria</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
@@ -4589,37 +4487,46 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>37</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>['Belgium', 'Romania']</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania']</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4627,145 +4534,40 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>24</v>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>['Portugal', 'Turkey']</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>2</v>
-      </c>
-      <c r="D91" t="n">
-        <v>37</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>['Belgium', 'Romania']</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>['Turkey', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="L92" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Netherlands', 'West Germany', 'Czechoslovakia']</t>
+          <t>['Italy', 'Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -521,19 +521,19 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -552,29 +552,29 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy', 'England']</t>
+          <t>['Republic of Ireland', 'Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -593,29 +593,29 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'France']</t>
+          <t>['Sweden', 'France', 'England']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -635,38 +635,38 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Yugoslavia', 'Belgium', 'France']</t>
+          <t>['Sweden', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -686,27 +686,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Yugoslavia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France', 'Denmark']</t>
+          <t>['Sweden', 'France', 'England']</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -717,48 +717,58 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1984</v>
+        <v>1992</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>78</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany', 'Spain']</t>
+          <t>['Sweden', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -766,40 +776,50 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>82</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany', 'Spain']</t>
+          <t>['Sweden', 'Denmark', 'France']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>West Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -818,22 +838,22 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands', 'Republic of Ireland']</t>
+          <t>['Netherlands', 'Germany', 'CIS']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Republic of Ireland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Soviet Union</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -844,48 +864,58 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Denmark', 'France', 'Sweden']</t>
+          <t>['Netherlands', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -900,12 +930,12 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Netherlands', 'CIS', 'Germany']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -915,61 +945,51 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>7</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>CIS</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Scotland', 'Germany']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -977,40 +997,50 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1022,36 +1052,46 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>21</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1063,10 +1103,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1080,27 +1120,27 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -1114,44 +1154,44 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['France', 'Spain']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['France', 'Spain']</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Spain</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>France</t>
         </is>
       </c>
     </row>
@@ -1161,50 +1201,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>29</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1212,48 +1242,48 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
@@ -1267,18 +1297,24 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>85</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1293,10 +1329,14 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1308,10 +1348,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1325,7 +1365,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1335,17 +1375,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
@@ -1355,58 +1395,48 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" t="n">
-        <v>88</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1421,22 +1451,22 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1451,18 +1481,24 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1472,15 +1508,19 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1492,10 +1532,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1509,7 +1549,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1519,17 +1559,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>England</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -1543,10 +1583,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1560,7 +1600,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1570,17 +1610,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Romania</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>England</t>
         </is>
       </c>
     </row>
@@ -1590,50 +1630,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
-      </c>
-      <c r="D26" t="n">
-        <v>89</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1645,18 +1675,24 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>47</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1666,15 +1702,19 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1682,50 +1722,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>47</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1737,15 +1767,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>95</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>['FR Yugoslavia', 'Spain']</t>
@@ -1753,20 +1789,24 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>FR Yugoslavia</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1774,142 +1814,132 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" t="n">
-        <v>30</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>FR Yugoslavia</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>FR Yugoslavia</t>
-        </is>
-      </c>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
-      </c>
-      <c r="D31" t="n">
-        <v>95</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>FR Yugoslavia</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['Greece', 'Spain']</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>FR Yugoslavia</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>57</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1917,7 +1947,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1932,22 +1962,22 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -1958,48 +1988,48 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>England</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -2013,15 +2043,21 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>40</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
           <t>['France', 'England']</t>
@@ -2042,7 +2078,11 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2050,50 +2090,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2101,50 +2131,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
-      </c>
-      <c r="D37" t="n">
-        <v>40</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2152,48 +2172,58 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>30</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2208,44 +2238,44 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2255,27 +2285,27 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2315,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2300,22 +2330,22 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2326,50 +2356,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>89</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2377,40 +2397,50 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>25</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2418,7 +2448,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2433,22 +2463,22 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2459,58 +2489,58 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2525,76 +2555,66 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>24</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2602,40 +2622,50 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>11</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2647,18 +2677,24 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D49" t="n">
+        <v>19</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2668,7 +2704,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2676,7 +2712,11 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2688,44 +2728,44 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>['Denmark', 'Germany']</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['Denmark', 'Germany']</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>Denmark</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -2739,44 +2779,44 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['Germany', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Germany']</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -2786,50 +2826,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
-      </c>
-      <c r="D52" t="n">
-        <v>24</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2837,48 +2867,48 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2918,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2903,84 +2933,74 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>35</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['France', 'Switzerland']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2995,22 +3015,22 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'Wales']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3021,7 +3041,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -3036,22 +3056,22 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['Germany', 'Poland']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3062,7 +3082,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -3077,22 +3097,22 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['Wales', 'England']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3103,7 +3123,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -3118,22 +3138,22 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3144,7 +3164,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3159,22 +3179,22 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3185,40 +3205,50 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>62</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3230,15 +3260,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>94</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
           <t>['Hungary', 'Iceland']</t>
@@ -3259,7 +3295,11 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Iceland</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3282,7 +3322,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy']</t>
+          <t>['Italy', 'Wales']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3323,7 +3363,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium']</t>
+          <t>['Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3599,7 +3639,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3738,7 +3778,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['Portugal', 'France']</t>
+          <t>['France', 'Portugal']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3783,7 +3823,7 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany']</t>
+          <t>['Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4259,7 +4299,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['France', 'Austria']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4406,7 +4446,7 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania']</t>
+          <t>['Ukraine', 'Romania']</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4453,7 +4493,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium']</t>
+          <t>['Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4549,7 +4589,7 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain', 'West Germany']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -552,7 +552,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -574,44 +574,54 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Group 1</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>82</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Sweden', 'France', 'England']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -623,46 +633,36 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['Sweden', 'France']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['Sweden', 'Denmark', 'England']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -674,44 +674,44 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['England', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['Sweden', 'France', 'England']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>England</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>France</t>
         </is>
       </c>
     </row>
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -742,22 +742,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark', 'England']</t>
+          <t>['England', 'Denmark']</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>Sweden</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>England</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark', 'France']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -823,40 +823,50 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany', 'CIS']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CIS</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -864,58 +874,58 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Group 2</t>
+          <t>Group 1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CIS</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany', 'Scotland']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group 2</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -930,12 +940,12 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -945,7 +955,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -956,7 +966,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -971,22 +981,22 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1001,46 +1011,36 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'France']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 'Spain']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1052,44 +1052,44 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['Bulgaria', 'Spain']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['France', 'Spain']</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>Spain</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>France</t>
         </is>
       </c>
     </row>
@@ -1103,44 +1103,44 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>France</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['France', 'Spain']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['Bulgaria', 'France']</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>France</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1181,17 +1181,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -1201,40 +1201,50 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>84</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1246,46 +1256,36 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>5</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Germany', 'Italy']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['Czech Republic', 'Germany']</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Czech Republic</t>
         </is>
       </c>
     </row>
@@ -1348,10 +1348,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -1395,48 +1395,58 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>88</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1451,22 +1461,22 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1481,46 +1491,36 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>22</v>
-      </c>
-      <c r="E23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['England', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['Romania', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1559,17 +1559,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Romania</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>England</t>
         </is>
       </c>
     </row>
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1610,17 +1610,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>England</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -1630,40 +1630,50 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>89</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1675,46 +1685,36 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" t="n">
-        <v>47</v>
-      </c>
-      <c r="E27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['Italy', 'Belgium']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['Italy', 'Turkey']</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1722,40 +1722,50 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>47</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FR Yugoslavia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1767,46 +1777,36 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>95</v>
-      </c>
-      <c r="E29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['Norway', 'FR Yugoslavia']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>FR Yugoslavia</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>FR Yugoslavia</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1814,48 +1814,58 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>95</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1870,22 +1880,22 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -1900,46 +1910,36 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>57</v>
-      </c>
-      <c r="E32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['Greece', 'Spain']</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['Greece', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1947,40 +1947,50 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>57</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1992,46 +2002,36 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['England', 'France']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['Croatia', 'France']</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2070,17 +2070,17 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>England</t>
         </is>
       </c>
     </row>
@@ -2090,40 +2090,50 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>40</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2131,7 +2141,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2146,22 +2156,22 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2176,87 +2186,87 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>30</v>
-      </c>
-      <c r="E38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Czech Republic']</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>30</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2268,46 +2278,36 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>89</v>
-      </c>
-      <c r="E40" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>['Czech Republic', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['Turkey', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2315,40 +2315,50 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>89</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2356,7 +2366,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2371,22 +2381,22 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2401,46 +2411,36 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>25</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>['Romania', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Italy']</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2448,40 +2448,50 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>25</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2493,87 +2503,87 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" t="n">
-        <v>24</v>
-      </c>
-      <c r="E45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['Sweden', 'Spain']</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['Russia', 'Spain']</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>24</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2581,7 +2591,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2596,22 +2606,22 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2626,46 +2636,36 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>11</v>
-      </c>
-      <c r="E48" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>['Germany', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['Denmark', 'Germany']</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2677,44 +2677,44 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>['Germany', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Germany']</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -2728,10 +2728,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2755,17 +2755,17 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -2779,44 +2779,44 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>['Germany', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['Germany', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -2826,40 +2826,50 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>74</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2871,46 +2881,36 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>35</v>
-      </c>
-      <c r="E53" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>['Croatia', 'Spain']</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Republic of Ireland</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['Italy', 'Spain']</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2918,48 +2918,58 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>35</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2974,7 +2984,7 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['France', 'Switzerland']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2984,12 +2994,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3000,7 +3010,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -3015,22 +3025,22 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['England', 'Wales']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3041,40 +3051,50 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>43</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['Germany', 'Poland']</t>
+          <t>['Albania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>France</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Northern Ireland</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3082,7 +3102,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -3097,22 +3117,22 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['England', 'Slovakia', 'Wales']</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3123,7 +3143,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -3138,22 +3158,22 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Northern Ireland</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3164,7 +3184,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3179,22 +3199,22 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Czech Republic', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3205,48 +3225,48 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
@@ -3256,73 +3276,69 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Group F</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
-      </c>
-      <c r="D62" t="n">
-        <v>94</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Iceland</t>
-        </is>
-      </c>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>84</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales']</t>
+          <t>['Italy', 'Republic of Ireland', 'Belgium']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3332,23 +3348,27 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
+          <t>Republic of Ireland</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3363,22 +3383,22 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -3389,50 +3409,40 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>38</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3440,7 +3450,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3455,22 +3465,22 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3481,48 +3491,48 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
@@ -3532,40 +3542,50 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>74</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3573,50 +3593,40 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>77</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['Croatia', 'England']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3624,7 +3634,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group D</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3639,22 +3649,22 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>England</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3669,46 +3679,36 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>30</v>
-      </c>
-      <c r="E71" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['Sweden', 'Spain']</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3731,7 +3731,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['France', 'Germany']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['France', 'Portugal']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3804,134 +3804,154 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Group A</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>66</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>68</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Albania</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -3941,50 +3961,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Group B</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D77" t="n">
-        <v>98</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3992,40 +4002,50 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group A</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>100</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4033,50 +4053,40 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="n">
-        <v>34</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>England</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['Denmark', 'England']</t>
+          <t>['Albania', 'Italy', 'Spain']</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4084,48 +4094,48 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Group C</t>
+          <t>Group B</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -4135,7 +4145,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group C</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -4150,22 +4160,22 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['England', 'Slovenia', 'Denmark']</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>England</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4180,46 +4190,36 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
-      </c>
-      <c r="D82" t="n">
-        <v>6</v>
-      </c>
-      <c r="E82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>['Austria', 'France', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['Austria', 'France']</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4227,50 +4227,40 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
-      </c>
-      <c r="D83" t="n">
-        <v>47</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Romania', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Austria</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4278,48 +4268,48 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['France', 'Austria']</t>
+          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
@@ -4329,48 +4319,48 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group E</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -4380,50 +4370,40 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Group D</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
-      </c>
-      <c r="D86" t="n">
-        <v>80</v>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['Austria', 'France']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4431,183 +4411,50 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Group E</t>
+          <t>Group F</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>1</v>
-      </c>
-      <c r="D88" t="n">
-        <v>24</v>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['Belgium', 'Slovakia']</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Group E</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>2</v>
-      </c>
-      <c r="D89" t="n">
-        <v>37</v>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['Belgium', 'Romania']</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Group F</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>initial</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['Turkey', 'Portugal']</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr"/>
+          <t>Georgia</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -599,7 +599,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -644,7 +644,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1022,7 +1022,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1461,7 +1461,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1696,7 +1696,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1788,7 +1788,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1880,7 +1880,7 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1921,7 +1921,7 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2156,7 +2156,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2197,7 +2197,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2381,7 +2381,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2422,7 +2422,7 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2939,7 +2939,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3025,7 +3025,7 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['France', 'Romania', 'Switzerland']</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['Albania', 'Switzerland', 'France']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3158,7 +3158,7 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Poland', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3199,7 +3199,7 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Czech Republic', 'Spain']</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Turkey', 'Spain']</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3291,7 +3291,7 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['Sweden', 'Italy', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['Italy', 'Republic of Ireland', 'Belgium']</t>
+          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3383,7 +3383,7 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3424,7 +3424,7 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['Wales', 'Italy', 'Switzerland']</t>
+          <t>['Italy', 'Switzerland', 'Wales']</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3465,7 +3465,7 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3608,7 +3608,7 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Netherlands', 'Austria', 'Ukraine']</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3649,7 +3649,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3690,7 +3690,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['Sweden', 'Slovakia', 'Spain']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3731,7 +3731,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3829,7 +3829,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['France', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3931,7 +3931,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Germany', 'France', 'Portugal']</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3976,7 +3976,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Germany', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4068,7 +4068,7 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['Albania', 'Italy', 'Spain']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4242,7 +4242,7 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['Romania', 'Ukraine', 'Belgium']</t>
+          <t>['Ukraine', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Ukraine', 'Belgium']</t>
+          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4340,7 +4340,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4432,7 +4432,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K260"/>
+  <dimension ref="A1:L260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,25 +466,30 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>scorer_team</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>new_top_teams</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>1st</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>2nd</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>3rd</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>changed</t>
         </is>
@@ -507,27 +512,28 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>['Italy', 'West Germany']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>West Germany</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -558,25 +564,30 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>West Germany</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>['Italy', 'West Germany']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>West Germany</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -607,25 +618,30 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>West Germany</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>['Italy', 'West Germany']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>West Germany</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -656,25 +672,30 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>['Italy', 'West Germany']</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>West Germany</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -705,25 +726,30 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>['Italy', 'West Germany']</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>West Germany</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -744,27 +770,28 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Soviet Union</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -795,25 +822,30 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Soviet Union</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -844,25 +876,30 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>Soviet Union</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -893,25 +930,30 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>Soviet Union</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -942,25 +984,30 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>Soviet Union</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>Soviet Union</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -991,25 +1038,30 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Soviet Union</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1030,27 +1082,28 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>['Sweden', 'France']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1081,25 +1134,30 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>['Sweden', 'England']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1130,25 +1188,30 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>['Sweden', 'England']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1179,25 +1242,30 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>['Sweden', 'England']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1228,25 +1296,30 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>['Sweden', 'France']</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1277,25 +1350,30 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>['Sweden', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1326,25 +1404,30 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>['Sweden', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1365,27 +1448,28 @@
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>CIS</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1416,25 +1500,30 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>CIS</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1465,25 +1554,30 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>CIS</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1514,25 +1608,30 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>CIS</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1563,25 +1662,30 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1612,25 +1716,30 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1661,25 +1770,30 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1710,25 +1824,30 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1749,27 +1868,28 @@
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>['Netherlands', 'England']</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1800,25 +1920,30 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>['Netherlands', 'England']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1849,25 +1974,30 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>['Netherlands', 'England']</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1898,25 +2028,30 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
           <t>['Netherlands', 'England']</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1947,25 +2082,30 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
           <t>['Netherlands', 'England']</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1979,7 +2119,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>62</v>
@@ -1996,26 +2136,31 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['England', 'Scotland']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>['Netherlands', 'England']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>1</v>
+      <c r="L33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2028,7 +2173,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>78</v>
@@ -2045,26 +2190,31 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>['Netherlands', 'England']</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="K34" t="n">
-        <v>1</v>
+      <c r="L34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2084,27 +2234,28 @@
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>['Bulgaria', 'France']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2135,25 +2286,30 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>['Spain', 'Bulgaria']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,25 +2340,30 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>['Spain', 'France']</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,25 +2394,30 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'France']</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,25 +2448,30 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'France']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2331,25 +2502,30 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
           <t>['Bulgaria', 'France']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2380,25 +2556,30 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>['Spain', 'France']</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2429,25 +2610,30 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>['Spain', 'France']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2468,27 +2654,28 @@
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['Italy', 'Germany']</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2502,7 +2689,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>5</v>
@@ -2519,26 +2706,31 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K44" t="n">
-        <v>1</v>
+      <c r="L44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2551,7 +2743,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>19</v>
@@ -2568,25 +2760,30 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2600,7 +2797,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>49</v>
@@ -2617,25 +2814,30 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2649,7 +2851,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>54</v>
@@ -2666,26 +2868,31 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>1</v>
+      <c r="L47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2698,7 +2905,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>85</v>
@@ -2715,26 +2922,31 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
+          <t>['Germany', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K48" t="n">
-        <v>0</v>
+      <c r="L48" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2764,26 +2976,31 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
+      <c r="L49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2803,27 +3020,28 @@
       </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr">
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
         <is>
           <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2854,25 +3072,30 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2903,25 +3126,30 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
           <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2952,25 +3180,30 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3001,25 +3234,30 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3050,25 +3288,30 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
           <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3099,25 +3342,30 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,27 +3386,28 @@
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['Portugal', 'England']</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
+          <t>['England', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3189,25 +3438,30 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
+          <t>['Romania', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3238,25 +3492,30 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
+          <t>['Romania', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3287,25 +3546,30 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
+          <t>['England', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,25 +3600,30 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
+          <t>['England', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3385,25 +3654,30 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
+          <t>['England', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3434,25 +3708,30 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
+          <t>['England', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3483,25 +3762,30 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
+          <t>['England', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3532,25 +3816,30 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
+          <t>['Romania', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3571,27 +3860,28 @@
       </c>
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>['Italy', 'Belgium']</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
+          <t>['Belgium', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3622,25 +3912,30 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
+          <t>['Belgium', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3671,25 +3966,30 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
+          <t>['Turkey', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3720,25 +4020,30 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
+          <t>['Turkey', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3769,25 +4074,30 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
+          <t>['Turkey', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3818,25 +4128,30 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
+          <t>['Turkey', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3857,27 +4172,28 @@
       </c>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
+          <t>['Norway', 'FR Yugoslavia']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>FR Yugoslavia</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3908,25 +4224,30 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
+          <t>['Norway', 'FR Yugoslavia']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>FR Yugoslavia</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3940,7 +4261,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>38</v>
@@ -3957,26 +4278,31 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
+          <t>['Norway', 'FR Yugoslavia']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
           <t>FR Yugoslavia</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>1</v>
+      <c r="L74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3989,7 +4315,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>50</v>
@@ -4006,26 +4332,31 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
+          <t>['Norway', 'FR Yugoslavia']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>FR Yugoslavia</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K75" t="n">
-        <v>1</v>
+      <c r="L75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4038,7 +4369,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>51</v>
@@ -4055,26 +4386,31 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
+          <t>['Norway', 'FR Yugoslavia']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>FR Yugoslavia</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="K76" t="n">
-        <v>1</v>
+      <c r="L76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -4087,7 +4423,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
         <v>75</v>
@@ -4104,26 +4440,31 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
+          <t>['Norway', 'FR Yugoslavia']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
           <t>FR Yugoslavia</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>Norway</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K77" t="n">
-        <v>1</v>
+      <c r="L77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -4136,7 +4477,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>94</v>
@@ -4153,26 +4494,31 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
+          <t>['Norway', 'FR Yugoslavia']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>FR Yugoslavia</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="K78" t="n">
-        <v>1</v>
+      <c r="L78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -4185,7 +4531,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>95</v>
@@ -4202,26 +4548,31 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
+          <t>['Spain', 'Norway']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I79" t="inlineStr">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>FR Yugoslavia</t>
         </is>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
+      <c r="L79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -4241,27 +4592,28 @@
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr">
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
         <is>
           <t>['Netherlands', 'France']</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4292,25 +4644,30 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
           <t>['Netherlands', 'France']</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4341,25 +4698,30 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
           <t>['Netherlands', 'France']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4390,25 +4752,30 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
           <t>['Netherlands', 'France']</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I83" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4439,25 +4806,30 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
           <t>['Netherlands', 'France']</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4488,25 +4860,30 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
           <t>['Netherlands', 'France']</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4537,25 +4914,30 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
           <t>['Netherlands', 'France']</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I86" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4586,25 +4968,30 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
           <t>['Netherlands', 'France']</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I87" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4625,27 +5012,28 @@
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['Greece', 'Spain']</t>
-        </is>
-      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
+          <t>['Spain', 'Greece']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4659,7 +5047,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>2</v>
@@ -4676,26 +5064,31 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
+          <t>['Spain', 'Greece']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="K89" t="n">
-        <v>1</v>
+      <c r="L89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -4708,7 +5101,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>17</v>
@@ -4725,25 +5118,30 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
+          <t>['Spain', 'Greece']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4757,7 +5155,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
         <v>43</v>
@@ -4774,25 +5172,30 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
+          <t>['Spain', 'Greece']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-      <c r="K91" t="n">
+      <c r="L91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4806,7 +5209,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>57</v>
@@ -4823,25 +5226,30 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
+          <t>['Greece', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,27 +5270,28 @@
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
         <is>
           <t>['England', 'France']</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4913,25 +5322,30 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
+          <t>['France', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,25 +5376,30 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>France</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
+          <t>['France', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5011,25 +5430,30 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
+          <t>['France', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="K96" t="n">
+      <c r="L96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5060,25 +5484,30 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
           <t>['England', 'France']</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5109,25 +5538,30 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
           <t>['England', 'France']</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K98" t="n">
+      <c r="L98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5158,25 +5592,30 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
           <t>['England', 'France']</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K99" t="n">
+      <c r="L99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5207,25 +5646,30 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
           <t>['England', 'France']</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I100" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K100" t="n">
+      <c r="L100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5256,25 +5700,30 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
           <t>['England', 'France']</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I101" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K101" t="n">
+      <c r="L101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5305,25 +5754,30 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
           <t>['England', 'France']</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K102" t="n">
+      <c r="L102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5354,25 +5808,30 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
           <t>['England', 'France']</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I103" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K103" t="n">
+      <c r="L103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5393,27 +5852,28 @@
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>['Denmark', 'Sweden']</t>
-        </is>
-      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
+          <t>['Sweden', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I104" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K104" t="n">
+      <c r="L104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5444,25 +5904,30 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
+          <t>['Sweden', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K105" t="n">
+      <c r="L105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5493,25 +5958,30 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
+          <t>['Sweden', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="I106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="K106" t="n">
+      <c r="L106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5542,25 +6012,30 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
+          <t>['Sweden', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="K107" t="n">
+      <c r="L107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5591,25 +6066,30 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
+          <t>['Sweden', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K108" t="n">
+      <c r="L108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5640,25 +6120,30 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
+          <t>['Sweden', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K109" t="n">
+      <c r="L109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5689,25 +6174,30 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
+          <t>['Sweden', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K110" t="n">
+      <c r="L110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,25 +6228,30 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
+          <t>['Sweden', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K111" t="n">
+      <c r="L111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5777,27 +6272,28 @@
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>['Germany', 'Czech Republic']</t>
-        </is>
-      </c>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K112" t="n">
+      <c r="L112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5828,25 +6324,30 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K113" t="n">
+      <c r="L113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5877,25 +6378,30 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K114" t="n">
+      <c r="L114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5926,25 +6432,30 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="K115" t="n">
+      <c r="L115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5975,25 +6486,30 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="K116" t="n">
+      <c r="L116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,25 +6540,30 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="I117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="K117" t="n">
+      <c r="L117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6073,25 +6594,30 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="K118" t="n">
+      <c r="L118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6112,27 +6638,28 @@
       </c>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>['Portugal', 'Czech Republic']</t>
-        </is>
-      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K119" t="n">
+      <c r="L119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6163,25 +6690,30 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I120" t="inlineStr">
+      <c r="J120" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K120" t="n">
+      <c r="L120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6212,25 +6744,30 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="J121" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K121" t="n">
+      <c r="L121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6261,25 +6798,30 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I122" t="inlineStr">
+      <c r="J122" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K122" t="n">
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,25 +6852,30 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="J123" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K123" t="n">
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6359,25 +6906,30 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K124" t="n">
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6408,25 +6960,30 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K125" t="n">
+      <c r="L125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6457,25 +7014,30 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
+          <t>['Turkey', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="K126" t="n">
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6496,27 +7058,28 @@
       </c>
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Germany']</t>
-        </is>
-      </c>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
+          <t>['Germany', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
+      <c r="J127" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="K127" t="n">
+      <c r="L127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6547,25 +7110,30 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
+          <t>['Germany', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="I128" t="inlineStr">
+      <c r="J128" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="K128" t="n">
+      <c r="L128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,25 +7164,30 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
+          <t>['Germany', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="I129" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="K129" t="n">
+      <c r="L129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6635,27 +7208,28 @@
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>['Netherlands', 'Romania']</t>
-        </is>
-      </c>
+      <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
+          <t>['Romania', 'Netherlands']</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I130" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="J130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K130" t="n">
+      <c r="L130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6686,25 +7260,30 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I131" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="K131" t="n">
+      <c r="L131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6735,25 +7314,30 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I132" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="K132" t="n">
+      <c r="L132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6784,25 +7368,30 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="K133" t="n">
+      <c r="L133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6833,25 +7422,30 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I134" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="K134" t="n">
+      <c r="L134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6872,27 +7466,28 @@
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr">
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
         <is>
           <t>['Spain', 'Sweden']</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I135" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="J135" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="K135" t="n">
+      <c r="L135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6923,25 +7518,30 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
           <t>['Spain', 'Russia']</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I136" t="inlineStr">
+      <c r="J136" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="K136" t="n">
+      <c r="L136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6972,25 +7572,30 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
           <t>['Spain', 'Russia']</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I137" t="inlineStr">
+      <c r="J137" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="K137" t="n">
+      <c r="L137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7021,25 +7626,30 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
           <t>['Spain', 'Russia']</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="J138" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="K138" t="n">
+      <c r="L138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7070,25 +7680,30 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
           <t>['Spain', 'Russia']</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I139" t="inlineStr">
+      <c r="J139" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="K139" t="n">
+      <c r="L139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7119,25 +7734,30 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
           <t>['Spain', 'Russia']</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="J140" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="K140" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="K140" t="n">
+      <c r="L140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7158,27 +7778,28 @@
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr">
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
         <is>
           <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="J141" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="K141" t="inlineStr">
         <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="K141" t="n">
+      <c r="L141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7192,7 +7813,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
         <v>47</v>
@@ -7209,26 +7830,31 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>['Greece', 'Russia']</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'Russia']</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K142" t="n">
-        <v>1</v>
+      <c r="L142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -7241,7 +7867,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
         <v>72</v>
@@ -7258,26 +7884,31 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
           <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="I143" t="inlineStr">
+      <c r="J143" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
+      <c r="K143" t="inlineStr">
         <is>
           <t>Greece</t>
         </is>
       </c>
-      <c r="K143" t="n">
-        <v>1</v>
+      <c r="L143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -7297,27 +7928,28 @@
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>['Portugal', 'Germany']</t>
-        </is>
-      </c>
+      <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
+          <t>['Germany', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="J144" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr">
+      <c r="K144" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K144" t="n">
+      <c r="L144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7348,25 +7980,30 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
+          <t>['Germany', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I145" t="inlineStr">
+      <c r="J145" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr">
+      <c r="K145" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K145" t="n">
+      <c r="L145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7380,7 +8017,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
         <v>19</v>
@@ -7397,26 +8034,31 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
+          <t>['Netherlands', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I146" t="inlineStr">
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K146" t="n">
-        <v>0</v>
+      <c r="L146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -7429,7 +8071,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D147" t="n">
         <v>24</v>
@@ -7446,26 +8088,31 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
+          <t>['Germany', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I147" t="inlineStr">
+      <c r="J147" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K147" t="n">
-        <v>0</v>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -7478,7 +8125,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D148" t="n">
         <v>28</v>
@@ -7495,25 +8142,30 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
+          <t>['Germany', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I148" t="inlineStr">
+      <c r="J148" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr">
+      <c r="K148" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K148" t="n">
+      <c r="L148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7527,7 +8179,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D149" t="n">
         <v>74</v>
@@ -7544,25 +8196,30 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
+          <t>['Germany', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I149" t="inlineStr">
+      <c r="J149" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr">
+      <c r="K149" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K149" t="n">
+      <c r="L149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7576,7 +8233,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D150" t="n">
         <v>80</v>
@@ -7593,25 +8250,30 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
+          <t>['Germany', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I150" t="inlineStr">
+      <c r="J150" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
+      <c r="K150" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K150" t="n">
+      <c r="L150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7632,27 +8294,28 @@
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Spain']</t>
-        </is>
-      </c>
+      <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
+          <t>['Spain', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I151" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr">
+      <c r="K151" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K151" t="n">
+      <c r="L151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7666,7 +8329,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>35</v>
@@ -7683,26 +8346,31 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
+          <t>['Spain', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I152" t="inlineStr">
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="K152" t="n">
-        <v>0</v>
+      <c r="L152" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -7732,26 +8400,31 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
+          <t>['Spain', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I153" t="inlineStr">
+      <c r="J153" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr">
+      <c r="K153" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K153" t="n">
-        <v>1</v>
+      <c r="L153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -7781,25 +8454,30 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
+          <t>['Spain', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I154" t="inlineStr">
+      <c r="J154" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr">
+      <c r="K154" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K154" t="n">
+      <c r="L154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7820,27 +8498,28 @@
       </c>
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr">
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
         <is>
           <t>['England', 'France']</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I155" t="inlineStr">
+      <c r="J155" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J155" t="inlineStr">
+      <c r="K155" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="K155" t="n">
+      <c r="L155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7871,25 +8550,30 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
           <t>['England', 'France']</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I156" t="inlineStr">
+      <c r="J156" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr">
+      <c r="K156" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="K156" t="n">
+      <c r="L156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7920,25 +8604,30 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
           <t>['England', 'France']</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="I157" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr">
+      <c r="J157" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K157" t="n">
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7969,25 +8658,30 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
           <t>['England', 'France']</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr">
+      <c r="J158" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="K158" t="n">
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8008,27 +8702,28 @@
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr">
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr">
         <is>
           <t>['Romania', 'Switzerland', 'France']</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr">
+      <c r="J159" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="J159" t="inlineStr">
+      <c r="K159" t="inlineStr">
         <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="K159" t="n">
+      <c r="L159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8059,25 +8754,30 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
           <t>['Albania', 'Switzerland', 'France']</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I160" t="inlineStr">
+      <c r="J160" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="J160" t="inlineStr">
+      <c r="K160" t="inlineStr">
         <is>
           <t>Albania</t>
         </is>
       </c>
-      <c r="K160" t="n">
+      <c r="L160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,27 +8798,28 @@
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
-        </is>
-      </c>
+      <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
+          <t>['Wales', 'Slovakia', 'England']</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr">
+      <c r="J161" t="inlineStr">
         <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="J161" t="inlineStr">
+      <c r="K161" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K161" t="n">
+      <c r="L161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8149,25 +8850,30 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
+          <t>['Wales', 'Slovakia', 'England']</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr">
+      <c r="J162" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J162" t="inlineStr">
+      <c r="K162" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K162" t="n">
+      <c r="L162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8198,25 +8904,30 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
+          <t>['Wales', 'Slovakia', 'England']</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr">
+      <c r="J163" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K163" t="n">
+      <c r="L163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8247,25 +8958,30 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
+          <t>['Wales', 'Slovakia', 'England']</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="I164" t="inlineStr">
+      <c r="J164" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J164" t="inlineStr">
+      <c r="K164" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K164" t="n">
+      <c r="L164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8286,27 +9002,28 @@
       </c>
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
-        </is>
-      </c>
+      <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr">
+      <c r="J165" t="inlineStr">
         <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr">
+      <c r="K165" t="inlineStr">
         <is>
           <t>Northern Ireland</t>
         </is>
       </c>
-      <c r="K165" t="n">
+      <c r="L165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8337,25 +9054,30 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr">
+      <c r="J166" t="inlineStr">
         <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="K166" t="inlineStr">
         <is>
           <t>Northern Ireland</t>
         </is>
       </c>
-      <c r="K166" t="n">
+      <c r="L166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8386,25 +9108,30 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Poland', 'Germany']</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>Poland</t>
         </is>
       </c>
-      <c r="J167" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>Northern Ireland</t>
         </is>
       </c>
-      <c r="K167" t="n">
+      <c r="L167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8425,27 +9152,28 @@
       </c>
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
-        </is>
-      </c>
+      <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I168" t="inlineStr">
+      <c r="J168" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J168" t="inlineStr">
+      <c r="K168" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K168" t="n">
+      <c r="L168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8476,25 +9204,30 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I169" t="inlineStr">
+      <c r="J169" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr">
+      <c r="K169" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K169" t="n">
+      <c r="L169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8525,25 +9258,30 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr">
+      <c r="J170" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J170" t="inlineStr">
+      <c r="K170" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K170" t="n">
+      <c r="L170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8574,25 +9312,30 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr">
+      <c r="J171" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J171" t="inlineStr">
+      <c r="K171" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K171" t="n">
+      <c r="L171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8623,25 +9366,30 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I172" t="inlineStr">
+      <c r="J172" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J172" t="inlineStr">
+      <c r="K172" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K172" t="n">
+      <c r="L172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8672,25 +9420,30 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Turkey']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="I173" t="inlineStr">
+      <c r="J173" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr">
+      <c r="K173" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="K173" t="n">
+      <c r="L173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8711,27 +9464,28 @@
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
-        </is>
-      </c>
+      <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr">
+      <c r="J174" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="J174" t="inlineStr">
+      <c r="K174" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="K174" t="n">
+      <c r="L174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8762,25 +9516,30 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Republic of Ireland']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
+          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I175" t="inlineStr">
+      <c r="J175" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr">
+      <c r="K175" t="inlineStr">
         <is>
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="K175" t="n">
+      <c r="L175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8811,25 +9570,30 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Republic of Ireland']</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
+          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
+      <c r="K176" t="inlineStr">
         <is>
           <t>Republic of Ireland</t>
         </is>
       </c>
-      <c r="K176" t="n">
+      <c r="L176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8850,27 +9614,28 @@
       </c>
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
-        </is>
-      </c>
+      <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="I177" t="inlineStr">
+      <c r="J177" t="inlineStr">
         <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="J177" t="inlineStr">
+      <c r="K177" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K177" t="n">
+      <c r="L177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8901,25 +9666,30 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="I178" t="inlineStr">
+      <c r="J178" t="inlineStr">
         <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr">
+      <c r="K178" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K178" t="n">
+      <c r="L178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8950,25 +9720,30 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="I179" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr">
+      <c r="K179" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K179" t="n">
+      <c r="L179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8999,25 +9774,30 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="I180" t="inlineStr">
+      <c r="J180" t="inlineStr">
         <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="J180" t="inlineStr">
+      <c r="K180" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K180" t="n">
+      <c r="L180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9048,25 +9828,30 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="I181" t="inlineStr">
+      <c r="J181" t="inlineStr">
         <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="J181" t="inlineStr">
+      <c r="K181" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K181" t="n">
+      <c r="L181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9097,25 +9882,30 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="I182" t="inlineStr">
+      <c r="J182" t="inlineStr">
         <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr">
+      <c r="K182" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K182" t="n">
+      <c r="L182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9146,25 +9936,30 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="I183" t="inlineStr">
+      <c r="J183" t="inlineStr">
         <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr">
+      <c r="K183" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K183" t="n">
+      <c r="L183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9195,25 +9990,30 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="I184" t="inlineStr">
+      <c r="J184" t="inlineStr">
         <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="J184" t="inlineStr">
+      <c r="K184" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K184" t="n">
+      <c r="L184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9244,25 +10044,30 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
+      <c r="J185" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J185" t="inlineStr">
+      <c r="K185" t="inlineStr">
         <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="K185" t="n">
+      <c r="L185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9293,25 +10098,30 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
+          <t>['Hungary', 'Iceland', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="I186" t="inlineStr">
+      <c r="J186" t="inlineStr">
         <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="J186" t="inlineStr">
+      <c r="K186" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="K186" t="n">
+      <c r="L186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9332,27 +10142,28 @@
       </c>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
-        </is>
-      </c>
+      <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I187" t="inlineStr">
+      <c r="J187" t="inlineStr">
         <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="J187" t="inlineStr">
+      <c r="K187" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="K187" t="n">
+      <c r="L187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9383,25 +10194,30 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I188" t="inlineStr">
+      <c r="J188" t="inlineStr">
         <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="J188" t="inlineStr">
+      <c r="K188" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="K188" t="n">
+      <c r="L188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9432,25 +10248,30 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I189" t="inlineStr">
+      <c r="J189" t="inlineStr">
         <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="J189" t="inlineStr">
+      <c r="K189" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="K189" t="n">
+      <c r="L189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9481,25 +10302,30 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I190" t="inlineStr">
+      <c r="J190" t="inlineStr">
         <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="J190" t="inlineStr">
+      <c r="K190" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="K190" t="n">
+      <c r="L190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9530,25 +10356,30 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I191" t="inlineStr">
+      <c r="J191" t="inlineStr">
         <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr">
+      <c r="K191" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="K191" t="n">
+      <c r="L191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9579,25 +10410,30 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="I192" t="inlineStr">
+      <c r="J192" t="inlineStr">
         <is>
           <t>Wales</t>
         </is>
       </c>
-      <c r="J192" t="inlineStr">
+      <c r="K192" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="K192" t="n">
+      <c r="L192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9618,27 +10454,28 @@
       </c>
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>['Belgium', 'Finland', 'Russia']</t>
-        </is>
-      </c>
+      <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
+          <t>['Russia', 'Belgium', 'Finland']</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="I193" t="inlineStr">
+      <c r="J193" t="inlineStr">
         <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="J193" t="inlineStr">
+      <c r="K193" t="inlineStr">
         <is>
           <t>Russia</t>
         </is>
       </c>
-      <c r="K193" t="n">
+      <c r="L193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9669,25 +10506,30 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr">
+      <c r="J194" t="inlineStr">
         <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="J194" t="inlineStr">
+      <c r="K194" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K194" t="n">
+      <c r="L194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9718,25 +10560,30 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="I195" t="inlineStr">
+      <c r="J195" t="inlineStr">
         <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="J195" t="inlineStr">
+      <c r="K195" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K195" t="n">
+      <c r="L195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9767,25 +10614,30 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="I196" t="inlineStr">
+      <c r="J196" t="inlineStr">
         <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="J196" t="inlineStr">
+      <c r="K196" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K196" t="n">
+      <c r="L196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9799,7 +10651,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197" t="n">
         <v>74</v>
@@ -9816,26 +10668,31 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
+          <t>['Russia', 'Belgium', 'Finland']</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="J197" t="inlineStr">
         <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="K197" t="n">
-        <v>0</v>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -9848,7 +10705,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" t="n">
         <v>79</v>
@@ -9865,25 +10722,30 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
+          <t>['Russia', 'Belgium', 'Finland']</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="J198" t="inlineStr">
         <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="K198" t="n">
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9897,7 +10759,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199" t="n">
         <v>81</v>
@@ -9914,25 +10776,30 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
+          <t>['Russia', 'Belgium', 'Finland']</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="J199" t="inlineStr">
         <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="K199" t="n">
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9946,7 +10813,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" t="n">
         <v>82</v>
@@ -9963,25 +10830,30 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>['Belgium', 'Denmark', 'Finland']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
+          <t>['Russia', 'Belgium', 'Finland']</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="J200" t="inlineStr">
         <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="K200" t="n">
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10002,27 +10874,28 @@
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr">
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
         <is>
           <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="I201" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I201" t="inlineStr">
+      <c r="J201" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="J201" t="inlineStr">
+      <c r="K201" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="K201" t="n">
+      <c r="L201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10053,25 +10926,30 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="I202" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I202" t="inlineStr">
+      <c r="J202" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="J202" t="inlineStr">
+      <c r="K202" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="K202" t="n">
+      <c r="L202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10102,25 +10980,30 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="I203" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr">
+      <c r="J203" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr">
+      <c r="K203" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="K203" t="n">
+      <c r="L203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10151,25 +11034,30 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="I204" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
+      <c r="J204" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr">
+      <c r="K204" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="K204" t="n">
+      <c r="L204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10200,25 +11088,30 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="I205" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr">
+      <c r="J205" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr">
+      <c r="K205" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="K205" t="n">
+      <c r="L205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10239,27 +11132,28 @@
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
-        </is>
-      </c>
+      <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="I206" t="inlineStr">
+      <c r="J206" t="inlineStr">
         <is>
           <t>England</t>
         </is>
       </c>
-      <c r="J206" t="inlineStr">
+      <c r="K206" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K206" t="n">
+      <c r="L206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10290,25 +11184,30 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I207" t="inlineStr">
+      <c r="J207" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr">
+      <c r="K207" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K207" t="n">
+      <c r="L207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10339,25 +11238,30 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr">
+      <c r="J208" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr">
+      <c r="K208" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K208" t="n">
+      <c r="L208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10388,25 +11292,30 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I209" t="inlineStr">
+      <c r="J209" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr">
+      <c r="K209" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K209" t="n">
+      <c r="L209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10437,25 +11346,30 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I210" t="inlineStr">
+      <c r="J210" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr">
+      <c r="K210" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K210" t="n">
+      <c r="L210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10486,25 +11400,30 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>['England', 'Croatia', 'Czech Republic']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I211" t="inlineStr">
+      <c r="J211" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J211" t="inlineStr">
+      <c r="K211" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K211" t="n">
+      <c r="L211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10525,27 +11444,28 @@
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
-        </is>
-      </c>
+      <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
         <is>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I212" t="inlineStr">
+      <c r="J212" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="J212" t="inlineStr">
+      <c r="K212" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K212" t="n">
+      <c r="L212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10576,25 +11496,30 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I213" t="inlineStr">
+      <c r="J213" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="J213" t="inlineStr">
+      <c r="K213" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="K213" t="n">
+      <c r="L213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10625,25 +11550,30 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr">
+      <c r="J214" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J214" t="inlineStr">
+      <c r="K214" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K214" t="n">
+      <c r="L214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10674,25 +11604,30 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I215" t="inlineStr">
+      <c r="J215" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J215" t="inlineStr">
+      <c r="K215" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K215" t="n">
+      <c r="L215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10723,25 +11658,30 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I216" t="inlineStr">
+      <c r="J216" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J216" t="inlineStr">
+      <c r="K216" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K216" t="n">
+      <c r="L216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10772,25 +11712,30 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I217" t="inlineStr">
+      <c r="J217" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J217" t="inlineStr">
+      <c r="K217" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K217" t="n">
+      <c r="L217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10821,25 +11766,30 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I218" t="inlineStr">
+      <c r="J218" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J218" t="inlineStr">
+      <c r="K218" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K218" t="n">
+      <c r="L218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10870,25 +11820,30 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I219" t="inlineStr">
+      <c r="J219" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J219" t="inlineStr">
+      <c r="K219" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K219" t="n">
+      <c r="L219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10919,25 +11874,30 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I220" t="inlineStr">
+      <c r="J220" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J220" t="inlineStr">
+      <c r="K220" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K220" t="n">
+      <c r="L220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10968,25 +11928,30 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I221" t="inlineStr">
+      <c r="J221" t="inlineStr">
         <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="J221" t="inlineStr">
+      <c r="K221" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K221" t="n">
+      <c r="L221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11017,25 +11982,30 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
           <t>Sweden</t>
         </is>
       </c>
-      <c r="I222" t="inlineStr">
+      <c r="J222" t="inlineStr">
         <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J222" t="inlineStr">
+      <c r="K222" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K222" t="n">
+      <c r="L222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11056,27 +12026,28 @@
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr">
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
         <is>
           <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
+      <c r="I223" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I223" t="inlineStr">
+      <c r="J223" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J223" t="inlineStr">
+      <c r="K223" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="K223" t="n">
+      <c r="L223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11107,25 +12078,30 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
           <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
+      <c r="I224" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I224" t="inlineStr">
+      <c r="J224" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J224" t="inlineStr">
+      <c r="K224" t="inlineStr">
         <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="K224" t="n">
+      <c r="L224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11156,25 +12132,30 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
+          <t>['Hungary', 'France', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I225" t="inlineStr">
+      <c r="J225" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J225" t="inlineStr">
+      <c r="K225" t="inlineStr">
         <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="K225" t="n">
+      <c r="L225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11205,25 +12186,30 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
           <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
+      <c r="I226" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I226" t="inlineStr">
+      <c r="J226" t="inlineStr">
         <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="J226" t="inlineStr">
+      <c r="K226" t="inlineStr">
         <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="K226" t="n">
+      <c r="L226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11254,25 +12240,30 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
+          <t>['Hungary', 'France', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I227" t="inlineStr">
+      <c r="J227" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J227" t="inlineStr">
+      <c r="K227" t="inlineStr">
         <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="K227" t="n">
+      <c r="L227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11303,25 +12294,30 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
+          <t>['Germany', 'France', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I228" t="inlineStr">
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K228" t="n">
+      <c r="L228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11352,25 +12348,30 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
+          <t>['Hungary', 'France', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I229" t="inlineStr">
+      <c r="J229" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J229" t="inlineStr">
+      <c r="K229" t="inlineStr">
         <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="K229" t="n">
+      <c r="L229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11401,25 +12402,30 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
+          <t>['Germany', 'France', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I230" t="inlineStr">
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-      <c r="K230" t="n">
+      <c r="L230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11440,27 +12446,28 @@
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
-        </is>
-      </c>
+      <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I231" t="inlineStr">
+      <c r="J231" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="J231" t="inlineStr">
+      <c r="K231" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="K231" t="n">
+      <c r="L231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11491,25 +12498,30 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="I232" t="inlineStr">
+      <c r="J232" t="inlineStr">
         <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="J232" t="inlineStr">
+      <c r="K232" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="K232" t="n">
+      <c r="L232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11540,25 +12552,30 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I233" t="inlineStr">
+      <c r="J233" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="J233" t="inlineStr">
+      <c r="K233" t="inlineStr">
         <is>
           <t>Scotland</t>
         </is>
       </c>
-      <c r="K233" t="n">
+      <c r="L233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11589,25 +12606,30 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
+          <t>['Hungary', 'Germany', 'Switzerland']</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
           <t>Germany</t>
         </is>
       </c>
-      <c r="I234" t="inlineStr">
+      <c r="J234" t="inlineStr">
         <is>
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="J234" t="inlineStr">
+      <c r="K234" t="inlineStr">
         <is>
           <t>Hungary</t>
         </is>
       </c>
-      <c r="K234" t="n">
+      <c r="L234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11628,27 +12650,28 @@
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>['Italy', 'Spain', 'Albania']</t>
-        </is>
-      </c>
+      <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr">
         <is>
+          <t>['Spain', 'Albania', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I235" t="inlineStr">
+      <c r="J235" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J235" t="inlineStr">
+      <c r="K235" t="inlineStr">
         <is>
           <t>Albania</t>
         </is>
       </c>
-      <c r="K235" t="n">
+      <c r="L235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11679,25 +12702,30 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
+          <t>['Spain', 'Croatia', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I236" t="inlineStr">
+      <c r="J236" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J236" t="inlineStr">
+      <c r="K236" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K236" t="n">
+      <c r="L236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11728,25 +12756,30 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
+          <t>['Spain', 'Italy', 'Croatia']</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I237" t="inlineStr">
+      <c r="J237" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="J237" t="inlineStr">
+      <c r="K237" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K237" t="n">
+      <c r="L237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11777,25 +12810,30 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
+          <t>['Spain', 'Croatia', 'Italy']</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="I238" t="inlineStr">
+      <c r="J238" t="inlineStr">
         <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="J238" t="inlineStr">
+      <c r="K238" t="inlineStr">
         <is>
           <t>Croatia</t>
         </is>
       </c>
-      <c r="K238" t="n">
+      <c r="L238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11816,27 +12854,28 @@
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
-        </is>
-      </c>
+      <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr">
         <is>
+          <t>['Slovenia', 'England', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I239" t="inlineStr">
+      <c r="J239" t="inlineStr">
         <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="J239" t="inlineStr">
+      <c r="K239" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K239" t="n">
+      <c r="L239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11867,25 +12906,30 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>England</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
+          <t>['Slovenia', 'England', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I240" t="inlineStr">
+      <c r="J240" t="inlineStr">
         <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="J240" t="inlineStr">
+      <c r="K240" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K240" t="n">
+      <c r="L240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11916,25 +12960,30 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
+          <t>['Slovenia', 'England', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I241" t="inlineStr">
+      <c r="J241" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="J241" t="inlineStr">
+      <c r="K241" t="inlineStr">
         <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="K241" t="n">
+      <c r="L241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11965,25 +13014,30 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
+          <t>['Slovenia', 'England', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I242" t="inlineStr">
+      <c r="J242" t="inlineStr">
         <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="J242" t="inlineStr">
+      <c r="K242" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K242" t="n">
+      <c r="L242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12014,25 +13068,30 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>['England', 'Denmark', 'Slovenia']</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
+          <t>['Slovenia', 'England', 'Denmark']</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="I243" t="inlineStr">
+      <c r="J243" t="inlineStr">
         <is>
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="J243" t="inlineStr">
+      <c r="K243" t="inlineStr">
         <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K243" t="n">
+      <c r="L243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12053,27 +13112,28 @@
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr">
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
         <is>
           <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
+      <c r="I244" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I244" t="inlineStr">
+      <c r="J244" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J244" t="inlineStr">
+      <c r="K244" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="K244" t="n">
+      <c r="L244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12104,25 +13164,30 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
+          <t>['Netherlands', 'Austria', 'France']</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="I245" t="inlineStr">
+      <c r="J245" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J245" t="inlineStr">
+      <c r="K245" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K245" t="n">
+      <c r="L245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12153,25 +13218,30 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
+      <c r="I246" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I246" t="inlineStr">
+      <c r="J246" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J246" t="inlineStr">
+      <c r="K246" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="K246" t="n">
+      <c r="L246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12202,25 +13272,30 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
+      <c r="I247" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I247" t="inlineStr">
+      <c r="J247" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J247" t="inlineStr">
+      <c r="K247" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="K247" t="n">
+      <c r="L247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12251,25 +13326,30 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
+      <c r="I248" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I248" t="inlineStr">
+      <c r="J248" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="J248" t="inlineStr">
+      <c r="K248" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K248" t="n">
+      <c r="L248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12300,25 +13380,30 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
+      <c r="I249" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="I249" t="inlineStr">
+      <c r="J249" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="J249" t="inlineStr">
+      <c r="K249" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="K249" t="n">
+      <c r="L249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12349,25 +13434,30 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
           <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
+      <c r="I250" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="I250" t="inlineStr">
+      <c r="J250" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J250" t="inlineStr">
+      <c r="K250" t="inlineStr">
         <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="K250" t="n">
+      <c r="L250" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12398,25 +13488,30 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
+          <t>['Netherlands', 'Austria', 'France']</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
           <t>Austria</t>
         </is>
       </c>
-      <c r="I251" t="inlineStr">
+      <c r="J251" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="J251" t="inlineStr">
+      <c r="K251" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K251" t="n">
+      <c r="L251" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12437,27 +13532,28 @@
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>['Belgium', 'Romania', 'Ukraine']</t>
-        </is>
-      </c>
+      <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr">
         <is>
+          <t>['Romania', 'Belgium', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="I252" t="inlineStr">
+      <c r="J252" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="J252" t="inlineStr">
+      <c r="K252" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K252" t="n">
+      <c r="L252" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12488,25 +13584,30 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ukraine', 'Slovakia']</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
+          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="I253" t="inlineStr">
+      <c r="J253" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="J253" t="inlineStr">
+      <c r="K253" t="inlineStr">
         <is>
           <t>Ukraine</t>
         </is>
       </c>
-      <c r="K253" t="n">
+      <c r="L253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12537,25 +13638,30 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>['Belgium', 'Romania', 'Slovakia']</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="I254" t="inlineStr">
+      <c r="J254" t="inlineStr">
         <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="J254" t="inlineStr">
+      <c r="K254" t="inlineStr">
         <is>
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="K254" t="n">
+      <c r="L254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12576,27 +13682,28 @@
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr">
-        <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
-        </is>
-      </c>
+      <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr">
         <is>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I255" t="inlineStr">
+      <c r="J255" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="J255" t="inlineStr">
+      <c r="K255" t="inlineStr">
         <is>
           <t>Czech Republic</t>
         </is>
       </c>
-      <c r="K255" t="n">
+      <c r="L255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12627,25 +13734,30 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I256" t="inlineStr">
+      <c r="J256" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="J256" t="inlineStr">
+      <c r="K256" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="K256" t="n">
+      <c r="L256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12676,25 +13788,30 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I257" t="inlineStr">
+      <c r="J257" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="J257" t="inlineStr">
+      <c r="K257" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="K257" t="n">
+      <c r="L257" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12725,25 +13842,30 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I258" t="inlineStr">
+      <c r="J258" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="J258" t="inlineStr">
+      <c r="K258" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="K258" t="n">
+      <c r="L258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12774,25 +13896,30 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I259" t="inlineStr">
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="K259" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="J259" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="K259" t="n">
+      <c r="L259" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12823,25 +13950,30 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
         <is>
+          <t>['Turkey', 'Georgia', 'Portugal']</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
           <t>Portugal</t>
         </is>
       </c>
-      <c r="I260" t="inlineStr">
+      <c r="J260" t="inlineStr">
         <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="J260" t="inlineStr">
+      <c r="K260" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="K260" t="n">
+      <c r="L260" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -773,7 +773,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1085,7 +1085,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2237,7 +2237,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3863,7 +3863,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Spain', 'Norway']</t>
+          <t>['Norway', 'Spain']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4595,7 +4595,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5015,7 +5015,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5273,7 +5273,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -7211,7 +7211,7 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7469,7 +7469,7 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7577,7 +7577,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7631,7 +7631,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7781,7 +7781,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8501,7 +8501,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8555,7 +8555,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8663,7 +8663,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -8705,7 +8705,7 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>['Romania', 'Switzerland', 'France']</t>
+          <t>['France', 'Switzerland', 'Romania']</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>['Albania', 'Switzerland', 'France']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8801,7 +8801,7 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8855,7 +8855,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -8909,7 +8909,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>['Wales', 'Slovakia', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9005,7 +9005,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9059,7 +9059,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9155,7 +9155,7 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -9209,7 +9209,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Czech Republic', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9317,7 +9317,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Turkey', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9467,7 +9467,7 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Sweden', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
+          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
+          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -9617,7 +9617,7 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -9779,7 +9779,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -9833,7 +9833,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>['Hungary', 'Iceland', 'Portugal']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -10145,7 +10145,7 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -10253,7 +10253,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -10457,7 +10457,7 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -10565,7 +10565,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -11447,7 +11447,7 @@
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -11501,7 +11501,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -11555,7 +11555,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -11609,7 +11609,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -11663,7 +11663,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -11879,7 +11879,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -11987,7 +11987,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -12029,7 +12029,7 @@
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -12191,7 +12191,7 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -12353,7 +12353,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>['Hungary', 'France', 'Portugal']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -12407,7 +12407,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>['Germany', 'France', 'Portugal']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -12449,7 +12449,7 @@
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Germany', 'Switzerland', 'Scotland']</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>['Germany', 'Scotland', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>['Hungary', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -12653,7 +12653,7 @@
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -12707,7 +12707,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -12761,7 +12761,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Croatia']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -12857,7 +12857,7 @@
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -12911,7 +12911,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -12965,7 +12965,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -13019,7 +13019,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -13073,7 +13073,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['England', 'Denmark', 'Slovenia']</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -13115,7 +13115,7 @@
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -13169,7 +13169,7 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -13385,7 +13385,7 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -13493,7 +13493,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -13535,7 +13535,7 @@
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Ukraine']</t>
+          <t>['Ukraine', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -13589,7 +13589,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
+          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -13685,7 +13685,7 @@
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Czech Republic', 'Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -13793,7 +13793,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -13847,7 +13847,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>['Turkey', 'Georgia', 'Portugal']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="133">
   <si>
     <t>year</t>
   </si>
@@ -196,34 +196,34 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>['France', 'Denmark']</t>
-  </si>
-  <si>
-    <t>['France', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Spain', 'West Germany']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'West Germany']</t>
+    <t>['Denmark', 'France']</t>
+  </si>
+  <si>
+    <t>['Belgium', 'France']</t>
+  </si>
+  <si>
+    <t>['West Germany', 'Spain']</t>
+  </si>
+  <si>
+    <t>['West Germany', 'Portugal']</t>
   </si>
   <si>
     <t>['Portugal', 'Spain']</t>
   </si>
   <si>
-    <t>['Italy', 'West Germany']</t>
+    <t>['West Germany', 'Italy']</t>
   </si>
   <si>
     <t>['Soviet Union', 'Republic of Ireland']</t>
   </si>
   <si>
-    <t>['Soviet Union', 'Netherlands']</t>
+    <t>['Netherlands', 'Soviet Union']</t>
   </si>
   <si>
     <t>['France', 'Sweden']</t>
   </si>
   <si>
-    <t>['England', 'Sweden']</t>
+    <t>['Sweden', 'England']</t>
   </si>
   <si>
     <t>['Denmark', 'Sweden']</t>
@@ -235,10 +235,10 @@
     <t>['Netherlands', 'England']</t>
   </si>
   <si>
-    <t>['France', 'Bulgaria']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Bulgaria']</t>
+    <t>['Bulgaria', 'France']</t>
+  </si>
+  <si>
+    <t>['Bulgaria', 'Spain']</t>
   </si>
   <si>
     <t>['France', 'Spain']</t>
@@ -247,10 +247,7 @@
     <t>['Germany', 'Czech Republic']</t>
   </si>
   <si>
-    <t>['Germany', 'Italy']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'Portugal']</t>
+    <t>['Italy', 'Germany']</t>
   </si>
   <si>
     <t>['Portugal', 'Croatia']</t>
@@ -262,25 +259,22 @@
     <t>['Portugal', 'Romania']</t>
   </si>
   <si>
-    <t>['Belgium', 'Italy']</t>
-  </si>
-  <si>
-    <t>['Turkey', 'Italy']</t>
+    <t>['Italy', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Turkey']</t>
   </si>
   <si>
     <t>['Norway', 'FR Yugoslavia']</t>
   </si>
   <si>
-    <t>['Norway', 'Spain']</t>
-  </si>
-  <si>
-    <t>['France', 'Netherlands']</t>
+    <t>['Spain', 'Norway']</t>
   </si>
   <si>
     <t>['Netherlands', 'France']</t>
   </si>
   <si>
-    <t>['Greece', 'Spain']</t>
+    <t>['Spain', 'Greece']</t>
   </si>
   <si>
     <t>['Portugal', 'Greece']</t>
@@ -289,7 +283,7 @@
     <t>['France', 'England']</t>
   </si>
   <si>
-    <t>['Croatia', 'France']</t>
+    <t>['France', 'Croatia']</t>
   </si>
   <si>
     <t>['Netherlands', 'Czech Republic']</t>
@@ -301,7 +295,7 @@
     <t>['Portugal', 'Turkey']</t>
   </si>
   <si>
-    <t>['Croatia', 'Germany']</t>
+    <t>['Germany', 'Croatia']</t>
   </si>
   <si>
     <t>['Netherlands', 'Romania']</t>
@@ -310,13 +304,13 @@
     <t>['Netherlands', 'Italy']</t>
   </si>
   <si>
-    <t>['Sweden', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Russia']</t>
-  </si>
-  <si>
-    <t>['Czech Republic', 'Russia']</t>
+    <t>['Spain', 'Sweden']</t>
+  </si>
+  <si>
+    <t>['Russia', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Russia', 'Czech Republic']</t>
   </si>
   <si>
     <t>['Portugal', 'Germany']</t>
@@ -325,7 +319,7 @@
     <t>['Denmark', 'Germany']</t>
   </si>
   <si>
-    <t>['Croatia', 'Spain']</t>
+    <t>['Spain', 'Croatia']</t>
   </si>
   <si>
     <t>['Italy', 'Spain']</t>
@@ -334,79 +328,79 @@
     <t>['France', 'Romania', 'Switzerland']</t>
   </si>
   <si>
-    <t>['France', 'Switzerland', 'Albania']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'England', 'Wales']</t>
+    <t>['Albania', 'France', 'Switzerland']</t>
+  </si>
+  <si>
+    <t>['Wales', 'Slovakia', 'England']</t>
   </si>
   <si>
     <t>['Northern Ireland', 'Germany', 'Poland']</t>
   </si>
   <si>
-    <t>['Croatia', 'Czech Republic', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'Turkey', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Sweden', 'Belgium', 'Italy']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'Italy', 'Republic of Ireland']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'Iceland', 'Hungary']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Switzerland', 'Wales']</t>
-  </si>
-  <si>
-    <t>['Finland', 'Belgium', 'Russia']</t>
-  </si>
-  <si>
-    <t>['Finland', 'Denmark', 'Belgium']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Austria', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'Czech Republic', 'England']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Sweden', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'France', 'Germany']</t>
-  </si>
-  <si>
-    <t>['Portugal', 'France', 'Hungary']</t>
+    <t>['Spain', 'Croatia', 'Czech Republic']</t>
+  </si>
+  <si>
+    <t>['Spain', 'Turkey', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Belgium', 'Sweden']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Belgium', 'Republic of Ireland']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Hungary', 'Iceland']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Wales', 'Switzerland']</t>
+  </si>
+  <si>
+    <t>['Russia', 'Belgium', 'Finland']</t>
+  </si>
+  <si>
+    <t>['Denmark', 'Belgium', 'Finland']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'Ukraine', 'Austria']</t>
+  </si>
+  <si>
+    <t>['England', 'Croatia', 'Czech Republic']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Croatia', 'England']</t>
+  </si>
+  <si>
+    <t>['Slovakia', 'Spain', 'Sweden']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Germany', 'France']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'Hungary', 'France']</t>
   </si>
   <si>
     <t>['Scotland', 'Germany', 'Switzerland']</t>
   </si>
   <si>
-    <t>['Germany', 'Switzerland', 'Hungary']</t>
-  </si>
-  <si>
-    <t>['Italy', 'Spain', 'Albania']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'Italy', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Denmark', 'England', 'Slovenia']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Austria', 'France']</t>
-  </si>
-  <si>
-    <t>['France', 'Austria', 'Netherlands']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'Romania', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Belgium', 'Ukraine']</t>
+    <t>['Hungary', 'Germany', 'Switzerland']</t>
+  </si>
+  <si>
+    <t>['Albania', 'Italy', 'Spain']</t>
+  </si>
+  <si>
+    <t>['Italy', 'Spain', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Slovenia', 'Denmark', 'England']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'France', 'Austria']</t>
+  </si>
+  <si>
+    <t>['Ukraine', 'Romania', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Ukraine', 'Slovakia', 'Belgium']</t>
   </si>
   <si>
     <t>['Slovakia', 'Belgium', 'Romania']</t>
@@ -3147,7 +3141,7 @@
         <v>22</v>
       </c>
       <c r="H65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s">
         <v>22</v>
@@ -3185,7 +3179,7 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s">
         <v>22</v>
@@ -3223,7 +3217,7 @@
         <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I67" t="s">
         <v>22</v>
@@ -3261,7 +3255,7 @@
         <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I68" t="s">
         <v>22</v>
@@ -3299,7 +3293,7 @@
         <v>22</v>
       </c>
       <c r="H69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I69" t="s">
         <v>22</v>
@@ -3337,7 +3331,7 @@
         <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I70" t="s">
         <v>22</v>
@@ -3366,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I71" t="s">
         <v>22</v>
@@ -3404,7 +3398,7 @@
         <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s">
         <v>22</v>
@@ -3442,7 +3436,7 @@
         <v>22</v>
       </c>
       <c r="H73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -3480,7 +3474,7 @@
         <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I74" t="s">
         <v>22</v>
@@ -3518,7 +3512,7 @@
         <v>25</v>
       </c>
       <c r="H75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I75" t="s">
         <v>22</v>
@@ -3556,7 +3550,7 @@
         <v>30</v>
       </c>
       <c r="H76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I76" t="s">
         <v>22</v>
@@ -3594,7 +3588,7 @@
         <v>22</v>
       </c>
       <c r="H77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I77" t="s">
         <v>22</v>
@@ -3632,7 +3626,7 @@
         <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I78" t="s">
         <v>22</v>
@@ -3670,7 +3664,7 @@
         <v>30</v>
       </c>
       <c r="H79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I79" t="s">
         <v>22</v>
@@ -3699,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I80" t="s">
         <v>24</v>
@@ -3737,7 +3731,7 @@
         <v>24</v>
       </c>
       <c r="H81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I81" t="s">
         <v>24</v>
@@ -3775,7 +3769,7 @@
         <v>33</v>
       </c>
       <c r="H82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I82" t="s">
         <v>24</v>
@@ -3813,7 +3807,7 @@
         <v>33</v>
       </c>
       <c r="H83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I83" t="s">
         <v>24</v>
@@ -3851,7 +3845,7 @@
         <v>27</v>
       </c>
       <c r="H84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I84" t="s">
         <v>24</v>
@@ -3889,7 +3883,7 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I85" t="s">
         <v>24</v>
@@ -3918,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I86" t="s">
         <v>34</v>
@@ -3927,7 +3921,7 @@
         <v>35</v>
       </c>
       <c r="K86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L86">
         <v>0</v>
@@ -3956,13 +3950,13 @@
         <v>34</v>
       </c>
       <c r="H87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I87" t="s">
         <v>34</v>
       </c>
       <c r="J87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K87" t="s">
         <v>35</v>
@@ -3994,13 +3988,13 @@
         <v>35</v>
       </c>
       <c r="H88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I88" t="s">
         <v>34</v>
       </c>
       <c r="J88" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K88" t="s">
         <v>35</v>
@@ -4032,13 +4026,13 @@
         <v>34</v>
       </c>
       <c r="H89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I89" t="s">
         <v>34</v>
       </c>
       <c r="J89" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K89" t="s">
         <v>35</v>
@@ -4070,13 +4064,13 @@
         <v>35</v>
       </c>
       <c r="H90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I90" t="s">
         <v>34</v>
       </c>
       <c r="J90" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K90" t="s">
         <v>35</v>
@@ -4108,13 +4102,13 @@
         <v>34</v>
       </c>
       <c r="H91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I91" t="s">
         <v>34</v>
       </c>
       <c r="J91" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K91" t="s">
         <v>35</v>
@@ -4146,13 +4140,13 @@
         <v>35</v>
       </c>
       <c r="H92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I92" t="s">
         <v>34</v>
       </c>
       <c r="J92" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K92" t="s">
         <v>35</v>
@@ -4184,13 +4178,13 @@
         <v>35</v>
       </c>
       <c r="H93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I93" t="s">
         <v>35</v>
       </c>
       <c r="J93" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K93" t="s">
         <v>34</v>
@@ -4213,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I94" t="s">
         <v>21</v>
@@ -4251,7 +4245,7 @@
         <v>21</v>
       </c>
       <c r="H95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I95" t="s">
         <v>21</v>
@@ -4289,7 +4283,7 @@
         <v>28</v>
       </c>
       <c r="H96" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I96" t="s">
         <v>28</v>
@@ -4327,7 +4321,7 @@
         <v>21</v>
       </c>
       <c r="H97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I97" t="s">
         <v>21</v>
@@ -4365,7 +4359,7 @@
         <v>28</v>
       </c>
       <c r="H98" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I98" t="s">
         <v>28</v>
@@ -4403,7 +4397,7 @@
         <v>28</v>
       </c>
       <c r="H99" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I99" t="s">
         <v>28</v>
@@ -4441,7 +4435,7 @@
         <v>41</v>
       </c>
       <c r="H100" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I100" t="s">
         <v>28</v>
@@ -4479,7 +4473,7 @@
         <v>41</v>
       </c>
       <c r="H101" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I101" t="s">
         <v>28</v>
@@ -4508,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I102" t="s">
         <v>40</v>
@@ -4546,7 +4540,7 @@
         <v>31</v>
       </c>
       <c r="H103" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I103" t="s">
         <v>35</v>
@@ -4584,7 +4578,7 @@
         <v>31</v>
       </c>
       <c r="H104" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I104" t="s">
         <v>35</v>
@@ -4622,7 +4616,7 @@
         <v>40</v>
       </c>
       <c r="H105" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I105" t="s">
         <v>35</v>
@@ -4660,7 +4654,7 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I106" t="s">
         <v>22</v>
@@ -4689,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I107" t="s">
         <v>21</v>
@@ -4727,7 +4721,7 @@
         <v>32</v>
       </c>
       <c r="H108" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I108" t="s">
         <v>21</v>
@@ -4765,7 +4759,7 @@
         <v>21</v>
       </c>
       <c r="H109" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I109" t="s">
         <v>21</v>
@@ -4803,7 +4797,7 @@
         <v>36</v>
       </c>
       <c r="H110" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I110" t="s">
         <v>21</v>
@@ -4841,7 +4835,7 @@
         <v>25</v>
       </c>
       <c r="H111" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I111" t="s">
         <v>21</v>
@@ -4879,7 +4873,7 @@
         <v>25</v>
       </c>
       <c r="H112" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I112" t="s">
         <v>25</v>
@@ -4917,7 +4911,7 @@
         <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I113" t="s">
         <v>25</v>
@@ -4955,7 +4949,7 @@
         <v>32</v>
       </c>
       <c r="H114" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I114" t="s">
         <v>25</v>
@@ -4993,7 +4987,7 @@
         <v>21</v>
       </c>
       <c r="H115" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I115" t="s">
         <v>21</v>
@@ -5031,7 +5025,7 @@
         <v>25</v>
       </c>
       <c r="H116" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I116" t="s">
         <v>21</v>
@@ -5069,7 +5063,7 @@
         <v>21</v>
       </c>
       <c r="H117" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I117" t="s">
         <v>21</v>
@@ -5507,7 +5501,7 @@
         <v>41</v>
       </c>
       <c r="H129" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I129" t="s">
         <v>41</v>
@@ -5545,7 +5539,7 @@
         <v>28</v>
       </c>
       <c r="H130" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I130" t="s">
         <v>41</v>
@@ -5583,7 +5577,7 @@
         <v>41</v>
       </c>
       <c r="H131" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I131" t="s">
         <v>41</v>
@@ -5621,7 +5615,7 @@
         <v>28</v>
       </c>
       <c r="H132" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I132" t="s">
         <v>41</v>
@@ -5650,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I133" t="s">
         <v>22</v>
@@ -5688,7 +5682,7 @@
         <v>41</v>
       </c>
       <c r="H134" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I134" t="s">
         <v>22</v>
@@ -5726,7 +5720,7 @@
         <v>41</v>
       </c>
       <c r="H135" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I135" t="s">
         <v>22</v>
@@ -5764,7 +5758,7 @@
         <v>36</v>
       </c>
       <c r="H136" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I136" t="s">
         <v>22</v>
@@ -5802,7 +5796,7 @@
         <v>33</v>
       </c>
       <c r="H137" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I137" t="s">
         <v>22</v>
@@ -5840,7 +5834,7 @@
         <v>36</v>
       </c>
       <c r="H138" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I138" t="s">
         <v>22</v>
@@ -5878,7 +5872,7 @@
         <v>33</v>
       </c>
       <c r="H139" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I139" t="s">
         <v>22</v>
@@ -5916,7 +5910,7 @@
         <v>33</v>
       </c>
       <c r="H140" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I140" t="s">
         <v>22</v>
@@ -5945,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I141" t="s">
         <v>32</v>
@@ -5983,7 +5977,7 @@
         <v>37</v>
       </c>
       <c r="H142" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I142" t="s">
         <v>32</v>
@@ -6021,7 +6015,7 @@
         <v>32</v>
       </c>
       <c r="H143" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I143" t="s">
         <v>32</v>
@@ -6050,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I144" t="s">
         <v>28</v>
@@ -6088,7 +6082,7 @@
         <v>24</v>
       </c>
       <c r="H145" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I145" t="s">
         <v>28</v>
@@ -6126,7 +6120,7 @@
         <v>28</v>
       </c>
       <c r="H146" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I146" t="s">
         <v>28</v>
@@ -6164,7 +6158,7 @@
         <v>24</v>
       </c>
       <c r="H147" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I147" t="s">
         <v>28</v>
@@ -6202,7 +6196,7 @@
         <v>28</v>
       </c>
       <c r="H148" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I148" t="s">
         <v>28</v>
@@ -6231,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I149" t="s">
         <v>35</v>
@@ -6269,7 +6263,7 @@
         <v>31</v>
       </c>
       <c r="H150" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I150" t="s">
         <v>35</v>
@@ -6307,7 +6301,7 @@
         <v>40</v>
       </c>
       <c r="H151" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I151" t="s">
         <v>35</v>
@@ -6345,7 +6339,7 @@
         <v>31</v>
       </c>
       <c r="H152" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I152" t="s">
         <v>35</v>
@@ -6383,7 +6377,7 @@
         <v>35</v>
       </c>
       <c r="H153" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I153" t="s">
         <v>35</v>
@@ -6421,7 +6415,7 @@
         <v>35</v>
       </c>
       <c r="H154" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I154" t="s">
         <v>35</v>
@@ -6450,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I155" t="s">
         <v>31</v>
@@ -6488,7 +6482,7 @@
         <v>40</v>
       </c>
       <c r="H156" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I156" t="s">
         <v>31</v>
@@ -6526,7 +6520,7 @@
         <v>41</v>
       </c>
       <c r="H157" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I157" t="s">
         <v>41</v>
@@ -6555,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I158" t="s">
         <v>37</v>
@@ -6593,7 +6587,7 @@
         <v>28</v>
       </c>
       <c r="H159" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I159" t="s">
         <v>37</v>
@@ -6669,7 +6663,7 @@
         <v>20</v>
       </c>
       <c r="H161" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I161" t="s">
         <v>37</v>
@@ -6707,7 +6701,7 @@
         <v>22</v>
       </c>
       <c r="H162" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I162" t="s">
         <v>37</v>
@@ -6745,7 +6739,7 @@
         <v>22</v>
       </c>
       <c r="H163" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I163" t="s">
         <v>37</v>
@@ -6783,7 +6777,7 @@
         <v>37</v>
       </c>
       <c r="H164" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I164" t="s">
         <v>37</v>
@@ -6812,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I165" t="s">
         <v>35</v>
@@ -6850,7 +6844,7 @@
         <v>24</v>
       </c>
       <c r="H166" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I166" t="s">
         <v>35</v>
@@ -6888,7 +6882,7 @@
         <v>35</v>
       </c>
       <c r="H167" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I167" t="s">
         <v>35</v>
@@ -6926,7 +6920,7 @@
         <v>24</v>
       </c>
       <c r="H168" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I168" t="s">
         <v>35</v>
@@ -6955,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I169" t="s">
         <v>21</v>
@@ -6993,7 +6987,7 @@
         <v>25</v>
       </c>
       <c r="H170" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I170" t="s">
         <v>25</v>
@@ -7031,7 +7025,7 @@
         <v>27</v>
       </c>
       <c r="H171" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I171" t="s">
         <v>25</v>
@@ -7069,7 +7063,7 @@
         <v>27</v>
       </c>
       <c r="H172" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I172" t="s">
         <v>25</v>
@@ -7098,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I173" t="s">
         <v>21</v>
@@ -7136,7 +7130,7 @@
         <v>49</v>
       </c>
       <c r="H174" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I174" t="s">
         <v>21</v>
@@ -7165,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I175" t="s">
         <v>25</v>
@@ -7203,7 +7197,7 @@
         <v>58</v>
       </c>
       <c r="H176" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I176" t="s">
         <v>58</v>
@@ -7241,7 +7235,7 @@
         <v>58</v>
       </c>
       <c r="H177" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I177" t="s">
         <v>58</v>
@@ -7279,7 +7273,7 @@
         <v>58</v>
       </c>
       <c r="H178" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I178" t="s">
         <v>58</v>
@@ -7308,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I179" t="s">
         <v>37</v>
@@ -7346,7 +7340,7 @@
         <v>37</v>
       </c>
       <c r="H180" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I180" t="s">
         <v>37</v>
@@ -7384,7 +7378,7 @@
         <v>39</v>
       </c>
       <c r="H181" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I181" t="s">
         <v>37</v>
@@ -7413,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I182" t="s">
         <v>35</v>
@@ -7451,7 +7445,7 @@
         <v>35</v>
       </c>
       <c r="H183" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I183" t="s">
         <v>35</v>
@@ -7489,7 +7483,7 @@
         <v>33</v>
       </c>
       <c r="H184" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I184" t="s">
         <v>35</v>
@@ -7527,7 +7521,7 @@
         <v>32</v>
       </c>
       <c r="H185" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I185" t="s">
         <v>35</v>
@@ -7565,7 +7559,7 @@
         <v>33</v>
       </c>
       <c r="H186" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I186" t="s">
         <v>35</v>
@@ -7603,7 +7597,7 @@
         <v>32</v>
       </c>
       <c r="H187" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I187" t="s">
         <v>32</v>
@@ -7632,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I188" t="s">
         <v>24</v>
@@ -7670,7 +7664,7 @@
         <v>52</v>
       </c>
       <c r="H189" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I189" t="s">
         <v>24</v>
@@ -7708,7 +7702,7 @@
         <v>26</v>
       </c>
       <c r="H190" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I190" t="s">
         <v>24</v>
@@ -7737,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I191" t="s">
         <v>45</v>
@@ -7775,7 +7769,7 @@
         <v>44</v>
       </c>
       <c r="H192" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I192" t="s">
         <v>45</v>
@@ -7813,7 +7807,7 @@
         <v>45</v>
       </c>
       <c r="H193" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I193" t="s">
         <v>45</v>
@@ -7851,7 +7845,7 @@
         <v>22</v>
       </c>
       <c r="H194" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I194" t="s">
         <v>45</v>
@@ -7889,7 +7883,7 @@
         <v>45</v>
       </c>
       <c r="H195" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I195" t="s">
         <v>45</v>
@@ -7927,7 +7921,7 @@
         <v>22</v>
       </c>
       <c r="H196" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I196" t="s">
         <v>45</v>
@@ -7965,7 +7959,7 @@
         <v>45</v>
       </c>
       <c r="H197" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I197" t="s">
         <v>45</v>
@@ -8003,7 +7997,7 @@
         <v>38</v>
       </c>
       <c r="H198" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I198" t="s">
         <v>45</v>
@@ -8041,7 +8035,7 @@
         <v>22</v>
       </c>
       <c r="H199" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I199" t="s">
         <v>45</v>
@@ -8079,7 +8073,7 @@
         <v>44</v>
       </c>
       <c r="H200" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I200" t="s">
         <v>45</v>
@@ -8108,7 +8102,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I201" t="s">
         <v>24</v>
@@ -8146,7 +8140,7 @@
         <v>36</v>
       </c>
       <c r="H202" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I202" t="s">
         <v>24</v>
@@ -8184,7 +8178,7 @@
         <v>36</v>
       </c>
       <c r="H203" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I203" t="s">
         <v>24</v>
@@ -8222,7 +8216,7 @@
         <v>24</v>
       </c>
       <c r="H204" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I204" t="s">
         <v>24</v>
@@ -8260,7 +8254,7 @@
         <v>33</v>
       </c>
       <c r="H205" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I205" t="s">
         <v>24</v>
@@ -8298,7 +8292,7 @@
         <v>36</v>
       </c>
       <c r="H206" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I206" t="s">
         <v>24</v>
@@ -8327,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I207" t="s">
         <v>52</v>
@@ -8365,7 +8359,7 @@
         <v>20</v>
       </c>
       <c r="H208" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I208" t="s">
         <v>52</v>
@@ -8403,7 +8397,7 @@
         <v>20</v>
       </c>
       <c r="H209" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I209" t="s">
         <v>52</v>
@@ -8441,7 +8435,7 @@
         <v>31</v>
       </c>
       <c r="H210" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I210" t="s">
         <v>52</v>
@@ -8479,7 +8473,7 @@
         <v>52</v>
       </c>
       <c r="H211" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I211" t="s">
         <v>52</v>
@@ -8517,7 +8511,7 @@
         <v>20</v>
       </c>
       <c r="H212" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I212" t="s">
         <v>52</v>
@@ -8555,7 +8549,7 @@
         <v>52</v>
       </c>
       <c r="H213" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I213" t="s">
         <v>52</v>
@@ -8593,7 +8587,7 @@
         <v>20</v>
       </c>
       <c r="H214" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I214" t="s">
         <v>52</v>
@@ -8622,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I215" t="s">
         <v>28</v>
@@ -8660,7 +8654,7 @@
         <v>38</v>
       </c>
       <c r="H216" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I216" t="s">
         <v>28</v>
@@ -8698,7 +8692,7 @@
         <v>28</v>
       </c>
       <c r="H217" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I217" t="s">
         <v>28</v>
@@ -8736,7 +8730,7 @@
         <v>28</v>
       </c>
       <c r="H218" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I218" t="s">
         <v>28</v>
@@ -8774,7 +8768,7 @@
         <v>28</v>
       </c>
       <c r="H219" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I219" t="s">
         <v>28</v>
@@ -8803,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I220" t="s">
         <v>41</v>
@@ -8841,7 +8835,7 @@
         <v>25</v>
       </c>
       <c r="H221" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I221" t="s">
         <v>25</v>
@@ -8879,7 +8873,7 @@
         <v>32</v>
       </c>
       <c r="H222" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I222" t="s">
         <v>25</v>
@@ -8917,7 +8911,7 @@
         <v>29</v>
       </c>
       <c r="H223" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I223" t="s">
         <v>25</v>
@@ -8955,7 +8949,7 @@
         <v>32</v>
       </c>
       <c r="H224" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I224" t="s">
         <v>25</v>
@@ -8993,7 +8987,7 @@
         <v>32</v>
       </c>
       <c r="H225" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I225" t="s">
         <v>25</v>
@@ -9022,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I226" t="s">
         <v>27</v>
@@ -9060,7 +9054,7 @@
         <v>27</v>
       </c>
       <c r="H227" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I227" t="s">
         <v>27</v>
@@ -9098,7 +9092,7 @@
         <v>35</v>
       </c>
       <c r="H228" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I228" t="s">
         <v>27</v>
@@ -9136,7 +9130,7 @@
         <v>35</v>
       </c>
       <c r="H229" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I229" t="s">
         <v>27</v>
@@ -9174,7 +9168,7 @@
         <v>35</v>
       </c>
       <c r="H230" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I230" t="s">
         <v>27</v>
@@ -9212,7 +9206,7 @@
         <v>27</v>
       </c>
       <c r="H231" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I231" t="s">
         <v>27</v>
@@ -9250,7 +9244,7 @@
         <v>39</v>
       </c>
       <c r="H232" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I232" t="s">
         <v>27</v>
@@ -9288,7 +9282,7 @@
         <v>35</v>
       </c>
       <c r="H233" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I233" t="s">
         <v>27</v>
@@ -9326,7 +9320,7 @@
         <v>35</v>
       </c>
       <c r="H234" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I234" t="s">
         <v>27</v>
@@ -9364,7 +9358,7 @@
         <v>39</v>
       </c>
       <c r="H235" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I235" t="s">
         <v>35</v>
@@ -9402,7 +9396,7 @@
         <v>27</v>
       </c>
       <c r="H236" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I236" t="s">
         <v>27</v>
@@ -9431,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I237" t="s">
         <v>21</v>
@@ -9469,7 +9463,7 @@
         <v>45</v>
       </c>
       <c r="H238" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I238" t="s">
         <v>21</v>
@@ -9507,7 +9501,7 @@
         <v>22</v>
       </c>
       <c r="H239" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I239" t="s">
         <v>22</v>
@@ -9545,7 +9539,7 @@
         <v>21</v>
       </c>
       <c r="H240" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I240" t="s">
         <v>21</v>
@@ -9583,7 +9577,7 @@
         <v>22</v>
       </c>
       <c r="H241" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I241" t="s">
         <v>22</v>
@@ -9621,7 +9615,7 @@
         <v>37</v>
       </c>
       <c r="H242" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I242" t="s">
         <v>22</v>
@@ -9659,7 +9653,7 @@
         <v>45</v>
       </c>
       <c r="H243" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I243" t="s">
         <v>22</v>
@@ -9697,7 +9691,7 @@
         <v>37</v>
       </c>
       <c r="H244" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I244" t="s">
         <v>22</v>
@@ -9726,7 +9720,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I245" t="s">
         <v>37</v>
@@ -9764,7 +9758,7 @@
         <v>36</v>
       </c>
       <c r="H246" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I246" t="s">
         <v>36</v>
@@ -9802,7 +9796,7 @@
         <v>37</v>
       </c>
       <c r="H247" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I247" t="s">
         <v>37</v>
@@ -9840,7 +9834,7 @@
         <v>45</v>
       </c>
       <c r="H248" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I248" t="s">
         <v>37</v>
@@ -9869,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I249" t="s">
         <v>35</v>
@@ -9907,7 +9901,7 @@
         <v>35</v>
       </c>
       <c r="H250" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I250" t="s">
         <v>35</v>
@@ -9945,7 +9939,7 @@
         <v>32</v>
       </c>
       <c r="H251" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I251" t="s">
         <v>35</v>
@@ -9983,7 +9977,7 @@
         <v>24</v>
       </c>
       <c r="H252" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I252" t="s">
         <v>35</v>
@@ -10012,7 +10006,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I253" t="s">
         <v>25</v>
@@ -10050,7 +10044,7 @@
         <v>25</v>
       </c>
       <c r="H254" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I254" t="s">
         <v>25</v>
@@ -10088,7 +10082,7 @@
         <v>20</v>
       </c>
       <c r="H255" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I255" t="s">
         <v>25</v>
@@ -10126,7 +10120,7 @@
         <v>50</v>
       </c>
       <c r="H256" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I256" t="s">
         <v>25</v>
@@ -10164,7 +10158,7 @@
         <v>59</v>
       </c>
       <c r="H257" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I257" t="s">
         <v>25</v>
@@ -10193,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I258" t="s">
         <v>28</v>
@@ -10231,7 +10225,7 @@
         <v>38</v>
       </c>
       <c r="H259" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I259" t="s">
         <v>38</v>
@@ -10269,7 +10263,7 @@
         <v>28</v>
       </c>
       <c r="H260" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I260" t="s">
         <v>28</v>
@@ -10307,7 +10301,7 @@
         <v>21</v>
       </c>
       <c r="H261" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I261" t="s">
         <v>21</v>
@@ -10345,7 +10339,7 @@
         <v>38</v>
       </c>
       <c r="H262" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I262" t="s">
         <v>21</v>
@@ -10383,7 +10377,7 @@
         <v>28</v>
       </c>
       <c r="H263" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I263" t="s">
         <v>21</v>
@@ -10421,7 +10415,7 @@
         <v>39</v>
       </c>
       <c r="H264" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I264" t="s">
         <v>28</v>
@@ -10459,7 +10453,7 @@
         <v>38</v>
       </c>
       <c r="H265" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I265" t="s">
         <v>38</v>
@@ -10488,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I266" t="s">
         <v>30</v>
@@ -10526,7 +10520,7 @@
         <v>48</v>
       </c>
       <c r="H267" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I267" t="s">
         <v>48</v>
@@ -10564,7 +10558,7 @@
         <v>30</v>
       </c>
       <c r="H268" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I268" t="s">
         <v>30</v>
@@ -10593,7 +10587,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I269" t="s">
         <v>22</v>
@@ -10631,7 +10625,7 @@
         <v>51</v>
       </c>
       <c r="H270" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I270" t="s">
         <v>22</v>
@@ -10669,7 +10663,7 @@
         <v>33</v>
       </c>
       <c r="H271" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I271" t="s">
         <v>22</v>
@@ -10707,7 +10701,7 @@
         <v>51</v>
       </c>
       <c r="H272" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I272" t="s">
         <v>22</v>
@@ -10745,7 +10739,7 @@
         <v>41</v>
       </c>
       <c r="H273" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I273" t="s">
         <v>22</v>
@@ -10783,7 +10777,7 @@
         <v>33</v>
       </c>
       <c r="H274" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I274" t="s">
         <v>22</v>

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -515,7 +515,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1247,7 +1247,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1817,7 +1817,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['Sweden', 'France']</t>
+          <t>['France', 'Sweden']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2603,7 +2603,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2969,7 +2969,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3755,7 +3755,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4595,7 +4595,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Spain', 'Norway']</t>
+          <t>['Norway', 'Spain']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6005,7 +6005,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6587,7 +6587,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7007,7 +7007,7 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7373,7 +7373,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7793,7 +7793,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8513,7 +8513,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8567,7 +8567,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8879,7 +8879,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9029,7 +9029,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9233,7 +9233,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9395,7 +9395,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9437,7 +9437,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>['Romania', 'France', 'Switzerland']</t>
+          <t>['Switzerland', 'Romania', 'France']</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>['Albania', 'France', 'Switzerland']</t>
+          <t>['Switzerland', 'Albania', 'France']</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9887,7 +9887,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Croatia', 'Spain', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -10199,7 +10199,7 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Italy', 'Sweden', 'Belgium']</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -10253,7 +10253,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
+          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
+          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -10349,7 +10349,7 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -10565,7 +10565,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Iceland', 'Hungary']</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Iceland', 'Hungary', 'Portugal']</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -11189,7 +11189,7 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>['Belgium', 'Russia', 'Finland']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -11609,7 +11609,7 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -11663,7 +11663,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>['Austria', 'Ukraine', 'Netherlands']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -11867,7 +11867,7 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -11975,7 +11975,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -12029,7 +12029,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'England', 'Croatia']</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -12179,7 +12179,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Slovakia', 'Sweden']</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -12761,7 +12761,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -13139,7 +13139,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -13181,7 +13181,7 @@
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Scotland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>['Hungary', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Hungary', 'Germany']</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -13385,7 +13385,7 @@
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Albania', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -13493,7 +13493,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -13547,7 +13547,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Croatia', 'Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -13589,7 +13589,7 @@
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>['Denmark', 'England', 'Slovenia']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -13847,7 +13847,7 @@
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -14171,7 +14171,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -14267,7 +14267,7 @@
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
         <is>
-          <t>['Belgium', 'Ukraine', 'Romania']</t>
+          <t>['Ukraine', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -14321,7 +14321,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Ukraine']</t>
+          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Romania', 'Slovakia', 'Belgium']</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -14417,7 +14417,7 @@
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
+          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -14471,7 +14471,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -14687,7 +14687,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -515,7 +515,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['Denmark', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1247,7 +1247,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1505,7 +1505,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2603,7 +2603,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3755,7 +3755,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4595,7 +4595,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Norway', 'Spain']</t>
+          <t>['Spain', 'Norway']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5327,7 +5327,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6587,7 +6587,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7373,7 +7373,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -7427,7 +7427,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -7481,7 +7481,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7793,7 +7793,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7943,7 +7943,7 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8309,7 +8309,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8471,7 +8471,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8879,7 +8879,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -9029,7 +9029,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9437,7 +9437,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Romania', 'France']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Albania', 'France']</t>
+          <t>['Albania', 'Switzerland', 'France']</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9533,7 +9533,7 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>['Slovakia', 'England', 'Wales']</t>
+          <t>['Slovakia', 'Wales', 'England']</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -9887,7 +9887,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Czech Republic']</t>
+          <t>['Spain', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -9995,7 +9995,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -10103,7 +10103,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -10157,7 +10157,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -10199,7 +10199,7 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>['Italy', 'Sweden', 'Belgium']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -10253,7 +10253,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
+          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
+          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -10349,7 +10349,7 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -10565,7 +10565,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>['Portugal', 'Iceland', 'Hungary']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>['Iceland', 'Hungary', 'Portugal']</t>
+          <t>['Hungary', 'Portugal', 'Iceland']</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -10877,7 +10877,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -11093,7 +11093,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -11147,7 +11147,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Wales', 'Switzerland', 'Italy']</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -11189,7 +11189,7 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>['Denmark', 'Finland', 'Belgium']</t>
+          <t>['Belgium', 'Finland', 'Denmark']</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>['Russia', 'Finland', 'Belgium']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -11609,7 +11609,7 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Austria', 'Netherlands', 'Ukraine']</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -11663,7 +11663,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -11867,7 +11867,7 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -11975,7 +11975,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -12029,7 +12029,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'England', 'Croatia']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'England']</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -12179,7 +12179,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -12761,7 +12761,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -13139,7 +13139,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -13181,7 +13181,7 @@
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Hungary', 'Germany']</t>
+          <t>['Hungary', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -13385,7 +13385,7 @@
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr">
         <is>
-          <t>['Albania', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -13439,7 +13439,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -13493,7 +13493,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -13547,7 +13547,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain', 'Italy']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -13847,7 +13847,7 @@
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -14117,7 +14117,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -14171,7 +14171,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>['Austria', 'France', 'Netherlands']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -14267,7 +14267,7 @@
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -14321,7 +14321,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>['Romania', 'Slovakia', 'Belgium']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -14417,7 +14417,7 @@
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr">
         <is>
-          <t>['Turkey', 'Czech Republic', 'Portugal']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -14471,7 +14471,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -14687,7 +14687,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Belgium']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>60</v>
@@ -839,7 +839,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -849,16 +849,16 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>Belgium</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>62</v>
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Denmark</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>77</v>
@@ -947,7 +947,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -957,12 +957,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Denmark</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>84</v>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['Belgium', 'France']</t>
+          <t>['France', 'Denmark']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Denmark</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1247,7 +1247,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1505,7 +1505,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['England', 'Sweden']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2097,12 +2097,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
           <t>Denmark</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>England</t>
         </is>
       </c>
       <c r="L32" t="n">
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>82</v>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2183,7 +2183,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="L38" t="n">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="L40" t="n">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -3001,7 +3001,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>11</v>
@@ -3023,26 +3023,26 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Spain', 'Bulgaria']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
           <t>Spain</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>21</v>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>29</v>
@@ -3163,7 +3163,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>63</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>69</v>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>84</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>90</v>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['Spain', 'France']</t>
+          <t>['France', 'Spain']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
           <t>Italy</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3605,7 +3605,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3659,7 +3659,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Germany', 'Italy']</t>
+          <t>['Italy', 'Germany']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3755,7 +3755,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4079,7 +4079,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4121,7 +4121,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4175,7 +4175,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4229,7 +4229,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4391,7 +4391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4595,7 +4595,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4917,12 +4917,12 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
           <t>Spain</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Norway</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -5285,7 +5285,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Spain', 'Norway']</t>
+          <t>['Spain', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5295,12 +5295,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
           <t>Norway</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>FR Yugoslavia</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -5327,7 +5327,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5435,17 +5435,17 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
           <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>France</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5543,17 +5543,17 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
           <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>France</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6005,7 +6005,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6167,7 +6167,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['Croatia', 'France']</t>
+          <t>['France', 'Croatia']</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -6329,7 +6329,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6587,7 +6587,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6749,7 +6749,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7007,7 +7007,7 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7169,7 +7169,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7223,7 +7223,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey']</t>
+          <t>['Turkey', 'Portugal']</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7793,7 +7793,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7847,7 +7847,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7901,7 +7901,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7943,7 +7943,7 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8717,7 +8717,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8781,7 +8781,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -8857,7 +8857,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D162" t="n">
         <v>28</v>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -8889,16 +8889,16 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
           <t>Denmark</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -9061,7 +9061,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
         <v>35</v>
@@ -9083,7 +9083,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9093,16 +9093,16 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
           <t>Italy</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>Croatia</t>
-        </is>
-      </c>
       <c r="L166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -9156,7 +9156,7 @@
         </is>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -9233,7 +9233,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -9341,7 +9341,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -9395,7 +9395,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -9491,7 +9491,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>['Albania', 'Switzerland', 'France']</t>
+          <t>['Switzerland', 'France', 'Albania']</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9533,7 +9533,7 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['Wales', 'England', 'Slovakia']</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Wales', 'England']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -9737,7 +9737,7 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -9845,7 +9845,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Poland', 'Germany', 'Northern Ireland']</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -9887,7 +9887,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>['Spain', 'Czech Republic', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -10199,7 +10199,7 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>['Sweden', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Sweden']</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -10253,7 +10253,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Belgium', 'Italy']</t>
+          <t>['Italy', 'Belgium', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -10349,7 +10349,7 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -10457,7 +10457,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -10565,7 +10565,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -10673,7 +10673,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -10791,12 +10791,12 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
           <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>Iceland</t>
         </is>
       </c>
       <c r="L199" t="n">
@@ -10835,7 +10835,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>['Hungary', 'Portugal', 'Iceland']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -10877,7 +10877,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -11093,7 +11093,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -11147,7 +11147,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>['Wales', 'Switzerland', 'Italy']</t>
+          <t>['Switzerland', 'Italy', 'Wales']</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -11189,7 +11189,7 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Belgium', 'Russia']</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -11199,12 +11199,12 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
           <t>Finland</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>Russia</t>
         </is>
       </c>
       <c r="L207" t="n">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>['Belgium', 'Finland', 'Denmark']</t>
+          <t>['Denmark', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -11609,7 +11609,7 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>['Austria', 'Netherlands', 'Ukraine']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -11663,7 +11663,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -11825,7 +11825,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Ukraine', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -11867,7 +11867,7 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -11921,7 +11921,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -11975,7 +11975,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -12029,7 +12029,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -12137,7 +12137,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -12147,12 +12147,12 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
           <t>Croatia</t>
-        </is>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>Czech Republic</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -12665,17 +12665,17 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
           <t>Spain</t>
-        </is>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Sweden</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>['Spain', 'Slovakia', 'Sweden']</t>
+          <t>['Slovakia', 'Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -12761,7 +12761,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -12771,12 +12771,12 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
           <t>Portugal</t>
-        </is>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>Germany</t>
         </is>
       </c>
       <c r="L237" t="n">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -13031,7 +13031,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -13085,7 +13085,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -13139,7 +13139,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Portugal', 'Germany']</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -13181,7 +13181,7 @@
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -13289,7 +13289,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Scotland', 'Germany']</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -13343,7 +13343,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>['Hungary', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Hungary']</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -13385,7 +13385,7 @@
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -13589,7 +13589,7 @@
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -13751,7 +13751,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -13847,7 +13847,7 @@
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -13955,7 +13955,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -14117,7 +14117,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -14171,7 +14171,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -14225,7 +14225,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France', 'Austria']</t>
+          <t>['France', 'Netherlands', 'Austria']</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -14267,22 +14267,22 @@
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Ukraine']</t>
+          <t>['Romania', 'Ukraine', 'Belgium']</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
           <t>Romania</t>
         </is>
       </c>
-      <c r="J266" t="inlineStr">
+      <c r="K266" t="inlineStr">
         <is>
           <t>Belgium</t>
-        </is>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
         </is>
       </c>
       <c r="L266" t="n">
@@ -14321,7 +14321,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
+          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Romania', 'Belgium']</t>
+          <t>['Romania', 'Belgium', 'Slovakia']</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -14417,7 +14417,7 @@
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -14471,7 +14471,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -14687,7 +14687,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Turkey', 'Portugal', 'Georgia']</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L274"/>
+  <dimension ref="A1:N274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,16 @@
           <t>changed</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>points_diff</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>goals_diff</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -536,6 +546,12 @@
       <c r="L2" t="n">
         <v>0</v>
       </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -590,6 +606,12 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -644,6 +666,12 @@
       <c r="L4" t="n">
         <v>0</v>
       </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -698,6 +726,12 @@
       <c r="L5" t="n">
         <v>0</v>
       </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -752,6 +786,12 @@
       <c r="L6" t="n">
         <v>0</v>
       </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -806,6 +846,12 @@
       <c r="L7" t="n">
         <v>0</v>
       </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -860,6 +906,12 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -914,6 +966,12 @@
       <c r="L9" t="n">
         <v>0</v>
       </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -968,6 +1026,12 @@
       <c r="L10" t="n">
         <v>0</v>
       </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1022,6 +1086,12 @@
       <c r="L11" t="n">
         <v>0</v>
       </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1075,6 +1145,12 @@
       </c>
       <c r="L12" t="n">
         <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1097,7 +1173,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['Spain', 'West Germany']</t>
+          <t>['West Germany', 'Spain']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1116,6 +1192,12 @@
         </is>
       </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1151,7 +1233,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['Portugal', 'West Germany']</t>
+          <t>['West Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1170,6 +1252,12 @@
         </is>
       </c>
       <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1205,7 +1293,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Spain', 'Portugal']</t>
+          <t>['Portugal', 'Spain']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1224,6 +1312,12 @@
         </is>
       </c>
       <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1247,7 +1341,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1266,6 +1360,12 @@
         </is>
       </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1301,7 +1401,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1321,6 +1421,12 @@
       </c>
       <c r="L17" t="n">
         <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1355,7 +1461,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1375,6 +1481,12 @@
       </c>
       <c r="L18" t="n">
         <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1409,7 +1521,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1429,6 +1541,12 @@
       </c>
       <c r="L19" t="n">
         <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1463,7 +1581,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['Italy', 'West Germany']</t>
+          <t>['West Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1483,6 +1601,12 @@
       </c>
       <c r="L20" t="n">
         <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1505,7 +1629,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1524,6 +1648,12 @@
         </is>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1559,7 +1689,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1578,6 +1708,12 @@
         </is>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1613,7 +1749,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1632,6 +1768,12 @@
         </is>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1667,7 +1809,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1686,6 +1828,12 @@
         </is>
       </c>
       <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1721,7 +1869,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1740,6 +1888,12 @@
         </is>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1795,6 +1949,12 @@
       </c>
       <c r="L26" t="n">
         <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1838,6 +1998,12 @@
       <c r="L27" t="n">
         <v>0</v>
       </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1892,6 +2058,12 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1946,6 +2118,12 @@
       <c r="L29" t="n">
         <v>0</v>
       </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2000,6 +2178,12 @@
       <c r="L30" t="n">
         <v>0</v>
       </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2054,6 +2238,12 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2108,6 +2298,12 @@
       <c r="L32" t="n">
         <v>1</v>
       </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2141,7 +2337,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2160,6 +2356,12 @@
         </is>
       </c>
       <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,7 +2385,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2202,6 +2404,12 @@
         </is>
       </c>
       <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2237,7 +2445,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2257,6 +2465,12 @@
       </c>
       <c r="L35" t="n">
         <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2291,7 +2505,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2311,6 +2525,12 @@
       </c>
       <c r="L36" t="n">
         <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2345,7 +2565,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2365,6 +2585,12 @@
       </c>
       <c r="L37" t="n">
         <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2399,7 +2625,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2419,6 +2645,12 @@
       </c>
       <c r="L38" t="n">
         <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -2453,7 +2685,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2473,6 +2705,12 @@
       </c>
       <c r="L39" t="n">
         <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2507,7 +2745,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2527,6 +2765,12 @@
       </c>
       <c r="L40" t="n">
         <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2561,7 +2805,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2581,6 +2825,12 @@
       </c>
       <c r="L41" t="n">
         <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2603,7 +2853,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2622,6 +2872,12 @@
         </is>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2657,7 +2913,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2677,6 +2933,12 @@
       </c>
       <c r="L43" t="n">
         <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2711,7 +2973,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2731,6 +2993,12 @@
       </c>
       <c r="L44" t="n">
         <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2765,7 +3033,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2785,6 +3053,12 @@
       </c>
       <c r="L45" t="n">
         <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2819,7 +3093,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2838,6 +3112,12 @@
         </is>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2873,7 +3153,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2893,6 +3173,12 @@
       </c>
       <c r="L47" t="n">
         <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="48">
@@ -2927,7 +3213,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2946,6 +3232,12 @@
         </is>
       </c>
       <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2969,7 +3261,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2988,6 +3280,12 @@
         </is>
       </c>
       <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3023,7 +3321,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3042,6 +3340,12 @@
         </is>
       </c>
       <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,6 +3402,12 @@
       <c r="L51" t="n">
         <v>1</v>
       </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3131,7 +3441,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3151,6 +3461,12 @@
       </c>
       <c r="L52" t="n">
         <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3185,7 +3501,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3205,6 +3521,12 @@
       </c>
       <c r="L53" t="n">
         <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="54">
@@ -3239,7 +3561,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3258,6 +3580,12 @@
         </is>
       </c>
       <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3314,6 +3642,12 @@
       <c r="L55" t="n">
         <v>1</v>
       </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3367,6 +3701,12 @@
       </c>
       <c r="L56" t="n">
         <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -3410,6 +3750,12 @@
       <c r="L57" t="n">
         <v>0</v>
       </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3464,6 +3810,12 @@
       <c r="L58" t="n">
         <v>0</v>
       </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3518,6 +3870,12 @@
       <c r="L59" t="n">
         <v>0</v>
       </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3572,6 +3930,12 @@
       <c r="L60" t="n">
         <v>0</v>
       </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3626,6 +3990,12 @@
       <c r="L61" t="n">
         <v>0</v>
       </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3680,6 +4050,12 @@
       <c r="L62" t="n">
         <v>1</v>
       </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3733,6 +4109,12 @@
       </c>
       <c r="L63" t="n">
         <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
@@ -3755,7 +4137,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3774,6 +4156,12 @@
         </is>
       </c>
       <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3809,7 +4197,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3829,6 +4217,12 @@
       </c>
       <c r="L65" t="n">
         <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="66">
@@ -3863,7 +4257,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3883,6 +4277,12 @@
       </c>
       <c r="L66" t="n">
         <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -3917,7 +4317,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3937,6 +4337,12 @@
       </c>
       <c r="L67" t="n">
         <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3971,7 +4377,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3991,6 +4397,12 @@
       </c>
       <c r="L68" t="n">
         <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -4025,7 +4437,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4045,6 +4457,12 @@
       </c>
       <c r="L69" t="n">
         <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -4079,7 +4497,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Croatia', 'Portugal']</t>
+          <t>['Portugal', 'Croatia']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4099,6 +4517,12 @@
       </c>
       <c r="L70" t="n">
         <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -4121,7 +4545,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4140,6 +4564,12 @@
         </is>
       </c>
       <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4175,7 +4605,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4194,6 +4624,12 @@
         </is>
       </c>
       <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,7 +4665,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4249,6 +4685,12 @@
       </c>
       <c r="L73" t="n">
         <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -4283,7 +4725,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -4302,6 +4744,12 @@
         </is>
       </c>
       <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4337,7 +4785,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4357,6 +4805,12 @@
       </c>
       <c r="L75" t="n">
         <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -4391,7 +4845,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4411,6 +4865,12 @@
       </c>
       <c r="L76" t="n">
         <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -4445,7 +4905,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4465,6 +4925,12 @@
       </c>
       <c r="L77" t="n">
         <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -4499,7 +4965,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['England', 'Portugal']</t>
+          <t>['Portugal', 'England']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4519,6 +4985,12 @@
       </c>
       <c r="L78" t="n">
         <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -4553,7 +5025,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Romania', 'Portugal']</t>
+          <t>['Portugal', 'Romania']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4572,6 +5044,12 @@
         </is>
       </c>
       <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,6 +5094,12 @@
       <c r="L80" t="n">
         <v>0</v>
       </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4670,6 +5154,12 @@
       <c r="L81" t="n">
         <v>0</v>
       </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4703,7 +5193,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4723,6 +5213,12 @@
       </c>
       <c r="L82" t="n">
         <v>1</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -4757,7 +5253,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4777,6 +5273,12 @@
       </c>
       <c r="L83" t="n">
         <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="84">
@@ -4811,7 +5313,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4831,6 +5333,12 @@
       </c>
       <c r="L84" t="n">
         <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -4865,7 +5373,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4885,6 +5393,12 @@
       </c>
       <c r="L85" t="n">
         <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -4907,7 +5421,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -4926,6 +5440,12 @@
         </is>
       </c>
       <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4961,7 +5481,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -4981,6 +5501,12 @@
       </c>
       <c r="L87" t="n">
         <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -5015,7 +5541,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5034,6 +5560,12 @@
         </is>
       </c>
       <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5069,7 +5601,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5089,6 +5621,12 @@
       </c>
       <c r="L89" t="n">
         <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -5123,7 +5661,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5142,6 +5680,12 @@
         </is>
       </c>
       <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5177,7 +5721,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5197,6 +5741,12 @@
       </c>
       <c r="L91" t="n">
         <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -5231,7 +5781,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5250,6 +5800,12 @@
         </is>
       </c>
       <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5285,7 +5841,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5305,6 +5861,12 @@
       </c>
       <c r="L93" t="n">
         <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -5348,6 +5910,12 @@
       <c r="L94" t="n">
         <v>0</v>
       </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5402,6 +5970,12 @@
       <c r="L95" t="n">
         <v>0</v>
       </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5456,6 +6030,12 @@
       <c r="L96" t="n">
         <v>0</v>
       </c>
+      <c r="M96" t="n">
+        <v>6</v>
+      </c>
+      <c r="N96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5510,6 +6090,12 @@
       <c r="L97" t="n">
         <v>0</v>
       </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5564,6 +6150,12 @@
       <c r="L98" t="n">
         <v>0</v>
       </c>
+      <c r="M98" t="n">
+        <v>6</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5618,6 +6210,12 @@
       <c r="L99" t="n">
         <v>0</v>
       </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5672,6 +6270,12 @@
       <c r="L100" t="n">
         <v>0</v>
       </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5725,6 +6329,12 @@
       </c>
       <c r="L101" t="n">
         <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -5747,7 +6357,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5766,6 +6376,12 @@
         </is>
       </c>
       <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5801,7 +6417,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -5821,6 +6437,12 @@
       </c>
       <c r="L103" t="n">
         <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="104">
@@ -5855,7 +6477,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5875,6 +6497,12 @@
       </c>
       <c r="L104" t="n">
         <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="105">
@@ -5909,7 +6537,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>['Spain', 'Greece']</t>
+          <t>['Greece', 'Spain']</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5929,6 +6557,12 @@
       </c>
       <c r="L105" t="n">
         <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
@@ -5963,7 +6597,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Greece', 'Portugal']</t>
+          <t>['Portugal', 'Greece']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -5983,6 +6617,12 @@
       </c>
       <c r="L106" t="n">
         <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -6005,7 +6645,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6024,6 +6664,12 @@
         </is>
       </c>
       <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6080,6 +6726,12 @@
       <c r="L108" t="n">
         <v>1</v>
       </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6134,6 +6786,12 @@
       <c r="L109" t="n">
         <v>0</v>
       </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6188,6 +6846,12 @@
       <c r="L110" t="n">
         <v>0</v>
       </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6221,7 +6885,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6241,6 +6905,12 @@
       </c>
       <c r="L111" t="n">
         <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -6296,6 +6966,12 @@
       <c r="L112" t="n">
         <v>0</v>
       </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6350,6 +7026,12 @@
       <c r="L113" t="n">
         <v>0</v>
       </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6404,6 +7086,12 @@
       <c r="L114" t="n">
         <v>0</v>
       </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6437,7 +7125,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6457,6 +7145,12 @@
       </c>
       <c r="L115" t="n">
         <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -6491,7 +7185,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6511,6 +7205,12 @@
       </c>
       <c r="L116" t="n">
         <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>4</v>
+      </c>
+      <c r="N116" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -6545,7 +7245,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6565,6 +7265,12 @@
       </c>
       <c r="L117" t="n">
         <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>4</v>
+      </c>
+      <c r="N117" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="118">
@@ -6587,7 +7293,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -6606,6 +7312,12 @@
         </is>
       </c>
       <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6641,7 +7353,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -6661,6 +7373,12 @@
       </c>
       <c r="L119" t="n">
         <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -6695,7 +7413,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -6715,6 +7433,12 @@
       </c>
       <c r="L120" t="n">
         <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="121">
@@ -6749,7 +7473,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -6769,6 +7493,12 @@
       </c>
       <c r="L121" t="n">
         <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="122">
@@ -6803,7 +7533,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6823,6 +7553,12 @@
       </c>
       <c r="L122" t="n">
         <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2</v>
+      </c>
+      <c r="N122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -6857,7 +7593,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -6877,6 +7613,12 @@
       </c>
       <c r="L123" t="n">
         <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -6911,7 +7653,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6931,6 +7673,12 @@
       </c>
       <c r="L124" t="n">
         <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -6965,7 +7713,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Denmark', 'Sweden']</t>
+          <t>['Sweden', 'Denmark']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6985,6 +7733,12 @@
       </c>
       <c r="L125" t="n">
         <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -7028,6 +7782,12 @@
       <c r="L126" t="n">
         <v>0</v>
       </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7082,6 +7842,12 @@
       <c r="L127" t="n">
         <v>0</v>
       </c>
+      <c r="M127" t="n">
+        <v>3</v>
+      </c>
+      <c r="N127" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7136,6 +7902,12 @@
       <c r="L128" t="n">
         <v>0</v>
       </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7169,7 +7941,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7189,6 +7961,12 @@
       </c>
       <c r="L129" t="n">
         <v>1</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -7223,7 +8001,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -7243,6 +8021,12 @@
       </c>
       <c r="L130" t="n">
         <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -7277,7 +8061,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7297,6 +8081,12 @@
       </c>
       <c r="L131" t="n">
         <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="132">
@@ -7331,7 +8121,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7351,6 +8141,12 @@
       </c>
       <c r="L132" t="n">
         <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2</v>
+      </c>
+      <c r="N132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -7394,6 +8190,12 @@
       <c r="L133" t="n">
         <v>0</v>
       </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -7448,6 +8250,12 @@
       <c r="L134" t="n">
         <v>0</v>
       </c>
+      <c r="M134" t="n">
+        <v>3</v>
+      </c>
+      <c r="N134" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -7502,6 +8310,12 @@
       <c r="L135" t="n">
         <v>0</v>
       </c>
+      <c r="M135" t="n">
+        <v>3</v>
+      </c>
+      <c r="N135" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -7556,6 +8370,12 @@
       <c r="L136" t="n">
         <v>0</v>
       </c>
+      <c r="M136" t="n">
+        <v>3</v>
+      </c>
+      <c r="N136" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -7610,6 +8430,12 @@
       <c r="L137" t="n">
         <v>0</v>
       </c>
+      <c r="M137" t="n">
+        <v>3</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -7664,6 +8490,12 @@
       <c r="L138" t="n">
         <v>0</v>
       </c>
+      <c r="M138" t="n">
+        <v>3</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -7718,6 +8550,12 @@
       <c r="L139" t="n">
         <v>0</v>
       </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -7751,7 +8589,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal']</t>
+          <t>['Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -7771,6 +8609,12 @@
       </c>
       <c r="L140" t="n">
         <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>3</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -7793,7 +8637,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -7812,6 +8656,12 @@
         </is>
       </c>
       <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7847,7 +8697,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -7867,6 +8717,12 @@
       </c>
       <c r="L142" t="n">
         <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>4</v>
+      </c>
+      <c r="N142" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -7901,7 +8757,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7921,6 +8777,12 @@
       </c>
       <c r="L143" t="n">
         <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>5</v>
+      </c>
+      <c r="N143" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -7964,6 +8826,12 @@
       <c r="L144" t="n">
         <v>0</v>
       </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8018,6 +8886,12 @@
       <c r="L145" t="n">
         <v>1</v>
       </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8072,6 +8946,12 @@
       <c r="L146" t="n">
         <v>0</v>
       </c>
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8126,6 +9006,12 @@
       <c r="L147" t="n">
         <v>0</v>
       </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -8179,6 +9065,12 @@
       </c>
       <c r="L148" t="n">
         <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -8201,7 +9093,7 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -8220,6 +9112,12 @@
         </is>
       </c>
       <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8255,7 +9153,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8275,6 +9173,12 @@
       </c>
       <c r="L150" t="n">
         <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>3</v>
+      </c>
+      <c r="N150" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
@@ -8309,7 +9213,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -8329,6 +9233,12 @@
       </c>
       <c r="L151" t="n">
         <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>3</v>
+      </c>
+      <c r="N151" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="152">
@@ -8363,7 +9273,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8383,6 +9293,12 @@
       </c>
       <c r="L152" t="n">
         <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>3</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -8417,7 +9333,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8437,6 +9353,12 @@
       </c>
       <c r="L153" t="n">
         <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>3</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -8471,7 +9393,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -8491,6 +9413,12 @@
       </c>
       <c r="L154" t="n">
         <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>3</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -8513,7 +9441,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -8532,6 +9460,12 @@
         </is>
       </c>
       <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8567,7 +9501,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8587,6 +9521,12 @@
       </c>
       <c r="L156" t="n">
         <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="157">
@@ -8641,6 +9581,12 @@
       </c>
       <c r="L157" t="n">
         <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -8684,6 +9630,12 @@
       <c r="L158" t="n">
         <v>0</v>
       </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -8717,7 +9669,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8736,6 +9688,12 @@
         </is>
       </c>
       <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8792,6 +9750,12 @@
       <c r="L160" t="n">
         <v>1</v>
       </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -8825,7 +9789,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>['Denmark', 'Germany']</t>
+          <t>['Germany', 'Denmark']</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8844,6 +9808,12 @@
         </is>
       </c>
       <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8900,6 +9870,12 @@
       <c r="L162" t="n">
         <v>1</v>
       </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -8954,6 +9930,12 @@
       <c r="L163" t="n">
         <v>0</v>
       </c>
+      <c r="M163" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9007,6 +9989,12 @@
       </c>
       <c r="L164" t="n">
         <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>3</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -9029,7 +10017,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -9048,6 +10036,12 @@
         </is>
       </c>
       <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9083,7 +10077,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia']</t>
+          <t>['Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -9103,6 +10097,12 @@
       </c>
       <c r="L166" t="n">
         <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -9137,7 +10137,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -9157,6 +10157,12 @@
       </c>
       <c r="L167" t="n">
         <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -9191,7 +10197,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy']</t>
+          <t>['Italy', 'Spain']</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -9211,6 +10217,12 @@
       </c>
       <c r="L168" t="n">
         <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -9233,7 +10245,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9252,6 +10264,12 @@
         </is>
       </c>
       <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9308,6 +10326,12 @@
       <c r="L170" t="n">
         <v>0</v>
       </c>
+      <c r="M170" t="n">
+        <v>2</v>
+      </c>
+      <c r="N170" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -9362,6 +10386,12 @@
       <c r="L171" t="n">
         <v>0</v>
       </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -9415,6 +10445,12 @@
       </c>
       <c r="L172" t="n">
         <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -9437,7 +10473,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -9456,6 +10492,12 @@
         </is>
       </c>
       <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9491,7 +10533,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Albania']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9511,6 +10553,12 @@
       </c>
       <c r="L174" t="n">
         <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -9533,7 +10581,7 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>['Wales', 'England', 'Slovakia']</t>
+          <t>['England', 'Wales', 'Slovakia']</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -9552,6 +10600,12 @@
         </is>
       </c>
       <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9608,6 +10662,12 @@
       <c r="L176" t="n">
         <v>0</v>
       </c>
+      <c r="M176" t="n">
+        <v>3</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -9662,6 +10722,12 @@
       <c r="L177" t="n">
         <v>0</v>
       </c>
+      <c r="M177" t="n">
+        <v>3</v>
+      </c>
+      <c r="N177" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -9715,6 +10781,12 @@
       </c>
       <c r="L178" t="n">
         <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>3</v>
+      </c>
+      <c r="N178" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="179">
@@ -9737,7 +10809,7 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -9756,6 +10828,12 @@
         </is>
       </c>
       <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9791,7 +10869,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -9811,6 +10889,12 @@
       </c>
       <c r="L180" t="n">
         <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="181">
@@ -9845,7 +10929,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>['Poland', 'Germany', 'Northern Ireland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -9865,6 +10949,12 @@
       </c>
       <c r="L181" t="n">
         <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>3</v>
+      </c>
+      <c r="N181" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="182">
@@ -9887,7 +10977,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -9906,6 +10996,12 @@
         </is>
       </c>
       <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9941,7 +11037,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -9961,6 +11057,12 @@
       </c>
       <c r="L183" t="n">
         <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -9995,7 +11097,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -10015,6 +11117,12 @@
       </c>
       <c r="L184" t="n">
         <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
@@ -10049,7 +11157,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -10069,6 +11177,12 @@
       </c>
       <c r="L185" t="n">
         <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2</v>
+      </c>
+      <c r="N185" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
@@ -10103,7 +11217,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Turkey', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -10123,6 +11237,12 @@
       </c>
       <c r="L186" t="n">
         <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>2</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -10157,7 +11277,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Turkey']</t>
+          <t>['Spain', 'Turkey', 'Croatia']</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -10177,6 +11297,12 @@
       </c>
       <c r="L187" t="n">
         <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -10220,6 +11346,12 @@
       <c r="L188" t="n">
         <v>0</v>
       </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -10253,7 +11385,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -10273,6 +11405,12 @@
       </c>
       <c r="L189" t="n">
         <v>1</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="190">
@@ -10307,7 +11445,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Republic of Ireland']</t>
+          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -10326,6 +11464,12 @@
         </is>
       </c>
       <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>3</v>
+      </c>
+      <c r="N190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10349,7 +11493,7 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -10368,6 +11512,12 @@
         </is>
       </c>
       <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10403,7 +11553,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -10423,6 +11573,12 @@
       </c>
       <c r="L192" t="n">
         <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>2</v>
+      </c>
+      <c r="N192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -10457,7 +11613,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -10477,6 +11633,12 @@
       </c>
       <c r="L193" t="n">
         <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -10511,7 +11673,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -10531,6 +11693,12 @@
       </c>
       <c r="L194" t="n">
         <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2</v>
+      </c>
+      <c r="N194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -10565,7 +11733,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -10585,6 +11753,12 @@
       </c>
       <c r="L195" t="n">
         <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -10619,7 +11793,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -10639,6 +11813,12 @@
       </c>
       <c r="L196" t="n">
         <v>0</v>
+      </c>
+      <c r="M196" t="n">
+        <v>2</v>
+      </c>
+      <c r="N196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -10673,7 +11853,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -10693,6 +11873,12 @@
       </c>
       <c r="L197" t="n">
         <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -10727,7 +11913,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -10747,6 +11933,12 @@
       </c>
       <c r="L198" t="n">
         <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -10781,7 +11973,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -10801,6 +11993,12 @@
       </c>
       <c r="L199" t="n">
         <v>0</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -10835,7 +12033,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -10855,6 +12053,12 @@
       </c>
       <c r="L200" t="n">
         <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2</v>
+      </c>
+      <c r="N200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -10877,7 +12081,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -10896,6 +12100,12 @@
         </is>
       </c>
       <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10931,7 +12141,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -10951,6 +12161,12 @@
       </c>
       <c r="L202" t="n">
         <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>4</v>
+      </c>
+      <c r="N202" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="203">
@@ -10985,7 +12201,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -11005,6 +12221,12 @@
       </c>
       <c r="L203" t="n">
         <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>4</v>
+      </c>
+      <c r="N203" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="204">
@@ -11039,7 +12261,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -11059,6 +12281,12 @@
       </c>
       <c r="L204" t="n">
         <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>4</v>
+      </c>
+      <c r="N204" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="205">
@@ -11093,7 +12321,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -11113,6 +12341,12 @@
       </c>
       <c r="L205" t="n">
         <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>4</v>
+      </c>
+      <c r="N205" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="206">
@@ -11147,7 +12381,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Italy', 'Wales']</t>
+          <t>['Italy', 'Wales', 'Switzerland']</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -11167,6 +12401,12 @@
       </c>
       <c r="L206" t="n">
         <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>4</v>
+      </c>
+      <c r="N206" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="207">
@@ -11189,7 +12429,7 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>['Finland', 'Belgium', 'Russia']</t>
+          <t>['Russia', 'Belgium', 'Finland']</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -11208,6 +12448,12 @@
         </is>
       </c>
       <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11264,6 +12510,12 @@
       <c r="L208" t="n">
         <v>1</v>
       </c>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -11318,6 +12570,12 @@
       <c r="L209" t="n">
         <v>0</v>
       </c>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -11372,6 +12630,12 @@
       <c r="L210" t="n">
         <v>0</v>
       </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -11426,6 +12690,12 @@
       <c r="L211" t="n">
         <v>1</v>
       </c>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -11480,6 +12750,12 @@
       <c r="L212" t="n">
         <v>0</v>
       </c>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -11534,6 +12810,12 @@
       <c r="L213" t="n">
         <v>0</v>
       </c>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>-4</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -11587,6 +12869,12 @@
       </c>
       <c r="L214" t="n">
         <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="215">
@@ -11609,7 +12897,7 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -11628,6 +12916,12 @@
         </is>
       </c>
       <c r="L215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11663,7 +12957,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -11683,6 +12977,12 @@
       </c>
       <c r="L216" t="n">
         <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>2</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -11717,7 +13017,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -11737,6 +13037,12 @@
       </c>
       <c r="L217" t="n">
         <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>3</v>
+      </c>
+      <c r="N217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -11771,7 +13077,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -11791,6 +13097,12 @@
       </c>
       <c r="L218" t="n">
         <v>0</v>
+      </c>
+      <c r="M218" t="n">
+        <v>3</v>
+      </c>
+      <c r="N218" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="219">
@@ -11825,7 +13137,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Netherlands', 'Austria']</t>
+          <t>['Ukraine', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -11845,6 +13157,12 @@
       </c>
       <c r="L219" t="n">
         <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>3</v>
+      </c>
+      <c r="N219" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="220">
@@ -11867,7 +13185,7 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -11886,6 +13204,12 @@
         </is>
       </c>
       <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
+      <c r="N220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11921,7 +13245,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -11941,6 +13265,12 @@
       </c>
       <c r="L221" t="n">
         <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -11975,7 +13305,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -11995,6 +13325,12 @@
       </c>
       <c r="L222" t="n">
         <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>3</v>
+      </c>
+      <c r="N222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -12029,7 +13365,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -12049,6 +13385,12 @@
       </c>
       <c r="L223" t="n">
         <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -12083,7 +13425,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -12103,6 +13445,12 @@
       </c>
       <c r="L224" t="n">
         <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>3</v>
+      </c>
+      <c r="N224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -12137,7 +13485,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>['Croatia', 'England', 'Czech Republic']</t>
+          <t>['England', 'Czech Republic', 'Croatia']</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -12157,6 +13505,12 @@
       </c>
       <c r="L225" t="n">
         <v>0</v>
+      </c>
+      <c r="M225" t="n">
+        <v>3</v>
+      </c>
+      <c r="N225" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="226">
@@ -12179,7 +13533,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -12198,6 +13552,12 @@
         </is>
       </c>
       <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12233,7 +13593,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -12253,6 +13613,12 @@
       </c>
       <c r="L227" t="n">
         <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>2</v>
+      </c>
+      <c r="N227" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -12287,7 +13653,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -12307,6 +13673,12 @@
       </c>
       <c r="L228" t="n">
         <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -12341,7 +13713,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -12360,6 +13732,12 @@
         </is>
       </c>
       <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>2</v>
+      </c>
+      <c r="N229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12395,7 +13773,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -12415,6 +13793,12 @@
       </c>
       <c r="L230" t="n">
         <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>2</v>
+      </c>
+      <c r="N230" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="231">
@@ -12449,7 +13833,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -12468,6 +13852,12 @@
         </is>
       </c>
       <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>2</v>
+      </c>
+      <c r="N231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12503,7 +13893,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -12523,6 +13913,12 @@
       </c>
       <c r="L232" t="n">
         <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>2</v>
+      </c>
+      <c r="N232" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="233">
@@ -12557,7 +13953,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -12577,6 +13973,12 @@
       </c>
       <c r="L233" t="n">
         <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>2</v>
+      </c>
+      <c r="N233" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="234">
@@ -12611,7 +14013,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -12631,6 +14033,12 @@
       </c>
       <c r="L234" t="n">
         <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>2</v>
+      </c>
+      <c r="N234" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="235">
@@ -12665,7 +14073,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -12685,6 +14093,12 @@
       </c>
       <c r="L235" t="n">
         <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="236">
@@ -12719,7 +14133,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>['Slovakia', 'Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain', 'Slovakia']</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -12739,6 +14153,12 @@
       </c>
       <c r="L236" t="n">
         <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>2</v>
+      </c>
+      <c r="N236" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="237">
@@ -12761,7 +14181,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>['France', 'Germany', 'Portugal']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -12780,6 +14200,12 @@
         </is>
       </c>
       <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12815,7 +14241,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -12835,6 +14261,12 @@
       </c>
       <c r="L238" t="n">
         <v>1</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="239">
@@ -12869,7 +14301,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -12889,6 +14321,12 @@
       </c>
       <c r="L239" t="n">
         <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="240">
@@ -12923,7 +14361,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -12943,6 +14381,12 @@
       </c>
       <c r="L240" t="n">
         <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="241">
@@ -12977,7 +14421,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -12997,6 +14441,12 @@
       </c>
       <c r="L241" t="n">
         <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="242">
@@ -13031,7 +14481,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -13051,6 +14501,12 @@
       </c>
       <c r="L242" t="n">
         <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>2</v>
+      </c>
+      <c r="N242" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="243">
@@ -13085,7 +14541,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -13105,6 +14561,12 @@
       </c>
       <c r="L243" t="n">
         <v>1</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="244">
@@ -13139,7 +14601,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>['France', 'Portugal', 'Germany']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -13159,6 +14621,12 @@
       </c>
       <c r="L244" t="n">
         <v>1</v>
+      </c>
+      <c r="M244" t="n">
+        <v>2</v>
+      </c>
+      <c r="N244" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="245">
@@ -13181,7 +14649,7 @@
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -13200,6 +14668,12 @@
         </is>
       </c>
       <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13235,7 +14709,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -13254,6 +14728,12 @@
         </is>
       </c>
       <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13289,7 +14769,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Scotland', 'Germany']</t>
+          <t>['Scotland', 'Germany', 'Switzerland']</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -13308,6 +14788,12 @@
         </is>
       </c>
       <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13343,7 +14829,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Hungary']</t>
+          <t>['Germany', 'Switzerland', 'Hungary']</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -13363,6 +14849,12 @@
       </c>
       <c r="L248" t="n">
         <v>1</v>
+      </c>
+      <c r="M248" t="n">
+        <v>2</v>
+      </c>
+      <c r="N248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -13385,7 +14877,7 @@
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr">
         <is>
-          <t>['Spain', 'Italy', 'Albania']</t>
+          <t>['Italy', 'Albania', 'Spain']</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -13404,6 +14896,12 @@
         </is>
       </c>
       <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13439,7 +14937,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -13459,6 +14957,12 @@
       </c>
       <c r="L250" t="n">
         <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="251">
@@ -13493,7 +14997,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -13513,6 +15017,12 @@
       </c>
       <c r="L251" t="n">
         <v>0</v>
+      </c>
+      <c r="M251" t="n">
+        <v>2</v>
+      </c>
+      <c r="N251" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -13547,7 +15057,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>['Spain', 'Croatia', 'Italy']</t>
+          <t>['Italy', 'Croatia', 'Spain']</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -13567,6 +15077,12 @@
       </c>
       <c r="L252" t="n">
         <v>0</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
@@ -13589,7 +15105,7 @@
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -13608,6 +15124,12 @@
         </is>
       </c>
       <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13643,7 +15165,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -13662,6 +15184,12 @@
         </is>
       </c>
       <c r="L254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13697,7 +15225,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -13717,6 +15245,12 @@
       </c>
       <c r="L255" t="n">
         <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -13751,7 +15285,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -13771,6 +15305,12 @@
       </c>
       <c r="L256" t="n">
         <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>2</v>
+      </c>
+      <c r="N256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="257">
@@ -13805,7 +15345,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -13825,6 +15365,12 @@
       </c>
       <c r="L257" t="n">
         <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -13847,7 +15393,7 @@
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -13866,6 +15412,12 @@
         </is>
       </c>
       <c r="L258" t="n">
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
+      <c r="N258" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13901,7 +15453,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -13921,6 +15473,12 @@
       </c>
       <c r="L259" t="n">
         <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>3</v>
+      </c>
+      <c r="N259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -13955,7 +15513,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -13975,6 +15533,12 @@
       </c>
       <c r="L260" t="n">
         <v>0</v>
+      </c>
+      <c r="M260" t="n">
+        <v>3</v>
+      </c>
+      <c r="N260" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="261">
@@ -14009,7 +15573,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -14029,6 +15593,12 @@
       </c>
       <c r="L261" t="n">
         <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>4</v>
+      </c>
+      <c r="N261" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="262">
@@ -14063,7 +15633,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -14083,6 +15653,12 @@
       </c>
       <c r="L262" t="n">
         <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>4</v>
+      </c>
+      <c r="N262" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="263">
@@ -14117,7 +15693,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -14137,6 +15713,12 @@
       </c>
       <c r="L263" t="n">
         <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>4</v>
+      </c>
+      <c r="N263" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="264">
@@ -14171,7 +15753,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -14191,6 +15773,12 @@
       </c>
       <c r="L264" t="n">
         <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>3</v>
+      </c>
+      <c r="N264" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="265">
@@ -14225,7 +15813,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands', 'Austria']</t>
+          <t>['France', 'Austria', 'Netherlands']</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -14245,6 +15833,12 @@
       </c>
       <c r="L265" t="n">
         <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>3</v>
+      </c>
+      <c r="N265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -14267,7 +15861,7 @@
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
         <is>
-          <t>['Romania', 'Ukraine', 'Belgium']</t>
+          <t>['Ukraine', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -14286,6 +15880,12 @@
         </is>
       </c>
       <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14342,6 +15942,12 @@
       <c r="L267" t="n">
         <v>1</v>
       </c>
+      <c r="M267" t="n">
+        <v>1</v>
+      </c>
+      <c r="N267" t="n">
+        <v>-2</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -14395,6 +16001,12 @@
       </c>
       <c r="L268" t="n">
         <v>1</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -14417,7 +16029,7 @@
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -14436,6 +16048,12 @@
         </is>
       </c>
       <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14471,7 +16089,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -14491,6 +16109,12 @@
       </c>
       <c r="L270" t="n">
         <v>1</v>
+      </c>
+      <c r="M270" t="n">
+        <v>2</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="271">
@@ -14525,7 +16149,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -14545,6 +16169,12 @@
       </c>
       <c r="L271" t="n">
         <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>3</v>
+      </c>
+      <c r="N271" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -14579,7 +16209,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -14599,6 +16229,12 @@
       </c>
       <c r="L272" t="n">
         <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>3</v>
+      </c>
+      <c r="N272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -14633,7 +16269,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -14653,6 +16289,12 @@
       </c>
       <c r="L273" t="n">
         <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>2</v>
+      </c>
+      <c r="N273" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -14687,7 +16329,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>['Turkey', 'Portugal', 'Georgia']</t>
+          <t>['Portugal', 'Georgia', 'Turkey']</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -14707,6 +16349,12 @@
       </c>
       <c r="L274" t="n">
         <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>3</v>
+      </c>
+      <c r="N274" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N274"/>
+  <dimension ref="A1:Q274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,21 @@
           <t>goals_diff</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>tiebreak_result</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>tie_won_row1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>tie_won_row2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -525,7 +540,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -552,6 +567,9 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -585,7 +603,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -611,6 +629,13 @@
       </c>
       <c r="N3" t="n">
         <v>-5</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -645,7 +670,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -671,6 +696,13 @@
       </c>
       <c r="N4" t="n">
         <v>-5</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -705,7 +737,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -731,6 +763,13 @@
       </c>
       <c r="N5" t="n">
         <v>-3</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -765,7 +804,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -791,6 +830,13 @@
       </c>
       <c r="N6" t="n">
         <v>-5</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -825,7 +871,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['France', 'Belgium']</t>
+          <t>['Belgium', 'France']</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -851,6 +897,13 @@
       </c>
       <c r="N7" t="n">
         <v>-5</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -885,7 +938,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -911,6 +964,13 @@
       </c>
       <c r="N8" t="n">
         <v>7</v>
+      </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -945,7 +1005,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -971,6 +1031,13 @@
       </c>
       <c r="N9" t="n">
         <v>7</v>
+      </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1005,7 +1072,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1031,6 +1098,13 @@
       </c>
       <c r="N10" t="n">
         <v>7</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1065,7 +1139,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1091,6 +1165,13 @@
       </c>
       <c r="N11" t="n">
         <v>7</v>
+      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1125,7 +1206,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['France', 'Denmark']</t>
+          <t>['Denmark', 'France']</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1151,6 +1232,13 @@
       </c>
       <c r="N12" t="n">
         <v>9</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1173,7 +1261,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['West Germany', 'Spain']</t>
+          <t>['Spain', 'West Germany']</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1200,6 +1288,9 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1233,7 +1324,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['West Germany', 'Portugal']</t>
+          <t>['Portugal', 'West Germany']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1258,6 +1349,17 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1395,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['Portugal', 'Spain']</t>
+          <t>['Spain', 'Portugal']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1318,6 +1420,17 @@
         <v>1</v>
       </c>
       <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>West Germany</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1341,7 +1454,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1368,6 +1481,9 @@
       <c r="N16" t="n">
         <v>0</v>
       </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1401,7 +1517,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1427,6 +1543,13 @@
       </c>
       <c r="N17" t="n">
         <v>2</v>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1461,7 +1584,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1487,6 +1610,13 @@
       </c>
       <c r="N18" t="n">
         <v>3</v>
+      </c>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1521,7 +1651,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1547,6 +1677,13 @@
       </c>
       <c r="N19" t="n">
         <v>4</v>
+      </c>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1581,7 +1718,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['West Germany', 'Italy']</t>
+          <t>['Italy', 'West Germany']</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1607,6 +1744,13 @@
       </c>
       <c r="N20" t="n">
         <v>5</v>
+      </c>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1629,7 +1773,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1656,6 +1800,9 @@
       <c r="N21" t="n">
         <v>0</v>
       </c>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1689,7 +1836,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1715,6 +1862,17 @@
       </c>
       <c r="N22" t="n">
         <v>0</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1749,7 +1907,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1775,6 +1933,17 @@
       </c>
       <c r="N23" t="n">
         <v>0</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1809,7 +1978,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1835,6 +2004,17 @@
       </c>
       <c r="N24" t="n">
         <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1869,7 +2049,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Republic of Ireland']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1895,6 +2075,17 @@
       </c>
       <c r="N25" t="n">
         <v>0</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1929,7 +2120,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Soviet Union', 'Netherlands']</t>
+          <t>['Netherlands', 'Soviet Union']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1955,6 +2146,13 @@
       </c>
       <c r="N26" t="n">
         <v>2</v>
+      </c>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1977,7 +2175,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2004,6 +2202,9 @@
       <c r="N27" t="n">
         <v>0</v>
       </c>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2037,7 +2238,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2062,6 +2263,17 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2097,7 +2309,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2122,6 +2334,17 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2157,7 +2380,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2182,6 +2405,17 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2217,7 +2451,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['France', 'Sweden']</t>
+          <t>['Sweden', 'France']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2242,6 +2476,17 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2277,7 +2522,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['England', 'Sweden']</t>
+          <t>['Sweden', 'England']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2302,6 +2547,17 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2362,6 +2618,17 @@
         <v>1</v>
       </c>
       <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2385,7 +2652,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2412,6 +2679,9 @@
       <c r="N34" t="n">
         <v>0</v>
       </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2445,7 +2715,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2471,6 +2741,17 @@
       </c>
       <c r="N35" t="n">
         <v>1</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2505,7 +2786,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2531,6 +2812,13 @@
       </c>
       <c r="N36" t="n">
         <v>2</v>
+      </c>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2565,7 +2853,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2591,6 +2879,17 @@
       </c>
       <c r="N37" t="n">
         <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2625,7 +2924,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2651,6 +2950,13 @@
       </c>
       <c r="N38" t="n">
         <v>2</v>
+      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2685,7 +2991,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2711,6 +3017,13 @@
       </c>
       <c r="N39" t="n">
         <v>3</v>
+      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2745,7 +3058,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2771,6 +3084,13 @@
       </c>
       <c r="N40" t="n">
         <v>2</v>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2805,7 +3125,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Germany', 'Netherlands']</t>
+          <t>['Netherlands', 'Germany']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2831,6 +3151,13 @@
       </c>
       <c r="N41" t="n">
         <v>3</v>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2853,7 +3180,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2880,6 +3207,9 @@
       <c r="N42" t="n">
         <v>0</v>
       </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2913,7 +3243,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2939,6 +3269,13 @@
       </c>
       <c r="N43" t="n">
         <v>3</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2973,7 +3310,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2999,6 +3336,13 @@
       </c>
       <c r="N44" t="n">
         <v>2</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3033,7 +3377,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3059,6 +3403,17 @@
       </c>
       <c r="N45" t="n">
         <v>1</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3093,7 +3448,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3118,6 +3473,17 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3153,7 +3519,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3179,6 +3545,17 @@
       </c>
       <c r="N47" t="n">
         <v>-1</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3213,7 +3590,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['England', 'Netherlands']</t>
+          <t>['Netherlands', 'England']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3238,6 +3615,17 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3261,7 +3649,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3288,6 +3676,9 @@
       <c r="N49" t="n">
         <v>0</v>
       </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3321,7 +3712,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3346,6 +3737,17 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3381,7 +3783,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3406,6 +3808,17 @@
         <v>1</v>
       </c>
       <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,7 +3854,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3466,6 +3879,17 @@
         <v>1</v>
       </c>
       <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3501,7 +3925,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3527,6 +3951,17 @@
       </c>
       <c r="N53" t="n">
         <v>-1</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3561,7 +3996,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['Bulgaria', 'France']</t>
+          <t>['France', 'Bulgaria']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3586,6 +4021,17 @@
         <v>1</v>
       </c>
       <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3621,7 +4067,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3646,6 +4092,17 @@
         <v>1</v>
       </c>
       <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3681,7 +4138,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['France', 'Spain']</t>
+          <t>['Spain', 'France']</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3707,6 +4164,13 @@
       </c>
       <c r="N56" t="n">
         <v>2</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3729,7 +4193,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3756,6 +4220,9 @@
       <c r="N57" t="n">
         <v>0</v>
       </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3789,7 +4256,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3814,6 +4281,13 @@
         <v>2</v>
       </c>
       <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3849,7 +4323,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3875,6 +4349,13 @@
       </c>
       <c r="N59" t="n">
         <v>1</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3909,7 +4390,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3934,6 +4415,13 @@
         <v>2</v>
       </c>
       <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3969,7 +4457,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3995,6 +4483,17 @@
       </c>
       <c r="N61" t="n">
         <v>-1</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4056,6 +4555,13 @@
       <c r="N62" t="n">
         <v>2</v>
       </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4089,7 +4595,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4115,6 +4621,17 @@
       </c>
       <c r="N63" t="n">
         <v>-1</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4164,6 +4681,9 @@
       <c r="N64" t="n">
         <v>0</v>
       </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4224,6 +4744,13 @@
       <c r="N65" t="n">
         <v>6</v>
       </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4284,6 +4811,13 @@
       <c r="N66" t="n">
         <v>5</v>
       </c>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4344,6 +4878,13 @@
       <c r="N67" t="n">
         <v>4</v>
       </c>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4404,6 +4945,13 @@
       <c r="N68" t="n">
         <v>3</v>
       </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4464,6 +5012,13 @@
       <c r="N69" t="n">
         <v>2</v>
       </c>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4523,6 +5078,13 @@
       </c>
       <c r="N70" t="n">
         <v>1</v>
+      </c>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -4572,6 +5134,9 @@
       <c r="N71" t="n">
         <v>0</v>
       </c>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4632,6 +5197,17 @@
       <c r="N72" t="n">
         <v>1</v>
       </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4692,6 +5268,17 @@
       <c r="N73" t="n">
         <v>1</v>
       </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4752,6 +5339,13 @@
       <c r="N74" t="n">
         <v>1</v>
       </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4812,6 +5406,13 @@
       <c r="N75" t="n">
         <v>3</v>
       </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4872,6 +5473,13 @@
       <c r="N76" t="n">
         <v>1</v>
       </c>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4932,6 +5540,13 @@
       <c r="N77" t="n">
         <v>1</v>
       </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4992,6 +5607,13 @@
       <c r="N78" t="n">
         <v>1</v>
       </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5050,6 +5672,17 @@
         <v>1</v>
       </c>
       <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>England</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5073,7 +5706,7 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5100,6 +5733,9 @@
       <c r="N80" t="n">
         <v>0</v>
       </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5133,7 +5769,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium']</t>
+          <t>['Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5158,6 +5794,13 @@
         <v>2</v>
       </c>
       <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5193,7 +5836,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5219,6 +5862,13 @@
       </c>
       <c r="N82" t="n">
         <v>2</v>
+      </c>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -5253,7 +5903,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5279,6 +5929,13 @@
       </c>
       <c r="N83" t="n">
         <v>4</v>
+      </c>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -5313,7 +5970,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5339,6 +5996,13 @@
       </c>
       <c r="N84" t="n">
         <v>4</v>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -5373,7 +6037,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Italy', 'Turkey']</t>
+          <t>['Turkey', 'Italy']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5399,6 +6063,13 @@
       </c>
       <c r="N85" t="n">
         <v>4</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -5421,7 +6092,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5448,6 +6119,9 @@
       <c r="N86" t="n">
         <v>0</v>
       </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5481,7 +6155,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5507,6 +6181,17 @@
       </c>
       <c r="N87" t="n">
         <v>1</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -5541,7 +6226,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5566,6 +6251,17 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5601,7 +6297,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5627,6 +6323,17 @@
       </c>
       <c r="N89" t="n">
         <v>1</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -5661,7 +6368,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5686,6 +6393,17 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5721,7 +6439,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5747,6 +6465,17 @@
       </c>
       <c r="N91" t="n">
         <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -5781,7 +6510,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Norway']</t>
+          <t>['Norway', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5806,6 +6535,17 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5841,7 +6581,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['FR Yugoslavia', 'Spain']</t>
+          <t>['Spain', 'FR Yugoslavia']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5866,6 +6606,17 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>FR Yugoslavia</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5889,7 +6640,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5916,6 +6667,9 @@
       <c r="N94" t="n">
         <v>0</v>
       </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5949,7 +6703,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5975,6 +6729,13 @@
       </c>
       <c r="N95" t="n">
         <v>5</v>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -6009,7 +6770,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6035,6 +6796,13 @@
       </c>
       <c r="N96" t="n">
         <v>6</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -6069,7 +6837,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6095,6 +6863,13 @@
       </c>
       <c r="N97" t="n">
         <v>5</v>
+      </c>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -6129,7 +6904,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6155,6 +6930,13 @@
       </c>
       <c r="N98" t="n">
         <v>6</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -6189,7 +6971,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6215,6 +6997,13 @@
       </c>
       <c r="N99" t="n">
         <v>5</v>
+      </c>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -6249,7 +7038,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6275,6 +7064,13 @@
       </c>
       <c r="N100" t="n">
         <v>4</v>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -6309,7 +7105,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['France', 'Netherlands']</t>
+          <t>['Netherlands', 'France']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6335,6 +7131,13 @@
       </c>
       <c r="N101" t="n">
         <v>3</v>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -6357,7 +7160,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6384,6 +7187,9 @@
       <c r="N102" t="n">
         <v>0</v>
       </c>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6417,7 +7223,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6443,6 +7249,17 @@
       </c>
       <c r="N103" t="n">
         <v>-1</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -6477,7 +7294,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -6503,6 +7320,17 @@
       </c>
       <c r="N104" t="n">
         <v>-2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -6537,7 +7365,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>['Greece', 'Spain']</t>
+          <t>['Spain', 'Greece']</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6563,6 +7391,17 @@
       </c>
       <c r="N105" t="n">
         <v>-1</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -6622,6 +7461,17 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6645,7 +7495,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6672,6 +7522,9 @@
       <c r="N107" t="n">
         <v>0</v>
       </c>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6705,7 +7558,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6730,6 +7583,13 @@
         <v>2</v>
       </c>
       <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6765,7 +7625,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6790,6 +7650,13 @@
         <v>2</v>
       </c>
       <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6825,7 +7692,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>['France', 'Croatia']</t>
+          <t>['Croatia', 'France']</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6850,6 +7717,13 @@
         <v>2</v>
       </c>
       <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6885,7 +7759,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6911,6 +7785,13 @@
       </c>
       <c r="N111" t="n">
         <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -6972,6 +7853,13 @@
       <c r="N112" t="n">
         <v>2</v>
       </c>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -7032,6 +7920,13 @@
       <c r="N113" t="n">
         <v>3</v>
       </c>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -7092,6 +7987,13 @@
       <c r="N114" t="n">
         <v>2</v>
       </c>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7125,7 +8027,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7151,6 +8053,13 @@
       </c>
       <c r="N115" t="n">
         <v>4</v>
+      </c>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -7185,7 +8094,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7211,6 +8120,13 @@
       </c>
       <c r="N116" t="n">
         <v>6</v>
+      </c>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -7245,7 +8161,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -7271,6 +8187,13 @@
       </c>
       <c r="N117" t="n">
         <v>6</v>
+      </c>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -7320,6 +8243,9 @@
       <c r="N118" t="n">
         <v>0</v>
       </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7380,6 +8306,13 @@
       <c r="N119" t="n">
         <v>4</v>
       </c>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7440,6 +8373,13 @@
       <c r="N120" t="n">
         <v>10</v>
       </c>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7500,6 +8440,13 @@
       <c r="N121" t="n">
         <v>8</v>
       </c>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7560,6 +8507,13 @@
       <c r="N122" t="n">
         <v>2</v>
       </c>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7620,6 +8574,13 @@
       <c r="N123" t="n">
         <v>4</v>
       </c>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7680,6 +8641,13 @@
       <c r="N124" t="n">
         <v>2</v>
       </c>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7739,6 +8707,17 @@
       </c>
       <c r="N125" t="n">
         <v>1</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -7761,7 +8740,7 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -7788,6 +8767,9 @@
       <c r="N126" t="n">
         <v>0</v>
       </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7821,7 +8803,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -7847,6 +8829,13 @@
       </c>
       <c r="N127" t="n">
         <v>2</v>
+      </c>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -7881,7 +8870,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['Germany', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Germany']</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -7907,6 +8896,17 @@
       </c>
       <c r="N128" t="n">
         <v>1</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -7941,7 +8941,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -7967,6 +8967,17 @@
       </c>
       <c r="N129" t="n">
         <v>0</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -8001,7 +9012,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8026,6 +9037,17 @@
         <v>1</v>
       </c>
       <c r="N130" t="n">
+        <v>1</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8061,7 +9083,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -8087,6 +9109,13 @@
       </c>
       <c r="N131" t="n">
         <v>2</v>
+      </c>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -8121,7 +9150,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Netherlands']</t>
+          <t>['Netherlands', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8147,6 +9176,13 @@
       </c>
       <c r="N132" t="n">
         <v>3</v>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -8196,6 +9232,9 @@
       <c r="N133" t="n">
         <v>0</v>
       </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -8256,6 +9295,13 @@
       <c r="N134" t="n">
         <v>2</v>
       </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8316,6 +9362,13 @@
       <c r="N135" t="n">
         <v>4</v>
       </c>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8376,6 +9429,13 @@
       <c r="N136" t="n">
         <v>4</v>
       </c>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8436,6 +9496,13 @@
       <c r="N137" t="n">
         <v>2</v>
       </c>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8496,6 +9563,13 @@
       <c r="N138" t="n">
         <v>2</v>
       </c>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8556,6 +9630,17 @@
       <c r="N139" t="n">
         <v>0</v>
       </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8615,6 +9700,13 @@
       </c>
       <c r="N140" t="n">
         <v>2</v>
+      </c>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -8637,7 +9729,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -8664,6 +9756,9 @@
       <c r="N141" t="n">
         <v>0</v>
       </c>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8697,7 +9792,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8723,6 +9818,13 @@
       </c>
       <c r="N142" t="n">
         <v>4</v>
+      </c>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -8757,7 +9859,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['Germany', 'Croatia']</t>
+          <t>['Croatia', 'Germany']</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -8783,6 +9885,13 @@
       </c>
       <c r="N143" t="n">
         <v>4</v>
+      </c>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -8805,7 +9914,7 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>['Romania', 'Netherlands']</t>
+          <t>['Netherlands', 'Romania']</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -8832,6 +9941,9 @@
       <c r="N144" t="n">
         <v>0</v>
       </c>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8865,7 +9977,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -8891,6 +10003,17 @@
       </c>
       <c r="N145" t="n">
         <v>-2</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -8925,7 +10048,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -8951,6 +10074,13 @@
       </c>
       <c r="N146" t="n">
         <v>-1</v>
+      </c>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -8985,7 +10115,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -9010,6 +10140,13 @@
         <v>2</v>
       </c>
       <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9045,7 +10182,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>['Italy', 'Netherlands']</t>
+          <t>['Netherlands', 'Italy']</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9071,6 +10208,13 @@
       </c>
       <c r="N148" t="n">
         <v>1</v>
+      </c>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -9093,7 +10237,7 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain']</t>
+          <t>['Spain', 'Sweden']</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -9120,6 +10264,9 @@
       <c r="N149" t="n">
         <v>0</v>
       </c>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -9153,7 +10300,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -9179,6 +10326,13 @@
       </c>
       <c r="N150" t="n">
         <v>-1</v>
+      </c>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -9213,7 +10367,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -9239,6 +10393,13 @@
       </c>
       <c r="N151" t="n">
         <v>-1</v>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -9273,7 +10434,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -9299,6 +10460,13 @@
       </c>
       <c r="N152" t="n">
         <v>1</v>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -9333,7 +10501,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -9359,6 +10527,13 @@
       </c>
       <c r="N153" t="n">
         <v>1</v>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -9393,7 +10568,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>['Russia', 'Spain']</t>
+          <t>['Spain', 'Russia']</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -9419,6 +10594,13 @@
       </c>
       <c r="N154" t="n">
         <v>1</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -9441,7 +10623,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -9468,6 +10650,9 @@
       <c r="N155" t="n">
         <v>0</v>
       </c>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9501,7 +10686,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>['Russia', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Russia']</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9527,6 +10712,17 @@
       </c>
       <c r="N156" t="n">
         <v>-2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -9587,6 +10783,13 @@
       </c>
       <c r="N157" t="n">
         <v>2</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -9636,6 +10839,9 @@
       <c r="N158" t="n">
         <v>0</v>
       </c>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9669,7 +10875,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -9694,6 +10900,17 @@
         <v>1</v>
       </c>
       <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9756,6 +10973,17 @@
       <c r="N160" t="n">
         <v>0</v>
       </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9789,7 +11017,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>['Germany', 'Denmark']</t>
+          <t>['Denmark', 'Germany']</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -9814,6 +11042,17 @@
         <v>1</v>
       </c>
       <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9876,6 +11115,17 @@
       <c r="N162" t="n">
         <v>0</v>
       </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9936,6 +11186,13 @@
       <c r="N163" t="n">
         <v>1</v>
       </c>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9995,6 +11252,13 @@
       </c>
       <c r="N164" t="n">
         <v>2</v>
+      </c>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -10017,7 +11281,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -10044,6 +11308,9 @@
       <c r="N165" t="n">
         <v>0</v>
       </c>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -10077,7 +11344,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>['Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia']</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -10103,6 +11370,17 @@
       </c>
       <c r="N166" t="n">
         <v>1</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -10137,7 +11415,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -10163,6 +11441,17 @@
       </c>
       <c r="N167" t="n">
         <v>0</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -10197,7 +11486,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>['Italy', 'Spain']</t>
+          <t>['Spain', 'Italy']</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -10222,6 +11511,17 @@
         <v>1</v>
       </c>
       <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10245,7 +11545,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>['England', 'France']</t>
+          <t>['France', 'England']</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -10272,6 +11572,9 @@
       <c r="N169" t="n">
         <v>0</v>
       </c>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -10332,6 +11635,13 @@
       <c r="N170" t="n">
         <v>4</v>
       </c>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10392,6 +11702,13 @@
       <c r="N171" t="n">
         <v>3</v>
       </c>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10451,6 +11768,13 @@
       </c>
       <c r="N172" t="n">
         <v>2</v>
+      </c>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -10473,7 +11797,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>['Romania', 'France', 'Switzerland']</t>
+          <t>['Switzerland', 'France', 'Romania']</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -10500,6 +11824,9 @@
       <c r="N173" t="n">
         <v>0</v>
       </c>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10533,7 +11860,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>['France', 'Albania', 'Switzerland']</t>
+          <t>['Switzerland', 'Albania', 'France']</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -10558,6 +11885,13 @@
         <v>2</v>
       </c>
       <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10581,7 +11915,7 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10608,6 +11942,9 @@
       <c r="N175" t="n">
         <v>0</v>
       </c>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10641,7 +11978,7 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -10667,6 +12004,13 @@
       </c>
       <c r="N176" t="n">
         <v>2</v>
+      </c>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -10701,7 +12045,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -10727,6 +12071,13 @@
       </c>
       <c r="N177" t="n">
         <v>3</v>
+      </c>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -10761,7 +12112,7 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>['England', 'Wales', 'Slovakia']</t>
+          <t>['Wales', 'Slovakia', 'England']</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -10787,6 +12138,13 @@
       </c>
       <c r="N178" t="n">
         <v>4</v>
+      </c>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -10809,7 +12167,7 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -10836,6 +12194,9 @@
       <c r="N179" t="n">
         <v>0</v>
       </c>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -10869,7 +12230,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -10895,6 +12256,13 @@
       </c>
       <c r="N180" t="n">
         <v>4</v>
+      </c>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -10929,7 +12297,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>['Germany', 'Northern Ireland', 'Poland']</t>
+          <t>['Northern Ireland', 'Germany', 'Poland']</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -10955,6 +12323,13 @@
       </c>
       <c r="N181" t="n">
         <v>5</v>
+      </c>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -10977,7 +12352,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -11004,6 +12379,9 @@
       <c r="N182" t="n">
         <v>0</v>
       </c>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -11037,7 +12415,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -11063,6 +12441,13 @@
       </c>
       <c r="N183" t="n">
         <v>3</v>
+      </c>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -11097,7 +12482,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -11123,6 +12508,13 @@
       </c>
       <c r="N184" t="n">
         <v>-1</v>
+      </c>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -11157,7 +12549,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -11183,6 +12575,13 @@
       </c>
       <c r="N185" t="n">
         <v>-1</v>
+      </c>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -11217,7 +12616,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>['Turkey', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -11243,6 +12642,13 @@
       </c>
       <c r="N186" t="n">
         <v>1</v>
+      </c>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -11277,7 +12683,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>['Spain', 'Turkey', 'Croatia']</t>
+          <t>['Spain', 'Croatia', 'Turkey']</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -11303,6 +12709,13 @@
       </c>
       <c r="N187" t="n">
         <v>1</v>
+      </c>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -11325,7 +12738,7 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>['Italy', 'Belgium', 'Sweden']</t>
+          <t>['Belgium', 'Sweden', 'Italy']</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -11352,6 +12765,9 @@
       <c r="N188" t="n">
         <v>0</v>
       </c>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11385,7 +12801,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -11411,6 +12827,17 @@
       </c>
       <c r="N189" t="n">
         <v>-1</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -11445,7 +12872,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>['Republic of Ireland', 'Italy', 'Belgium']</t>
+          <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -11470,6 +12897,13 @@
         <v>3</v>
       </c>
       <c r="N190" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11493,7 +12927,7 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -11520,6 +12954,9 @@
       <c r="N191" t="n">
         <v>0</v>
       </c>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11553,7 +12990,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -11579,6 +13016,13 @@
       </c>
       <c r="N192" t="n">
         <v>3</v>
+      </c>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -11613,7 +13057,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -11639,6 +13083,13 @@
       </c>
       <c r="N193" t="n">
         <v>2</v>
+      </c>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -11673,7 +13124,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -11699,6 +13150,13 @@
       </c>
       <c r="N194" t="n">
         <v>3</v>
+      </c>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -11733,7 +13191,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -11759,6 +13217,13 @@
       </c>
       <c r="N195" t="n">
         <v>2</v>
+      </c>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -11793,7 +13258,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -11819,6 +13284,13 @@
       </c>
       <c r="N196" t="n">
         <v>3</v>
+      </c>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -11853,7 +13325,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -11879,6 +13351,13 @@
       </c>
       <c r="N197" t="n">
         <v>2</v>
+      </c>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -11913,7 +13392,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -11939,6 +13418,17 @@
       </c>
       <c r="N198" t="n">
         <v>1</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -11973,7 +13463,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -11999,6 +13489,13 @@
       </c>
       <c r="N199" t="n">
         <v>2</v>
+      </c>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -12033,7 +13530,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>['Iceland', 'Portugal', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'Iceland']</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -12059,6 +13556,13 @@
       </c>
       <c r="N200" t="n">
         <v>3</v>
+      </c>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -12081,7 +13585,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -12108,6 +13612,9 @@
       <c r="N201" t="n">
         <v>0</v>
       </c>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -12141,7 +13648,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -12167,6 +13674,13 @@
       </c>
       <c r="N202" t="n">
         <v>4</v>
+      </c>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -12201,7 +13715,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -12227,6 +13741,13 @@
       </c>
       <c r="N203" t="n">
         <v>6</v>
+      </c>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -12261,7 +13782,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -12287,6 +13808,13 @@
       </c>
       <c r="N204" t="n">
         <v>6</v>
+      </c>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -12321,7 +13849,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -12347,6 +13875,13 @@
       </c>
       <c r="N205" t="n">
         <v>4</v>
+      </c>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -12381,7 +13916,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>['Italy', 'Wales', 'Switzerland']</t>
+          <t>['Switzerland', 'Wales', 'Italy']</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -12407,6 +13942,13 @@
       </c>
       <c r="N206" t="n">
         <v>6</v>
+      </c>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -12429,7 +13971,7 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -12456,6 +13998,9 @@
       <c r="N207" t="n">
         <v>0</v>
       </c>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12489,7 +14034,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -12515,6 +14060,13 @@
       </c>
       <c r="N208" t="n">
         <v>2</v>
+      </c>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -12549,7 +14101,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -12575,6 +14127,13 @@
       </c>
       <c r="N209" t="n">
         <v>4</v>
+      </c>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -12609,7 +14168,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>['Denmark', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Denmark', 'Belgium']</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -12635,6 +14194,13 @@
       </c>
       <c r="N210" t="n">
         <v>2</v>
+      </c>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -12669,7 +14235,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -12695,6 +14261,17 @@
       </c>
       <c r="N211" t="n">
         <v>-2</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -12729,7 +14306,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -12755,6 +14332,17 @@
       </c>
       <c r="N212" t="n">
         <v>-4</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -12789,7 +14377,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -12815,6 +14403,17 @@
       </c>
       <c r="N213" t="n">
         <v>-4</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -12849,7 +14448,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>['Russia', 'Belgium', 'Finland']</t>
+          <t>['Finland', 'Russia', 'Belgium']</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -12875,6 +14474,17 @@
       </c>
       <c r="N214" t="n">
         <v>-6</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -12897,7 +14507,7 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -12924,6 +14534,9 @@
       <c r="N215" t="n">
         <v>0</v>
       </c>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -12957,7 +14570,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -12983,6 +14596,13 @@
       </c>
       <c r="N216" t="n">
         <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -13017,7 +14637,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -13043,6 +14663,13 @@
       </c>
       <c r="N217" t="n">
         <v>3</v>
+      </c>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -13077,7 +14704,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -13103,6 +14730,13 @@
       </c>
       <c r="N218" t="n">
         <v>4</v>
+      </c>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -13137,7 +14771,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Ukraine', 'Austria']</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -13163,6 +14797,13 @@
       </c>
       <c r="N219" t="n">
         <v>5</v>
+      </c>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -13185,7 +14826,7 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -13212,6 +14853,9 @@
       <c r="N220" t="n">
         <v>0</v>
       </c>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -13245,7 +14889,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -13271,6 +14915,17 @@
       </c>
       <c r="N221" t="n">
         <v>1</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -13305,7 +14960,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -13331,6 +14986,13 @@
       </c>
       <c r="N222" t="n">
         <v>3</v>
+      </c>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -13365,7 +15027,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -13391,6 +15053,17 @@
       </c>
       <c r="N223" t="n">
         <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -13425,7 +15098,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -13451,6 +15124,13 @@
       </c>
       <c r="N224" t="n">
         <v>3</v>
+      </c>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -13485,7 +15165,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>['England', 'Czech Republic', 'Croatia']</t>
+          <t>['Croatia', 'Czech Republic', 'England']</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -13511,6 +15191,13 @@
       </c>
       <c r="N225" t="n">
         <v>5</v>
+      </c>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -13533,7 +15220,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -13560,6 +15247,9 @@
       <c r="N226" t="n">
         <v>0</v>
       </c>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -13593,7 +15283,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -13619,6 +15309,13 @@
       </c>
       <c r="N227" t="n">
         <v>2</v>
+      </c>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -13653,7 +15350,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -13679,6 +15376,13 @@
       </c>
       <c r="N228" t="n">
         <v>1</v>
+      </c>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -13713,7 +15417,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -13738,6 +15442,13 @@
         <v>2</v>
       </c>
       <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13773,7 +15484,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -13799,6 +15510,13 @@
       </c>
       <c r="N230" t="n">
         <v>-1</v>
+      </c>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -13833,7 +15551,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -13858,6 +15576,13 @@
         <v>2</v>
       </c>
       <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13893,7 +15618,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -13919,6 +15644,13 @@
       </c>
       <c r="N232" t="n">
         <v>-1</v>
+      </c>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -13953,7 +15685,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -13979,6 +15711,13 @@
       </c>
       <c r="N233" t="n">
         <v>-2</v>
+      </c>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -14013,7 +15752,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -14039,6 +15778,13 @@
       </c>
       <c r="N234" t="n">
         <v>-3</v>
+      </c>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -14073,7 +15819,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -14099,6 +15845,17 @@
       </c>
       <c r="N235" t="n">
         <v>-4</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -14133,7 +15890,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>['Sweden', 'Spain', 'Slovakia']</t>
+          <t>['Spain', 'Sweden', 'Slovakia']</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -14159,6 +15916,13 @@
       </c>
       <c r="N236" t="n">
         <v>-3</v>
+      </c>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -14181,7 +15945,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['Germany', 'Portugal', 'France']</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -14208,6 +15972,9 @@
       <c r="N237" t="n">
         <v>0</v>
       </c>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -14241,7 +16008,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -14267,6 +16034,17 @@
       </c>
       <c r="N238" t="n">
         <v>-2</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -14301,7 +16079,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -14327,6 +16105,17 @@
       </c>
       <c r="N239" t="n">
         <v>-2</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -14361,7 +16150,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -14387,6 +16176,17 @@
       </c>
       <c r="N240" t="n">
         <v>-2</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -14421,7 +16221,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -14447,6 +16247,17 @@
       </c>
       <c r="N241" t="n">
         <v>-2</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -14508,6 +16319,13 @@
       <c r="N242" t="n">
         <v>4</v>
       </c>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -14541,7 +16359,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>['Portugal', 'France', 'Hungary']</t>
+          <t>['Portugal', 'Hungary', 'France']</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -14567,6 +16385,17 @@
       </c>
       <c r="N243" t="n">
         <v>-2</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="P243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -14627,6 +16456,13 @@
       </c>
       <c r="N244" t="n">
         <v>4</v>
+      </c>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -14649,7 +16485,7 @@
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -14676,6 +16512,9 @@
       <c r="N245" t="n">
         <v>0</v>
       </c>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -14709,7 +16548,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -14734,6 +16573,17 @@
         <v>1</v>
       </c>
       <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="P246" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14769,7 +16619,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>['Scotland', 'Germany', 'Switzerland']</t>
+          <t>['Switzerland', 'Germany', 'Scotland']</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -14794,6 +16644,17 @@
         <v>1</v>
       </c>
       <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="P247" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14829,7 +16690,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>['Germany', 'Switzerland', 'Hungary']</t>
+          <t>['Hungary', 'Switzerland', 'Germany']</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -14855,6 +16716,13 @@
       </c>
       <c r="N248" t="n">
         <v>2</v>
+      </c>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -14877,7 +16745,7 @@
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr">
         <is>
-          <t>['Italy', 'Albania', 'Spain']</t>
+          <t>['Spain', 'Albania', 'Italy']</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -14904,6 +16772,9 @@
       <c r="N249" t="n">
         <v>0</v>
       </c>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -14937,7 +16808,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -14963,6 +16834,17 @@
       </c>
       <c r="N250" t="n">
         <v>-1</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="P250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -14997,7 +16879,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -15023,6 +16905,13 @@
       </c>
       <c r="N251" t="n">
         <v>1</v>
+      </c>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -15057,7 +16946,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>['Italy', 'Croatia', 'Spain']</t>
+          <t>['Spain', 'Croatia', 'Italy']</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -15083,6 +16972,17 @@
       </c>
       <c r="N252" t="n">
         <v>-1</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
+      </c>
+      <c r="P252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -15105,7 +17005,7 @@
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -15132,6 +17032,9 @@
       <c r="N253" t="n">
         <v>0</v>
       </c>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -15165,7 +17068,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -15190,6 +17093,17 @@
         <v>0</v>
       </c>
       <c r="N254" t="n">
+        <v>0</v>
+      </c>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="P254" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q254" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15225,7 +17139,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -15251,6 +17165,17 @@
       </c>
       <c r="N255" t="n">
         <v>1</v>
+      </c>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="P255" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="256">
@@ -15285,7 +17210,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -15311,6 +17236,13 @@
       </c>
       <c r="N256" t="n">
         <v>2</v>
+      </c>
+      <c r="O256" t="inlineStr"/>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -15345,7 +17277,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>['Slovenia', 'England', 'Denmark']</t>
+          <t>['Slovenia', 'Denmark', 'England']</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -15371,6 +17303,17 @@
       </c>
       <c r="N257" t="n">
         <v>1</v>
+      </c>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="P257" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -15393,7 +17336,7 @@
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -15420,6 +17363,9 @@
       <c r="N258" t="n">
         <v>0</v>
       </c>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -15453,7 +17399,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -15479,6 +17425,13 @@
       </c>
       <c r="N259" t="n">
         <v>3</v>
+      </c>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -15513,7 +17466,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -15539,6 +17492,13 @@
       </c>
       <c r="N260" t="n">
         <v>4</v>
+      </c>
+      <c r="O260" t="inlineStr"/>
+      <c r="P260" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -15573,7 +17533,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -15599,6 +17559,13 @@
       </c>
       <c r="N261" t="n">
         <v>5</v>
+      </c>
+      <c r="O261" t="inlineStr"/>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -15633,7 +17600,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -15659,6 +17626,13 @@
       </c>
       <c r="N262" t="n">
         <v>4</v>
+      </c>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -15693,7 +17667,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -15719,6 +17693,13 @@
       </c>
       <c r="N263" t="n">
         <v>5</v>
+      </c>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -15753,7 +17734,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -15779,6 +17760,13 @@
       </c>
       <c r="N264" t="n">
         <v>4</v>
+      </c>
+      <c r="O264" t="inlineStr"/>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -15813,7 +17801,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>['France', 'Austria', 'Netherlands']</t>
+          <t>['Netherlands', 'Austria', 'France']</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -15839,6 +17827,13 @@
       </c>
       <c r="N265" t="n">
         <v>3</v>
+      </c>
+      <c r="O265" t="inlineStr"/>
+      <c r="P265" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -15861,7 +17856,7 @@
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Romania', 'Belgium']</t>
+          <t>['Ukraine', 'Belgium', 'Romania']</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -15888,6 +17883,9 @@
       <c r="N266" t="n">
         <v>0</v>
       </c>
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -15948,6 +17946,17 @@
       <c r="N267" t="n">
         <v>-2</v>
       </c>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="P267" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -15981,7 +17990,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>['Romania', 'Belgium', 'Slovakia']</t>
+          <t>['Belgium', 'Slovakia', 'Romania']</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -16007,6 +18016,13 @@
       </c>
       <c r="N268" t="n">
         <v>2</v>
+      </c>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -16056,6 +18072,9 @@
       <c r="N269" t="n">
         <v>0</v>
       </c>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -16089,7 +18108,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -16114,6 +18133,13 @@
         <v>2</v>
       </c>
       <c r="N270" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" t="inlineStr"/>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16149,7 +18175,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -16175,6 +18201,13 @@
       </c>
       <c r="N271" t="n">
         <v>1</v>
+      </c>
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -16209,7 +18242,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -16235,6 +18268,13 @@
       </c>
       <c r="N272" t="n">
         <v>2</v>
+      </c>
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -16269,7 +18309,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -16295,6 +18335,13 @@
       </c>
       <c r="N273" t="n">
         <v>1</v>
+      </c>
+      <c r="O273" t="inlineStr"/>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -16329,7 +18376,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>['Portugal', 'Georgia', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Georgia']</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -16355,6 +18402,13 @@
       </c>
       <c r="N274" t="n">
         <v>2</v>
+      </c>
+      <c r="O274" t="inlineStr"/>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Soviet Union']</t>
+          <t>['Soviet Union', 'Netherlands']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2145,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="n">
@@ -2267,14 +2267,14 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>51</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['Sweden', 'England']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2390,30 +2390,30 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t>England</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Denmark</t>
-        </is>
-      </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>60</v>
@@ -2480,14 +2480,14 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>78</v>
@@ -2547,18 +2547,18 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>England</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>82</v>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>England</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -2622,14 +2622,14 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2652,7 +2652,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2811,9 +2811,13 @@
         <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
@@ -2853,7 +2857,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2878,18 +2882,18 @@
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>CIS</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2924,7 +2928,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2949,14 +2953,18 @@
         <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2991,7 +2999,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3016,14 +3024,18 @@
         <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
+        <v>-1</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3058,7 +3070,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3083,14 +3095,18 @@
         <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
+        <v>-3</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3125,7 +3141,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Germany']</t>
+          <t>['Germany', 'Netherlands']</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3150,14 +3166,18 @@
         <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>3</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
+        <v>-3</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3180,7 +3200,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3243,7 +3263,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -3310,7 +3330,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3377,7 +3397,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3406,11 +3426,11 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -3426,7 +3446,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
         <v>57</v>
@@ -3448,7 +3468,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3458,22 +3478,22 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3481,10 +3501,10 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3497,7 +3517,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>62</v>
@@ -3519,7 +3539,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['Scotland', 'England']</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3529,14 +3549,14 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
+          <t>Scotland</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
           <t>Netherlands</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Scotland</t>
-        </is>
-      </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
@@ -3544,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -3552,10 +3572,10 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3568,7 +3588,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>78</v>
@@ -3590,7 +3610,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['Netherlands', 'England']</t>
+          <t>['England', 'Netherlands']</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3609,13 +3629,13 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -3649,7 +3669,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3690,7 +3710,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>11</v>
@@ -3712,26 +3732,26 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'Spain']</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>France</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -3745,10 +3765,10 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3761,7 +3781,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>21</v>
@@ -3812,14 +3832,14 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3832,7 +3852,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>29</v>
@@ -3854,7 +3874,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -3879,18 +3899,18 @@
         <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -3903,7 +3923,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>63</v>
@@ -3925,7 +3945,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3954,14 +3974,14 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -3974,7 +3994,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>69</v>
@@ -3996,7 +4016,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['France', 'Bulgaria']</t>
+          <t>['Bulgaria', 'France']</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4021,18 +4041,18 @@
         <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -4045,7 +4065,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>84</v>
@@ -4092,18 +4112,14 @@
         <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Bulgaria</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -4116,7 +4132,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>90</v>
@@ -4163,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
@@ -4193,7 +4209,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4256,7 +4272,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4323,7 +4339,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -4390,7 +4406,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4457,7 +4473,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4528,7 +4544,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['Italy', 'Germany']</t>
+          <t>['Germany', 'Italy']</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4553,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
@@ -4595,7 +4611,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4620,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -4654,7 +4670,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4717,7 +4733,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4784,7 +4800,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4851,7 +4867,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4918,7 +4934,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4985,7 +5001,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5052,7 +5068,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['Portugal', 'Croatia']</t>
+          <t>['Croatia', 'Portugal']</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5107,7 +5123,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5170,7 +5186,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5241,7 +5257,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5266,7 +5282,7 @@
         <v>1</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -5312,7 +5328,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5337,7 +5353,7 @@
         <v>2</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
@@ -5379,7 +5395,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5404,7 +5420,7 @@
         <v>5</v>
       </c>
       <c r="N75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
@@ -5446,7 +5462,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5471,7 +5487,7 @@
         <v>2</v>
       </c>
       <c r="N76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
@@ -5513,7 +5529,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5538,7 +5554,7 @@
         <v>2</v>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
@@ -5580,7 +5596,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['Portugal', 'England']</t>
+          <t>['England', 'Portugal']</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5605,7 +5621,7 @@
         <v>2</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
@@ -5647,7 +5663,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['Portugal', 'Romania']</t>
+          <t>['Romania', 'Portugal']</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5672,7 +5688,7 @@
         <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -5836,7 +5852,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5903,7 +5919,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5970,7 +5986,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6037,7 +6053,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['Turkey', 'Italy']</t>
+          <t>['Italy', 'Turkey']</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6092,7 +6108,7 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6155,7 +6171,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6226,7 +6242,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6251,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -6297,7 +6313,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6322,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -6368,7 +6384,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6393,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -6439,7 +6455,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6464,7 +6480,7 @@
         <v>1</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -6510,7 +6526,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['Norway', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Norway']</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6535,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -6581,7 +6597,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['Spain', 'FR Yugoslavia']</t>
+          <t>['FR Yugoslavia', 'Spain']</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6640,7 +6656,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6703,7 +6719,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6770,7 +6786,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6837,7 +6853,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6904,7 +6920,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6971,7 +6987,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -7038,7 +7054,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -7105,7 +7121,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['Netherlands', 'France']</t>
+          <t>['France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7319,7 +7335,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -7390,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -7436,7 +7452,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>['Portugal', 'Greece']</t>
+          <t>['Greece', 'Portugal']</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7465,14 +7481,14 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -7495,7 +7511,7 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7759,7 +7775,7 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -8027,7 +8043,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -8094,7 +8110,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -8161,7 +8177,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -8216,7 +8232,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8279,7 +8295,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8346,7 +8362,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8413,7 +8429,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8480,7 +8496,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8547,7 +8563,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -8614,7 +8630,7 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -8681,7 +8697,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>['Sweden', 'Denmark']</t>
+          <t>['Denmark', 'Sweden']</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8710,11 +8726,11 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125" t="n">
         <v>0</v>
@@ -8740,7 +8756,7 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8803,7 +8819,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8870,7 +8886,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Germany']</t>
+          <t>['Germany', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8899,14 +8915,14 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -8941,7 +8957,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8966,18 +8982,18 @@
         <v>1</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -9012,7 +9028,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -9041,14 +9057,14 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -9083,7 +9099,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -9108,7 +9124,7 @@
         <v>2</v>
       </c>
       <c r="N131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="n">
@@ -9150,7 +9166,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Czech Republic']</t>
+          <t>['Czech Republic', 'Netherlands']</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -9175,7 +9191,7 @@
         <v>2</v>
       </c>
       <c r="N132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="n">
@@ -9632,14 +9648,14 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>tie</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="P139" t="n">
         <v>0</v>
       </c>
       <c r="Q139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -9699,7 +9715,7 @@
         <v>3</v>
       </c>
       <c r="N140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="n">
@@ -9729,7 +9745,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -9792,7 +9808,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -9859,7 +9875,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>['Croatia', 'Germany']</t>
+          <t>['Germany', 'Croatia']</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -9914,7 +9930,7 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Romania']</t>
+          <t>['Romania', 'Netherlands']</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -9977,7 +9993,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10048,7 +10064,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -10073,7 +10089,7 @@
         <v>2</v>
       </c>
       <c r="N146" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="n">
@@ -10115,7 +10131,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10140,7 +10156,7 @@
         <v>2</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="n">
@@ -10182,7 +10198,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Italy']</t>
+          <t>['Italy', 'Netherlands']</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -10207,7 +10223,7 @@
         <v>2</v>
       </c>
       <c r="N148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="n">
@@ -10237,7 +10253,7 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden']</t>
+          <t>['Sweden', 'Spain']</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -10300,7 +10316,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -10367,7 +10383,7 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -10434,7 +10450,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -10501,7 +10517,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -10568,7 +10584,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>['Spain', 'Russia']</t>
+          <t>['Russia', 'Spain']</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -10623,7 +10639,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -10686,7 +10702,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>['Czech Republic', 'Russia']</t>
+          <t>['Russia', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -10782,9 +10798,13 @@
         <v>0</v>
       </c>
       <c r="N157" t="n">
-        <v>2</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
       <c r="P157" t="n">
         <v>0</v>
       </c>
@@ -10812,7 +10832,7 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -10946,7 +10966,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -10971,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="N160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
@@ -11088,7 +11108,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -11113,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="N162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -11159,7 +11179,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -11226,7 +11246,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany']</t>
+          <t>['Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -11373,11 +11393,11 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q166" t="n">
         <v>0</v>
@@ -11440,7 +11460,7 @@
         <v>1</v>
       </c>
       <c r="N167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
@@ -11545,7 +11565,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>['France', 'England']</t>
+          <t>['England', 'France']</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -11797,7 +11817,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>['Switzerland', 'France', 'Romania']</t>
+          <t>['Romania', 'France', 'Switzerland']</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -11860,7 +11880,7 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Albania', 'France']</t>
+          <t>['France', 'Albania', 'Switzerland']</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -12167,7 +12187,7 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -12230,7 +12250,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -12297,7 +12317,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>['Northern Ireland', 'Germany', 'Poland']</t>
+          <t>['Germany', 'Northern Ireland', 'Poland']</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -12738,7 +12758,7 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>['Belgium', 'Sweden', 'Italy']</t>
+          <t>['Sweden', 'Belgium', 'Italy']</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -12897,7 +12917,7 @@
         <v>3</v>
       </c>
       <c r="N190" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="n">
@@ -12927,7 +12947,7 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -12990,7 +13010,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -13057,7 +13077,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -13124,7 +13144,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -13191,7 +13211,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -13258,7 +13278,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -13325,7 +13345,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -13392,7 +13412,7 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -13463,7 +13483,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -13473,14 +13493,14 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
           <t>Iceland</t>
         </is>
       </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
       <c r="L199" t="n">
         <v>0</v>
       </c>
@@ -13488,9 +13508,13 @@
         <v>1</v>
       </c>
       <c r="N199" t="n">
-        <v>2</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>tie</t>
+        </is>
+      </c>
       <c r="P199" t="n">
         <v>0</v>
       </c>
@@ -13530,7 +13554,7 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'Iceland']</t>
+          <t>['Iceland', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -13555,7 +13579,7 @@
         <v>2</v>
       </c>
       <c r="N200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="n">
@@ -13585,7 +13609,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -13648,7 +13672,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -13715,7 +13739,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -13782,7 +13806,7 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -13849,7 +13873,7 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -13916,7 +13940,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Wales', 'Italy']</t>
+          <t>['Wales', 'Italy', 'Switzerland']</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -13971,7 +13995,7 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Russia', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -14034,7 +14058,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
@@ -14101,7 +14125,7 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -14168,7 +14192,7 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>['Finland', 'Denmark', 'Belgium']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -14213,7 +14237,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
         <v>74</v>
@@ -14235,7 +14259,7 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -14245,28 +14269,24 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
       <c r="L211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M211" t="n">
         <v>0</v>
       </c>
       <c r="N211" t="n">
-        <v>-2</v>
-      </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t>tie</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O211" t="inlineStr"/>
       <c r="P211" t="n">
         <v>0</v>
       </c>
@@ -14284,7 +14304,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D212" t="n">
         <v>79</v>
@@ -14306,7 +14326,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -14316,14 +14336,14 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
       <c r="L212" t="n">
         <v>0</v>
       </c>
@@ -14331,13 +14351,9 @@
         <v>0</v>
       </c>
       <c r="N212" t="n">
-        <v>-4</v>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>tie</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O212" t="inlineStr"/>
       <c r="P212" t="n">
         <v>0</v>
       </c>
@@ -14355,7 +14371,7 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" t="n">
         <v>81</v>
@@ -14377,7 +14393,7 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -14387,14 +14403,14 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
       <c r="L213" t="n">
         <v>0</v>
       </c>
@@ -14402,13 +14418,9 @@
         <v>0</v>
       </c>
       <c r="N213" t="n">
-        <v>-4</v>
-      </c>
-      <c r="O213" t="inlineStr">
-        <is>
-          <t>tie</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O213" t="inlineStr"/>
       <c r="P213" t="n">
         <v>0</v>
       </c>
@@ -14426,7 +14438,7 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214" t="n">
         <v>82</v>
@@ -14448,7 +14460,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>['Finland', 'Russia', 'Belgium']</t>
+          <t>['Denmark', 'Finland', 'Belgium']</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -14458,14 +14470,14 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
           <t>Finland</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
       <c r="L214" t="n">
         <v>0</v>
       </c>
@@ -14473,13 +14485,9 @@
         <v>0</v>
       </c>
       <c r="N214" t="n">
-        <v>-6</v>
-      </c>
-      <c r="O214" t="inlineStr">
-        <is>
-          <t>tie</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="O214" t="inlineStr"/>
       <c r="P214" t="n">
         <v>0</v>
       </c>
@@ -14507,7 +14515,7 @@
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -14570,7 +14578,7 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
@@ -14637,7 +14645,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -14704,7 +14712,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -14771,7 +14779,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Ukraine', 'Austria']</t>
+          <t>['Austria', 'Ukraine', 'Netherlands']</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -14826,7 +14834,7 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -14889,7 +14897,7 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -14918,11 +14926,11 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q221" t="n">
         <v>0</v>
@@ -14960,7 +14968,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -14985,7 +14993,7 @@
         <v>3</v>
       </c>
       <c r="N222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O222" t="inlineStr"/>
       <c r="P222" t="n">
@@ -15027,7 +15035,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -15052,18 +15060,18 @@
         <v>0</v>
       </c>
       <c r="N223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -15098,7 +15106,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -15123,7 +15131,7 @@
         <v>3</v>
       </c>
       <c r="N224" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O224" t="inlineStr"/>
       <c r="P224" t="n">
@@ -15165,7 +15173,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>['Croatia', 'Czech Republic', 'England']</t>
+          <t>['Croatia', 'England', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -15175,12 +15183,12 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
           <t>Czech Republic</t>
-        </is>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>Croatia</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -15190,7 +15198,7 @@
         <v>3</v>
       </c>
       <c r="N225" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O225" t="inlineStr"/>
       <c r="P225" t="n">
@@ -15220,7 +15228,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -15283,7 +15291,7 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -15350,7 +15358,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -15417,7 +15425,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -15484,7 +15492,7 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -15551,7 +15559,7 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -15618,7 +15626,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -15685,7 +15693,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -15752,7 +15760,7 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -15819,17 +15827,17 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
           <t>Sweden</t>
-        </is>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Spain</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -15890,7 +15898,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>['Spain', 'Sweden', 'Slovakia']</t>
+          <t>['Sweden', 'Slovakia', 'Spain']</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -15915,7 +15923,7 @@
         <v>2</v>
       </c>
       <c r="N236" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="n">
@@ -15945,7 +15953,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>['Germany', 'Portugal', 'France']</t>
+          <t>['Portugal', 'Germany', 'France']</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -16008,7 +16016,7 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -16079,7 +16087,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -16104,7 +16112,7 @@
         <v>1</v>
       </c>
       <c r="N239" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="O239" t="inlineStr">
         <is>
@@ -16150,7 +16158,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['Portugal', 'France', 'Hungary']</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -16175,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="N240" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="O240" t="inlineStr">
         <is>
@@ -16221,7 +16229,7 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
@@ -16246,7 +16254,7 @@
         <v>1</v>
       </c>
       <c r="N241" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="O241" t="inlineStr">
         <is>
@@ -16292,7 +16300,7 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -16317,7 +16325,7 @@
         <v>2</v>
       </c>
       <c r="N242" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O242" t="inlineStr"/>
       <c r="P242" t="n">
@@ -16359,7 +16367,7 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>['Portugal', 'Hungary', 'France']</t>
+          <t>['France', 'Portugal', 'Hungary']</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
@@ -16384,7 +16392,7 @@
         <v>1</v>
       </c>
       <c r="N243" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="O243" t="inlineStr">
         <is>
@@ -16430,7 +16438,7 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>['Portugal', 'Germany', 'France']</t>
+          <t>['France', 'Germany', 'Portugal']</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
@@ -16455,7 +16463,7 @@
         <v>2</v>
       </c>
       <c r="N244" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O244" t="inlineStr"/>
       <c r="P244" t="n">
@@ -16485,7 +16493,7 @@
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -16548,7 +16556,7 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -16577,14 +16585,14 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="P246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -16619,7 +16627,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>['Switzerland', 'Germany', 'Scotland']</t>
+          <t>['Germany', 'Scotland', 'Switzerland']</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -16644,18 +16652,18 @@
         <v>1</v>
       </c>
       <c r="N247" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="P247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -16690,7 +16698,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>['Hungary', 'Switzerland', 'Germany']</t>
+          <t>['Germany', 'Hungary', 'Switzerland']</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -16715,7 +16723,7 @@
         <v>2</v>
       </c>
       <c r="N248" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O248" t="inlineStr"/>
       <c r="P248" t="n">
@@ -16745,7 +16753,7 @@
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr">
         <is>
-          <t>['Spain', 'Albania', 'Italy']</t>
+          <t>['Spain', 'Italy', 'Albania']</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -16904,7 +16912,7 @@
         <v>2</v>
       </c>
       <c r="N251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O251" t="inlineStr"/>
       <c r="P251" t="n">
@@ -16971,7 +16979,7 @@
         <v>1</v>
       </c>
       <c r="N252" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="O252" t="inlineStr">
         <is>
@@ -17005,7 +17013,7 @@
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -17068,7 +17076,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -17097,14 +17105,14 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="P254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -17139,7 +17147,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Denmark', 'Slovenia', 'England']</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -17164,18 +17172,18 @@
         <v>1</v>
       </c>
       <c r="N255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="P255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -17210,7 +17218,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -17235,7 +17243,7 @@
         <v>2</v>
       </c>
       <c r="N256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="n">
@@ -17277,7 +17285,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>['Slovenia', 'Denmark', 'England']</t>
+          <t>['Slovenia', 'England', 'Denmark']</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -17302,18 +17310,18 @@
         <v>1</v>
       </c>
       <c r="N257" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -17336,7 +17344,7 @@
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -17399,7 +17407,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -17466,7 +17474,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -17533,7 +17541,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -17600,7 +17608,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -17667,7 +17675,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -17734,7 +17742,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Austria', 'France', 'Netherlands']</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -17801,7 +17809,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>['Netherlands', 'Austria', 'France']</t>
+          <t>['Netherlands', 'France', 'Austria']</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -17856,7 +17864,7 @@
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Belgium', 'Romania']</t>
+          <t>['Romania', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -17919,7 +17927,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>['Ukraine', 'Belgium', 'Slovakia']</t>
+          <t>['Slovakia', 'Belgium', 'Ukraine']</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -17990,7 +17998,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>['Belgium', 'Slovakia', 'Romania']</t>
+          <t>['Slovakia', 'Romania', 'Belgium']</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -18045,7 +18053,7 @@
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr">
         <is>
-          <t>['Portugal', 'Czech Republic', 'Turkey']</t>
+          <t>['Portugal', 'Turkey', 'Czech Republic']</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -18108,7 +18116,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -18175,7 +18183,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -18242,7 +18250,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -18309,7 +18317,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -18376,7 +18384,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>['Portugal', 'Turkey', 'Georgia']</t>
+          <t>['Georgia', 'Portugal', 'Turkey']</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">

--- a/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
+++ b/data/out/wiki/men/uefa/eu/standings_eu_uefa_men.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="139">
   <si>
     <t>year</t>
   </si>
@@ -205,22 +205,22 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>['Denmark', 'France']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'France']</t>
-  </si>
-  <si>
-    <t>['West Germany', 'Spain']</t>
-  </si>
-  <si>
-    <t>['West Germany', 'Portugal']</t>
+    <t>['France', 'Denmark']</t>
+  </si>
+  <si>
+    <t>['France', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Spain', 'West Germany']</t>
+  </si>
+  <si>
+    <t>['Portugal', 'West Germany']</t>
   </si>
   <si>
     <t>['Spain', 'Portugal']</t>
   </si>
   <si>
-    <t>['West Germany', 'Italy']</t>
+    <t>['Italy', 'West Germany']</t>
   </si>
   <si>
     <t>['Soviet Union', 'Republic of Ireland']</t>
@@ -229,34 +229,34 @@
     <t>['Netherlands', 'Soviet Union']</t>
   </si>
   <si>
-    <t>['Sweden', 'France']</t>
+    <t>['France', 'Sweden']</t>
+  </si>
+  <si>
+    <t>['Sweden', 'England']</t>
   </si>
   <si>
     <t>['England', 'Sweden']</t>
   </si>
   <si>
-    <t>['Sweden', 'Denmark']</t>
+    <t>['Denmark', 'Sweden']</t>
   </si>
   <si>
     <t>['Netherlands', 'Germany']</t>
   </si>
   <si>
-    <t>['Germany', 'Netherlands']</t>
-  </si>
-  <si>
     <t>['Netherlands', 'England']</t>
   </si>
   <si>
     <t>['England', 'Scotland']</t>
   </si>
   <si>
-    <t>['Bulgaria', 'France']</t>
-  </si>
-  <si>
-    <t>['Bulgaria', 'Spain']</t>
-  </si>
-  <si>
-    <t>['Spain', 'France']</t>
+    <t>['France', 'Bulgaria']</t>
+  </si>
+  <si>
+    <t>['Spain', 'Bulgaria']</t>
+  </si>
+  <si>
+    <t>['France', 'Spain']</t>
   </si>
   <si>
     <t>['Germany', 'Czech Republic']</t>
@@ -265,13 +265,13 @@
     <t>['Germany', 'Italy']</t>
   </si>
   <si>
-    <t>['Croatia', 'Portugal']</t>
+    <t>['Portugal', 'Croatia']</t>
   </si>
   <si>
     <t>['England', 'Portugal']</t>
   </si>
   <si>
-    <t>['Portugal', 'Romania']</t>
+    <t>['Romania', 'Portugal']</t>
   </si>
   <si>
     <t>['Belgium', 'Italy']</t>
@@ -280,10 +280,10 @@
     <t>['Turkey', 'Italy']</t>
   </si>
   <si>
-    <t>['FR Yugoslavia', 'Norway']</t>
-  </si>
-  <si>
-    <t>['FR Yugoslavia', 'Spain']</t>
+    <t>['Norway', 'FR Yugoslavia']</t>
+  </si>
+  <si>
+    <t>['Spain', 'FR Yugoslavia']</t>
   </si>
   <si>
     <t>['Netherlands', 'France']</t>
@@ -292,13 +292,13 @@
     <t>['Spain', 'Greece']</t>
   </si>
   <si>
-    <t>['Portugal', 'Greece']</t>
-  </si>
-  <si>
-    <t>['England', 'France']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'France']</t>
+    <t>['Greece', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['France', 'England']</t>
+  </si>
+  <si>
+    <t>['France', 'Croatia']</t>
   </si>
   <si>
     <t>['Netherlands', 'Czech Republic']</t>
@@ -322,7 +322,7 @@
     <t>['Spain', 'Sweden']</t>
   </si>
   <si>
-    <t>['Russia', 'Spain']</t>
+    <t>['Spain', 'Russia']</t>
   </si>
   <si>
     <t>['Russia', 'Czech Republic']</t>
@@ -340,112 +340,97 @@
     <t>['Spain', 'Italy']</t>
   </si>
   <si>
-    <t>['Switzerland', 'Romania', 'France']</t>
+    <t>['Romania', 'Switzerland', 'France']</t>
   </si>
   <si>
     <t>['Switzerland', 'France', 'Albania']</t>
   </si>
   <si>
-    <t>['Wales', 'England', 'Slovakia']</t>
-  </si>
-  <si>
-    <t>['Northern Ireland', 'Germany', 'Poland']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Croatia', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Croatia', 'Turkey']</t>
-  </si>
-  <si>
-    <t>['Croatia', 'Turkey', 'Spain']</t>
+    <t>['Wales', 'Slovakia', 'England']</t>
+  </si>
+  <si>
+    <t>['Poland', 'Germany', 'Northern Ireland']</t>
+  </si>
+  <si>
+    <t>['Spain', 'Czech Republic', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Turkey', 'Spain', 'Croatia']</t>
   </si>
   <si>
     <t>['Belgium', 'Sweden', 'Italy']</t>
   </si>
   <si>
-    <t>['Belgium', 'Italy', 'Republic of Ireland']</t>
-  </si>
-  <si>
-    <t>['Hungary', 'Portugal', 'Iceland']</t>
+    <t>['Belgium', 'Republic of Ireland', 'Italy']</t>
+  </si>
+  <si>
+    <t>['Iceland', 'Portugal', 'Hungary']</t>
   </si>
   <si>
     <t>['Wales', 'Switzerland', 'Italy']</t>
   </si>
   <si>
-    <t>['Russia', 'Belgium', 'Finland']</t>
-  </si>
-  <si>
-    <t>['Finland', 'Belgium', 'Denmark']</t>
-  </si>
-  <si>
-    <t>['Netherlands', 'Ukraine', 'Austria']</t>
-  </si>
-  <si>
-    <t>['Czech Republic', 'England', 'Croatia']</t>
+    <t>['Finland', 'Russia', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Denmark', 'Finland', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Netherlands', 'Austria', 'Ukraine']</t>
   </si>
   <si>
     <t>['England', 'Czech Republic', 'Croatia']</t>
   </si>
   <si>
-    <t>['England', 'Croatia', 'Czech Republic']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Spain', 'Sweden']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Portugal', 'France']</t>
-  </si>
-  <si>
-    <t>['Hungary', 'Portugal', 'France']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Scotland', 'Switzerland']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Switzerland', 'Scotland']</t>
-  </si>
-  <si>
-    <t>['Germany', 'Hungary', 'Switzerland']</t>
-  </si>
-  <si>
-    <t>['Spain', 'Italy', 'Albania']</t>
+    <t>['Spain', 'Slovakia', 'Sweden']</t>
+  </si>
+  <si>
+    <t>['Germany', 'France', 'Portugal']</t>
+  </si>
+  <si>
+    <t>['France', 'Portugal', 'Hungary']</t>
+  </si>
+  <si>
+    <t>['Switzerland', 'Germany', 'Scotland']</t>
+  </si>
+  <si>
+    <t>['Switzerland', 'Germany', 'Hungary']</t>
+  </si>
+  <si>
+    <t>['Spain', 'Albania', 'Italy']</t>
   </si>
   <si>
     <t>['Spain', 'Croatia', 'Italy']</t>
   </si>
   <si>
-    <t>['England', 'Denmark', 'Slovenia']</t>
-  </si>
-  <si>
-    <t>['Slovenia', 'England', 'Denmark']</t>
+    <t>['Spain', 'Italy', 'Croatia']</t>
+  </si>
+  <si>
+    <t>['Slovenia', 'Denmark', 'England']</t>
   </si>
   <si>
     <t>['Netherlands', 'Austria', 'France']</t>
   </si>
   <si>
-    <t>['Netherlands', 'France', 'Austria']</t>
-  </si>
-  <si>
-    <t>['Belgium', 'Ukraine', 'Romania']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Belgium', 'Ukraine']</t>
-  </si>
-  <si>
-    <t>['Slovakia', 'Belgium', 'Romania']</t>
-  </si>
-  <si>
-    <t>['Turkey', 'Portugal', 'Czech Republic']</t>
+    <t>['Austria', 'Netherlands', 'France']</t>
+  </si>
+  <si>
+    <t>['Ukraine', 'Romania', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Ukraine', 'Slovakia', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Romania', 'Slovakia', 'Belgium']</t>
+  </si>
+  <si>
+    <t>['Czech Republic', 'Turkey', 'Portugal']</t>
   </si>
   <si>
     <t>['Turkey', 'Portugal', 'Georgia']</t>
   </si>
   <si>
     <t>Norway</t>
-  </si>
-  <si>
-    <t>tie</t>
   </si>
 </sst>
 </file>
@@ -1456,9 +1441,6 @@
       <c r="N15">
         <v>1</v>
       </c>
-      <c r="O15" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
@@ -2016,9 +1998,6 @@
       <c r="N28">
         <v>0</v>
       </c>
-      <c r="O28" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29">
@@ -2063,9 +2042,6 @@
       <c r="N29">
         <v>0</v>
       </c>
-      <c r="O29" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30">
@@ -2075,7 +2051,7 @@
         <v>15</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>51</v>
@@ -2096,22 +2072,19 @@
         <v>30</v>
       </c>
       <c r="J30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
         <v>23</v>
       </c>
-      <c r="K30" t="s">
-        <v>28</v>
-      </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30" t="s">
-        <v>143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2122,7 +2095,7 @@
         <v>15</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>60</v>
@@ -2156,9 +2129,6 @@
       </c>
       <c r="N31">
         <v>0</v>
-      </c>
-      <c r="O31" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2169,7 +2139,7 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>78</v>
@@ -2184,17 +2154,17 @@
         <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s">
         <v>30</v>
       </c>
       <c r="J32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" t="s">
         <v>28</v>
       </c>
-      <c r="K32" t="s">
-        <v>23</v>
-      </c>
       <c r="L32">
         <v>1</v>
       </c>
@@ -2202,13 +2172,10 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>1992</v>
       </c>
@@ -2216,7 +2183,7 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>82</v>
@@ -2231,7 +2198,7 @@
         <v>30</v>
       </c>
       <c r="H33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s">
         <v>30</v>
@@ -2240,10 +2207,10 @@
         <v>23</v>
       </c>
       <c r="K33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -2251,11 +2218,8 @@
       <c r="N33">
         <v>1</v>
       </c>
-      <c r="O33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>1992</v>
       </c>
@@ -2269,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I34" t="s">
         <v>40</v>
@@ -2290,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>1992</v>
       </c>
@@ -2333,11 +2297,8 @@
       <c r="N35">
         <v>1</v>
       </c>
-      <c r="O35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>1992</v>
       </c>
@@ -2378,13 +2339,10 @@
         <v>1</v>
       </c>
       <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>1992</v>
       </c>
@@ -2425,13 +2383,10 @@
         <v>1</v>
       </c>
       <c r="N37">
-        <v>-1</v>
-      </c>
-      <c r="O37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>1992</v>
       </c>
@@ -2463,7 +2418,7 @@
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -2472,13 +2427,10 @@
         <v>1</v>
       </c>
       <c r="N38">
-        <v>-1</v>
-      </c>
-      <c r="O38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>1992</v>
       </c>
@@ -2510,7 +2462,7 @@
         <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -2519,13 +2471,10 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <v>-1</v>
-      </c>
-      <c r="O39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>1992</v>
       </c>
@@ -2557,7 +2506,7 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -2566,13 +2515,10 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>-3</v>
-      </c>
-      <c r="O40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>1992</v>
       </c>
@@ -2604,7 +2550,7 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -2613,13 +2559,10 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>-3</v>
-      </c>
-      <c r="O41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>1996</v>
       </c>
@@ -2654,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>1996</v>
       </c>
@@ -2698,7 +2641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>1996</v>
       </c>
@@ -2742,7 +2685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>1996</v>
       </c>
@@ -2785,11 +2728,8 @@
       <c r="N45">
         <v>1</v>
       </c>
-      <c r="O45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>1996</v>
       </c>
@@ -2797,7 +2737,7 @@
         <v>17</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>57</v>
@@ -2812,31 +2752,28 @@
         <v>28</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s">
         <v>28</v>
       </c>
       <c r="J46" t="s">
+        <v>31</v>
+      </c>
+      <c r="K46" t="s">
         <v>32</v>
       </c>
-      <c r="K46" t="s">
-        <v>31</v>
-      </c>
       <c r="L46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>1996</v>
       </c>
@@ -2871,7 +2808,7 @@
         <v>31</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -2879,11 +2816,8 @@
       <c r="N47">
         <v>1</v>
       </c>
-      <c r="O47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>1996</v>
       </c>
@@ -2924,10 +2858,7 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3008,9 +2939,6 @@
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="O50" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51">
@@ -3055,9 +2983,6 @@
       <c r="N51">
         <v>1</v>
       </c>
-      <c r="O51" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52">
@@ -3100,10 +3025,7 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3149,9 +3071,6 @@
       <c r="N53">
         <v>-1</v>
       </c>
-      <c r="O53" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54">
@@ -3194,10 +3113,7 @@
         <v>1</v>
       </c>
       <c r="N54">
-        <v>-1</v>
-      </c>
-      <c r="O54" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3241,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3285,7 +3201,7 @@
         <v>1</v>
       </c>
       <c r="N56">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3366,6 +3282,9 @@
       <c r="N58">
         <v>0</v>
       </c>
+      <c r="O58" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59">
@@ -3408,7 +3327,10 @@
         <v>2</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -3452,7 +3374,10 @@
         <v>2</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>-2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -3496,10 +3421,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <v>-1</v>
-      </c>
-      <c r="O61" t="s">
-        <v>44</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -3543,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="N62">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -3587,10 +3509,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>-2</v>
-      </c>
-      <c r="O63" t="s">
-        <v>44</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -3970,9 +3889,6 @@
       <c r="N72">
         <v>1</v>
       </c>
-      <c r="O72" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73">
@@ -4015,10 +3931,7 @@
         <v>1</v>
       </c>
       <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4062,7 +3975,10 @@
         <v>2</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="O74" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4106,7 +4022,7 @@
         <v>5</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4150,7 +4066,10 @@
         <v>2</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4194,7 +4113,10 @@
         <v>2</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>-1</v>
+      </c>
+      <c r="O77" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4238,7 +4160,10 @@
         <v>2</v>
       </c>
       <c r="N78">
-        <v>3</v>
+        <v>-2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4282,10 +4207,7 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <v>-1</v>
-      </c>
-      <c r="O79" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4366,6 +4288,9 @@
       <c r="N81">
         <v>0</v>
       </c>
+      <c r="O81" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82">
@@ -4408,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4452,7 +4377,7 @@
         <v>1</v>
       </c>
       <c r="N83">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -4496,7 +4421,7 @@
         <v>1</v>
       </c>
       <c r="N84">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4540,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4563,7 +4488,7 @@
         <v>37</v>
       </c>
       <c r="J86" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K86" t="s">
         <v>38</v>
@@ -4607,7 +4532,7 @@
         <v>37</v>
       </c>
       <c r="J87" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K87" t="s">
         <v>38</v>
@@ -4620,9 +4545,6 @@
       </c>
       <c r="N87">
         <v>1</v>
-      </c>
-      <c r="O87" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -4654,7 +4576,7 @@
         <v>37</v>
       </c>
       <c r="J88" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K88" t="s">
         <v>38</v>
@@ -4666,10 +4588,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>-1</v>
-      </c>
-      <c r="O88" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4701,7 +4620,7 @@
         <v>37</v>
       </c>
       <c r="J89" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K89" t="s">
         <v>38</v>
@@ -4713,10 +4632,7 @@
         <v>1</v>
       </c>
       <c r="N89">
-        <v>-1</v>
-      </c>
-      <c r="O89" t="s">
-        <v>142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4748,7 +4664,7 @@
         <v>37</v>
       </c>
       <c r="J90" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K90" t="s">
         <v>38</v>
@@ -4760,10 +4676,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>-3</v>
-      </c>
-      <c r="O90" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4795,7 +4708,7 @@
         <v>37</v>
       </c>
       <c r="J91" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K91" t="s">
         <v>38</v>
@@ -4807,10 +4720,7 @@
         <v>1</v>
       </c>
       <c r="N91">
-        <v>-3</v>
-      </c>
-      <c r="O91" t="s">
-        <v>142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -4842,7 +4752,7 @@
         <v>37</v>
       </c>
       <c r="J92" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K92" t="s">
         <v>38</v>
@@ -4854,10 +4764,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <v>-5</v>
-      </c>
-      <c r="O92" t="s">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -4892,7 +4799,7 @@
         <v>37</v>
       </c>
       <c r="K93" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L93">
         <v>1</v>
@@ -4902,9 +4809,6 @@
       </c>
       <c r="N93">
         <v>0</v>
-      </c>
-      <c r="O93" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5030,7 +4934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:14">
       <c r="A97">
         <v>2000</v>
       </c>
@@ -5074,7 +4978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:14">
       <c r="A98">
         <v>2000</v>
       </c>
@@ -5118,7 +5022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:14">
       <c r="A99">
         <v>2000</v>
       </c>
@@ -5162,7 +5066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:14">
       <c r="A100">
         <v>2000</v>
       </c>
@@ -5206,7 +5110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:14">
       <c r="A101">
         <v>2000</v>
       </c>
@@ -5250,7 +5154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:14">
       <c r="A102">
         <v>2004</v>
       </c>
@@ -5285,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:14">
       <c r="A103">
         <v>2004</v>
       </c>
@@ -5328,11 +5232,8 @@
       <c r="N103">
         <v>-1</v>
       </c>
-      <c r="O103" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104">
         <v>2004</v>
       </c>
@@ -5373,13 +5274,10 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>-3</v>
-      </c>
-      <c r="O104" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105">
         <v>2004</v>
       </c>
@@ -5420,13 +5318,10 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>-3</v>
-      </c>
-      <c r="O105" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106">
         <v>2004</v>
       </c>
@@ -5469,11 +5364,8 @@
       <c r="N106">
         <v>0</v>
       </c>
-      <c r="O106" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>2004</v>
       </c>
@@ -5508,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:14">
       <c r="A108">
         <v>2004</v>
       </c>
@@ -5552,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:14">
       <c r="A109">
         <v>2004</v>
       </c>
@@ -5596,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:14">
       <c r="A110">
         <v>2004</v>
       </c>
@@ -5640,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:14">
       <c r="A111">
         <v>2004</v>
       </c>
@@ -5684,7 +5576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>2004</v>
       </c>
@@ -5728,7 +5620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:14">
       <c r="A113">
         <v>2004</v>
       </c>
@@ -5772,7 +5664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:14">
       <c r="A114">
         <v>2004</v>
       </c>
@@ -5816,7 +5708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:14">
       <c r="A115">
         <v>2004</v>
       </c>
@@ -5860,7 +5752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:14">
       <c r="A116">
         <v>2004</v>
       </c>
@@ -5904,7 +5796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>2004</v>
       </c>
@@ -5948,7 +5840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:14">
       <c r="A118">
         <v>2004</v>
       </c>
@@ -5962,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I118" t="s">
         <v>30</v>
@@ -5983,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:14">
       <c r="A119">
         <v>2004</v>
       </c>
@@ -6006,7 +5898,7 @@
         <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I119" t="s">
         <v>23</v>
@@ -6027,7 +5919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>2004</v>
       </c>
@@ -6050,7 +5942,7 @@
         <v>59</v>
       </c>
       <c r="H120" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I120" t="s">
         <v>23</v>
@@ -6071,7 +5963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:14">
       <c r="A121">
         <v>2004</v>
       </c>
@@ -6094,7 +5986,7 @@
         <v>30</v>
       </c>
       <c r="H121" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I121" t="s">
         <v>30</v>
@@ -6115,7 +6007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:14">
       <c r="A122">
         <v>2004</v>
       </c>
@@ -6138,7 +6030,7 @@
         <v>27</v>
       </c>
       <c r="H122" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I122" t="s">
         <v>30</v>
@@ -6159,7 +6051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:14">
       <c r="A123">
         <v>2004</v>
       </c>
@@ -6182,7 +6074,7 @@
         <v>23</v>
       </c>
       <c r="H123" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I123" t="s">
         <v>23</v>
@@ -6203,7 +6095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:14">
       <c r="A124">
         <v>2004</v>
       </c>
@@ -6226,7 +6118,7 @@
         <v>30</v>
       </c>
       <c r="H124" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I124" t="s">
         <v>30</v>
@@ -6247,7 +6139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:14">
       <c r="A125">
         <v>2004</v>
       </c>
@@ -6270,7 +6162,7 @@
         <v>27</v>
       </c>
       <c r="H125" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I125" t="s">
         <v>30</v>
@@ -6290,11 +6182,8 @@
       <c r="N125">
         <v>1</v>
       </c>
-      <c r="O125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126">
         <v>2004</v>
       </c>
@@ -6329,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:14">
       <c r="A127">
         <v>2004</v>
       </c>
@@ -6373,7 +6262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:14">
       <c r="A128">
         <v>2004</v>
       </c>
@@ -6416,11 +6305,8 @@
       <c r="N128">
         <v>1</v>
       </c>
-      <c r="O128" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129">
         <v>2004</v>
       </c>
@@ -6461,13 +6347,10 @@
         <v>1</v>
       </c>
       <c r="N129">
-        <v>1</v>
-      </c>
-      <c r="O129" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130">
         <v>2004</v>
       </c>
@@ -6510,11 +6393,8 @@
       <c r="N130">
         <v>1</v>
       </c>
-      <c r="O130" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131">
         <v>2004</v>
       </c>
@@ -6555,10 +6435,10 @@
         <v>2</v>
       </c>
       <c r="N131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132">
         <v>2004</v>
       </c>
@@ -6599,10 +6479,10 @@
         <v>2</v>
       </c>
       <c r="N132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133">
         <v>2008</v>
       </c>
@@ -6637,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:14">
       <c r="A134">
         <v>2008</v>
       </c>
@@ -6681,7 +6561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:14">
       <c r="A135">
         <v>2008</v>
       </c>
@@ -6725,7 +6605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:14">
       <c r="A136">
         <v>2008</v>
       </c>
@@ -6769,7 +6649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:14">
       <c r="A137">
         <v>2008</v>
       </c>
@@ -6813,7 +6693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:14">
       <c r="A138">
         <v>2008</v>
       </c>
@@ -6857,7 +6737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:14">
       <c r="A139">
         <v>2008</v>
       </c>
@@ -6900,11 +6780,8 @@
       <c r="N139">
         <v>0</v>
       </c>
-      <c r="O139" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140">
         <v>2008</v>
       </c>
@@ -6945,10 +6822,10 @@
         <v>3</v>
       </c>
       <c r="N140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141">
         <v>2008</v>
       </c>
@@ -6983,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:14">
       <c r="A142">
         <v>2008</v>
       </c>
@@ -7027,7 +6904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:14">
       <c r="A143">
         <v>2008</v>
       </c>
@@ -7071,7 +6948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:14">
       <c r="A144">
         <v>2008</v>
       </c>
@@ -7106,7 +6983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:14">
       <c r="A145">
         <v>2008</v>
       </c>
@@ -7149,11 +7026,8 @@
       <c r="N145">
         <v>-2</v>
       </c>
-      <c r="O145" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146">
         <v>2008</v>
       </c>
@@ -7194,10 +7068,10 @@
         <v>2</v>
       </c>
       <c r="N146">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147">
         <v>2008</v>
       </c>
@@ -7238,10 +7112,10 @@
         <v>2</v>
       </c>
       <c r="N147">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148">
         <v>2008</v>
       </c>
@@ -7282,10 +7156,10 @@
         <v>2</v>
       </c>
       <c r="N148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149">
         <v>2008</v>
       </c>
@@ -7320,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:14">
       <c r="A150">
         <v>2008</v>
       </c>
@@ -7364,7 +7238,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:14">
       <c r="A151">
         <v>2008</v>
       </c>
@@ -7408,7 +7282,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:14">
       <c r="A152">
         <v>2008</v>
       </c>
@@ -7452,7 +7326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:14">
       <c r="A153">
         <v>2008</v>
       </c>
@@ -7496,7 +7370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:14">
       <c r="A154">
         <v>2008</v>
       </c>
@@ -7540,7 +7414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:14">
       <c r="A155">
         <v>2012</v>
       </c>
@@ -7575,7 +7449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:14">
       <c r="A156">
         <v>2012</v>
       </c>
@@ -7618,11 +7492,8 @@
       <c r="N156">
         <v>-2</v>
       </c>
-      <c r="O156" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157">
         <v>2012</v>
       </c>
@@ -7663,13 +7534,10 @@
         <v>0</v>
       </c>
       <c r="N157">
-        <v>1</v>
-      </c>
-      <c r="O157" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158">
         <v>2012</v>
       </c>
@@ -7704,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:14">
       <c r="A159">
         <v>2012</v>
       </c>
@@ -7747,11 +7615,8 @@
       <c r="N159">
         <v>1</v>
       </c>
-      <c r="O159" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160">
         <v>2012</v>
       </c>
@@ -7792,10 +7657,7 @@
         <v>0</v>
       </c>
       <c r="N160">
-        <v>1</v>
-      </c>
-      <c r="O160" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:15">
@@ -7841,9 +7703,6 @@
       <c r="N161">
         <v>1</v>
       </c>
-      <c r="O161" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="162" spans="1:15">
       <c r="A162">
@@ -7886,10 +7745,7 @@
         <v>0</v>
       </c>
       <c r="N162">
-        <v>1</v>
-      </c>
-      <c r="O162" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:15">
@@ -7935,6 +7791,9 @@
       <c r="N163">
         <v>1</v>
       </c>
+      <c r="O163" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="164" spans="1:15">
       <c r="A164">
@@ -7977,7 +7836,7 @@
         <v>3</v>
       </c>
       <c r="N164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:15">
@@ -8058,9 +7917,6 @@
       <c r="N166">
         <v>1</v>
       </c>
-      <c r="O166" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="167" spans="1:15">
       <c r="A167">
@@ -8103,10 +7959,7 @@
         <v>1</v>
       </c>
       <c r="N167">
-        <v>1</v>
-      </c>
-      <c r="O167" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:15">
@@ -8152,9 +8005,6 @@
       <c r="N168">
         <v>1</v>
       </c>
-      <c r="O168" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="169" spans="1:15">
       <c r="A169">
@@ -8481,7 +8331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:14">
       <c r="A177">
         <v>2016</v>
       </c>
@@ -8525,7 +8375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:14">
       <c r="A178">
         <v>2016</v>
       </c>
@@ -8569,7 +8419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:14">
       <c r="A179">
         <v>2016</v>
       </c>
@@ -8604,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:14">
       <c r="A180">
         <v>2016</v>
       </c>
@@ -8648,7 +8498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:14">
       <c r="A181">
         <v>2016</v>
       </c>
@@ -8692,7 +8542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:14">
       <c r="A182">
         <v>2016</v>
       </c>
@@ -8727,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:14">
       <c r="A183">
         <v>2016</v>
       </c>
@@ -8771,7 +8621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:14">
       <c r="A184">
         <v>2016</v>
       </c>
@@ -8815,7 +8665,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:14">
       <c r="A185">
         <v>2016</v>
       </c>
@@ -8859,7 +8709,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:14">
       <c r="A186">
         <v>2016</v>
       </c>
@@ -8903,7 +8753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:14">
       <c r="A187">
         <v>2016</v>
       </c>
@@ -8926,7 +8776,7 @@
         <v>35</v>
       </c>
       <c r="H187" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I187" t="s">
         <v>35</v>
@@ -8947,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:14">
       <c r="A188">
         <v>2016</v>
       </c>
@@ -8961,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I188" t="s">
         <v>27</v>
@@ -8982,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:14">
       <c r="A189">
         <v>2016</v>
       </c>
@@ -9005,7 +8855,7 @@
         <v>55</v>
       </c>
       <c r="H189" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I189" t="s">
         <v>27</v>
@@ -9025,11 +8875,8 @@
       <c r="N189">
         <v>-1</v>
       </c>
-      <c r="O189" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15">
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190">
         <v>2016</v>
       </c>
@@ -9052,7 +8899,7 @@
         <v>29</v>
       </c>
       <c r="H190" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I190" t="s">
         <v>27</v>
@@ -9070,10 +8917,10 @@
         <v>3</v>
       </c>
       <c r="N190">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191">
         <v>2016</v>
       </c>
@@ -9087,7 +8934,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I191" t="s">
         <v>48</v>
@@ -9108,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:14">
       <c r="A192">
         <v>2016</v>
       </c>
@@ -9131,7 +8978,7 @@
         <v>47</v>
       </c>
       <c r="H192" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I192" t="s">
         <v>48</v>
@@ -9152,7 +8999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:14">
       <c r="A193">
         <v>2016</v>
       </c>
@@ -9175,7 +9022,7 @@
         <v>48</v>
       </c>
       <c r="H193" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I193" t="s">
         <v>48</v>
@@ -9196,7 +9043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:14">
       <c r="A194">
         <v>2016</v>
       </c>
@@ -9219,7 +9066,7 @@
         <v>25</v>
       </c>
       <c r="H194" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I194" t="s">
         <v>48</v>
@@ -9240,7 +9087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:14">
       <c r="A195">
         <v>2016</v>
       </c>
@@ -9263,7 +9110,7 @@
         <v>48</v>
       </c>
       <c r="H195" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I195" t="s">
         <v>48</v>
@@ -9284,7 +9131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:14">
       <c r="A196">
         <v>2016</v>
       </c>
@@ -9307,7 +9154,7 @@
         <v>25</v>
       </c>
       <c r="H196" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I196" t="s">
         <v>48</v>
@@ -9328,7 +9175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:14">
       <c r="A197">
         <v>2016</v>
       </c>
@@ -9351,7 +9198,7 @@
         <v>48</v>
       </c>
       <c r="H197" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I197" t="s">
         <v>48</v>
@@ -9372,7 +9219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:14">
       <c r="A198">
         <v>2016</v>
       </c>
@@ -9395,7 +9242,7 @@
         <v>41</v>
       </c>
       <c r="H198" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I198" t="s">
         <v>48</v>
@@ -9415,11 +9262,8 @@
       <c r="N198">
         <v>1</v>
       </c>
-      <c r="O198" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15">
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199">
         <v>2016</v>
       </c>
@@ -9442,7 +9286,7 @@
         <v>25</v>
       </c>
       <c r="H199" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I199" t="s">
         <v>48</v>
@@ -9460,13 +9304,10 @@
         <v>1</v>
       </c>
       <c r="N199">
-        <v>1</v>
-      </c>
-      <c r="O199" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200">
         <v>2016</v>
       </c>
@@ -9489,7 +9330,7 @@
         <v>47</v>
       </c>
       <c r="H200" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I200" t="s">
         <v>48</v>
@@ -9507,10 +9348,10 @@
         <v>2</v>
       </c>
       <c r="N200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -9524,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I201" t="s">
         <v>27</v>
@@ -9545,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:14">
       <c r="A202">
         <v>2021</v>
       </c>
@@ -9568,7 +9409,7 @@
         <v>39</v>
       </c>
       <c r="H202" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I202" t="s">
         <v>27</v>
@@ -9589,7 +9430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:14">
       <c r="A203">
         <v>2021</v>
       </c>
@@ -9612,7 +9453,7 @@
         <v>39</v>
       </c>
       <c r="H203" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I203" t="s">
         <v>27</v>
@@ -9633,7 +9474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:14">
       <c r="A204">
         <v>2021</v>
       </c>
@@ -9656,7 +9497,7 @@
         <v>27</v>
       </c>
       <c r="H204" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I204" t="s">
         <v>27</v>
@@ -9677,7 +9518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:14">
       <c r="A205">
         <v>2021</v>
       </c>
@@ -9700,7 +9541,7 @@
         <v>36</v>
       </c>
       <c r="H205" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I205" t="s">
         <v>27</v>
@@ -9721,7 +9562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:14">
       <c r="A206">
         <v>2021</v>
       </c>
@@ -9744,7 +9585,7 @@
         <v>39</v>
       </c>
       <c r="H206" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I206" t="s">
         <v>27</v>
@@ -9765,7 +9606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:14">
       <c r="A207">
         <v>2021</v>
       </c>
@@ -9779,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I207" t="s">
         <v>55</v>
@@ -9800,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:14">
       <c r="A208">
         <v>2021</v>
       </c>
@@ -9823,7 +9664,7 @@
         <v>23</v>
       </c>
       <c r="H208" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I208" t="s">
         <v>55</v>
@@ -9844,7 +9685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:14">
       <c r="A209">
         <v>2021</v>
       </c>
@@ -9867,7 +9708,7 @@
         <v>23</v>
       </c>
       <c r="H209" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I209" t="s">
         <v>55</v>
@@ -9888,7 +9729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:14">
       <c r="A210">
         <v>2021</v>
       </c>
@@ -9911,7 +9752,7 @@
         <v>34</v>
       </c>
       <c r="H210" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I210" t="s">
         <v>55</v>
@@ -9932,7 +9773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:14">
       <c r="A211">
         <v>2021</v>
       </c>
@@ -9955,7 +9796,7 @@
         <v>55</v>
       </c>
       <c r="H211" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I211" t="s">
         <v>55</v>
@@ -9976,7 +9817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:14">
       <c r="A212">
         <v>2021</v>
       </c>
@@ -9999,7 +9840,7 @@
         <v>23</v>
       </c>
       <c r="H212" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I212" t="s">
         <v>55</v>
@@ -10020,7 +9861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:14">
       <c r="A213">
         <v>2021</v>
       </c>
@@ -10043,7 +9884,7 @@
         <v>55</v>
       </c>
       <c r="H213" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I213" t="s">
         <v>55</v>
@@ -10064,7 +9905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:14">
       <c r="A214">
         <v>2021</v>
       </c>
@@ -10087,7 +9928,7 @@
         <v>23</v>
       </c>
       <c r="H214" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I214" t="s">
         <v>55</v>
@@ -10108,7 +9949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:14">
       <c r="A215">
         <v>2021</v>
       </c>
@@ -10122,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I215" t="s">
         <v>31</v>
@@ -10143,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:14">
       <c r="A216">
         <v>2021</v>
       </c>
@@ -10166,7 +10007,7 @@
         <v>41</v>
       </c>
       <c r="H216" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I216" t="s">
         <v>31</v>
@@ -10187,7 +10028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:14">
       <c r="A217">
         <v>2021</v>
       </c>
@@ -10210,7 +10051,7 @@
         <v>31</v>
       </c>
       <c r="H217" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I217" t="s">
         <v>31</v>
@@ -10231,7 +10072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:14">
       <c r="A218">
         <v>2021</v>
       </c>
@@ -10254,7 +10095,7 @@
         <v>31</v>
       </c>
       <c r="H218" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I218" t="s">
         <v>31</v>
@@ -10275,7 +10116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:14">
       <c r="A219">
         <v>2021</v>
       </c>
@@ -10298,7 +10139,7 @@
         <v>31</v>
       </c>
       <c r="H219" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I219" t="s">
         <v>31</v>
@@ -10319,7 +10160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:14">
       <c r="A220">
         <v>2021</v>
       </c>
@@ -10333,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I220" t="s">
         <v>44</v>
@@ -10354,7 +10195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:14">
       <c r="A221">
         <v>2021</v>
       </c>
@@ -10377,7 +10218,7 @@
         <v>28</v>
       </c>
       <c r="H221" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I221" t="s">
         <v>28</v>
@@ -10397,11 +10238,8 @@
       <c r="N221">
         <v>1</v>
       </c>
-      <c r="O221" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15">
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222">
         <v>2021</v>
       </c>
@@ -10424,7 +10262,7 @@
         <v>35</v>
       </c>
       <c r="H222" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I222" t="s">
         <v>28</v>
@@ -10442,10 +10280,10 @@
         <v>3</v>
       </c>
       <c r="N222">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223">
         <v>2021</v>
       </c>
@@ -10468,7 +10306,7 @@
         <v>32</v>
       </c>
       <c r="H223" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I223" t="s">
         <v>28</v>
@@ -10486,13 +10324,10 @@
         <v>0</v>
       </c>
       <c r="N223">
-        <v>0</v>
-      </c>
-      <c r="O223" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224">
         <v>2021</v>
       </c>
@@ -10515,7 +10350,7 @@
         <v>35</v>
       </c>
       <c r="H224" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I224" t="s">
         <v>28</v>
@@ -10533,10 +10368,10 @@
         <v>3</v>
       </c>
       <c r="N224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225">
         <v>2021</v>
       </c>
@@ -10559,7 +10394,7 @@
         <v>35</v>
       </c>
       <c r="H225" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I225" t="s">
         <v>28</v>
@@ -10577,10 +10412,10 @@
         <v>3</v>
       </c>
       <c r="N225">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226">
         <v>2021</v>
       </c>
@@ -10594,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I226" t="s">
         <v>30</v>
@@ -10615,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:14">
       <c r="A227">
         <v>2021</v>
       </c>
@@ -10638,7 +10473,7 @@
         <v>30</v>
       </c>
       <c r="H227" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I227" t="s">
         <v>30</v>
@@ -10659,7 +10494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:14">
       <c r="A228">
         <v>2021</v>
       </c>
@@ -10682,7 +10517,7 @@
         <v>38</v>
       </c>
       <c r="H228" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I228" t="s">
         <v>30</v>
@@ -10703,7 +10538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:14">
       <c r="A229">
         <v>2021</v>
       </c>
@@ -10726,7 +10561,7 @@
         <v>38</v>
       </c>
       <c r="H229" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I229" t="s">
         <v>30</v>
@@ -10747,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:14">
       <c r="A230">
         <v>2021</v>
       </c>
@@ -10770,7 +10605,7 @@
         <v>38</v>
       </c>
       <c r="H230" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I230" t="s">
         <v>30</v>
@@ -10791,7 +10626,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:14">
       <c r="A231">
         <v>2021</v>
       </c>
@@ -10814,7 +10649,7 @@
         <v>30</v>
       </c>
       <c r="H231" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I231" t="s">
         <v>30</v>
@@ -10835,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:14">
       <c r="A232">
         <v>2021</v>
       </c>
@@ -10858,7 +10693,7 @@
         <v>42</v>
       </c>
       <c r="H232" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I232" t="s">
         <v>30</v>
@@ -10879,7 +10714,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:14">
       <c r="A233">
         <v>2021</v>
       </c>
@@ -10902,7 +10737,7 @@
         <v>38</v>
       </c>
       <c r="H233" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I233" t="s">
         <v>30</v>
@@ -10923,7 +10758,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:14">
       <c r="A234">
         <v>2021</v>
       </c>
@@ -10946,7 +10781,7 @@
         <v>38</v>
       </c>
       <c r="H234" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I234" t="s">
         <v>30</v>
@@ -10967,7 +10802,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:14">
       <c r="A235">
         <v>2021</v>
       </c>
@@ -10990,7 +10825,7 @@
         <v>42</v>
       </c>
       <c r="H235" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I235" t="s">
         <v>38</v>
@@ -11010,11 +10845,8 @@
       <c r="N235">
         <v>-4</v>
       </c>
-      <c r="O235" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15">
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236">
         <v>2021</v>
       </c>
@@ -11037,7 +10869,7 @@
         <v>30</v>
       </c>
       <c r="H236" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I236" t="s">
         <v>30</v>
@@ -11055,10 +10887,10 @@
         <v>2</v>
       </c>
       <c r="N236">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237">
         <v>2021</v>
       </c>
@@ -11072,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="H237" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I237" t="s">
         <v>24</v>
@@ -11093,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:14">
       <c r="A238">
         <v>2021</v>
       </c>
@@ -11116,7 +10948,7 @@
         <v>48</v>
       </c>
       <c r="H238" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I238" t="s">
         <v>24</v>
@@ -11136,11 +10968,8 @@
       <c r="N238">
         <v>-2</v>
       </c>
-      <c r="O238" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15">
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239">
         <v>2021</v>
       </c>
@@ -11163,7 +10992,7 @@
         <v>25</v>
       </c>
       <c r="H239" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I239" t="s">
         <v>25</v>
@@ -11181,13 +11010,10 @@
         <v>1</v>
       </c>
       <c r="N239">
-        <v>-3</v>
-      </c>
-      <c r="O239" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240">
         <v>2021</v>
       </c>
@@ -11210,7 +11036,7 @@
         <v>24</v>
       </c>
       <c r="H240" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I240" t="s">
         <v>24</v>
@@ -11228,13 +11054,10 @@
         <v>1</v>
       </c>
       <c r="N240">
-        <v>-4</v>
-      </c>
-      <c r="O240" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241">
         <v>2021</v>
       </c>
@@ -11257,7 +11080,7 @@
         <v>25</v>
       </c>
       <c r="H241" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I241" t="s">
         <v>25</v>
@@ -11275,13 +11098,10 @@
         <v>1</v>
       </c>
       <c r="N241">
-        <v>-5</v>
-      </c>
-      <c r="O241" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242">
         <v>2021</v>
       </c>
@@ -11304,7 +11124,7 @@
         <v>40</v>
       </c>
       <c r="H242" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I242" t="s">
         <v>25</v>
@@ -11322,10 +11142,10 @@
         <v>2</v>
       </c>
       <c r="N242">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243">
         <v>2021</v>
       </c>
@@ -11348,7 +11168,7 @@
         <v>48</v>
       </c>
       <c r="H243" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I243" t="s">
         <v>25</v>
@@ -11366,13 +11186,10 @@
         <v>1</v>
       </c>
       <c r="N243">
-        <v>-6</v>
-      </c>
-      <c r="O243" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244">
         <v>2021</v>
       </c>
@@ -11395,7 +11212,7 @@
         <v>40</v>
       </c>
       <c r="H244" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I244" t="s">
         <v>25</v>
@@ -11413,10 +11230,10 @@
         <v>2</v>
       </c>
       <c r="N244">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245">
         <v>2024</v>
       </c>
@@ -11430,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I245" t="s">
         <v>40</v>
@@ -11451,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:14">
       <c r="A246">
         <v>2024</v>
       </c>
@@ -11474,7 +11291,7 @@
         <v>39</v>
       </c>
       <c r="H246" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I246" t="s">
         <v>39</v>
@@ -11494,11 +11311,8 @@
       <c r="N246">
         <v>0</v>
       </c>
-      <c r="O246" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15">
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247">
         <v>2024</v>
       </c>
@@ -11521,7 +11335,7 @@
         <v>40</v>
       </c>
       <c r="H247" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I247" t="s">
         <v>40</v>
@@ -11539,13 +11353,10 @@
         <v>1</v>
       </c>
       <c r="N247">
-        <v>-1</v>
-      </c>
-      <c r="O247" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248">
         <v>2024</v>
       </c>
@@ -11568,7 +11379,7 @@
         <v>48</v>
       </c>
       <c r="H248" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I248" t="s">
         <v>40</v>
@@ -11586,10 +11397,10 @@
         <v>2</v>
       </c>
       <c r="N248">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249">
         <v>2024</v>
       </c>
@@ -11603,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I249" t="s">
         <v>38</v>
@@ -11624,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:14">
       <c r="A250">
         <v>2024</v>
       </c>
@@ -11647,7 +11458,7 @@
         <v>38</v>
       </c>
       <c r="H250" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I250" t="s">
         <v>38</v>
@@ -11667,11 +11478,8 @@
       <c r="N250">
         <v>-1</v>
       </c>
-      <c r="O250" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15">
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251">
         <v>2024</v>
       </c>
@@ -11694,7 +11502,7 @@
         <v>35</v>
       </c>
       <c r="H251" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I251" t="s">
         <v>38</v>
@@ -11712,10 +11520,10 @@
         <v>2</v>
       </c>
       <c r="N251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252">
         <v>2024</v>
       </c>
@@ -11738,7 +11546,7 @@
         <v>27</v>
       </c>
       <c r="H252" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I252" t="s">
         <v>38</v>
@@ -11756,13 +11564,10 @@
         <v>1</v>
       </c>
       <c r="N252">
-        <v>-2</v>
-      </c>
-      <c r="O252" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253">
         <v>2024</v>
       </c>
@@ -11776,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="H253" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I253" t="s">
         <v>28</v>
@@ -11797,7 +11602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:14">
       <c r="A254">
         <v>2024</v>
       </c>
@@ -11820,7 +11625,7 @@
         <v>28</v>
       </c>
       <c r="H254" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I254" t="s">
         <v>28</v>
@@ -11840,11 +11645,8 @@
       <c r="N254">
         <v>0</v>
       </c>
-      <c r="O254" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15">
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255">
         <v>2024</v>
       </c>
@@ -11867,7 +11669,7 @@
         <v>23</v>
       </c>
       <c r="H255" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I255" t="s">
         <v>28</v>
@@ -11885,13 +11687,10 @@
         <v>1</v>
       </c>
       <c r="N255">
-        <v>0</v>
-      </c>
-      <c r="O255" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256">
         <v>2024</v>
       </c>
@@ -11914,7 +11713,7 @@
         <v>53</v>
       </c>
       <c r="H256" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I256" t="s">
         <v>28</v>
@@ -11932,7 +11731,7 @@
         <v>2</v>
       </c>
       <c r="N256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:15">
@@ -11958,7 +11757,7 @@
         <v>62</v>
       </c>
       <c r="H257" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I257" t="s">
         <v>28</v>
@@ -11976,10 +11775,7 @@
         <v>1</v>
       </c>
       <c r="N257">
-        <v>-1</v>
-      </c>
-      <c r="O257" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:15">
@@ -11996,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="H258" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I258" t="s">
         <v>31</v>
@@ -12040,7 +11836,7 @@
         <v>41</v>
       </c>
       <c r="H259" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I259" t="s">
         <v>41</v>
@@ -12084,7 +11880,7 @@
         <v>31</v>
       </c>
       <c r="H260" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I260" t="s">
         <v>31</v>
@@ -12128,7 +11924,7 @@
         <v>24</v>
       </c>
       <c r="H261" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I261" t="s">
         <v>24</v>
@@ -12172,7 +11968,7 @@
         <v>41</v>
       </c>
       <c r="H262" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I262" t="s">
         <v>24</v>
@@ -12216,7 +12012,7 @@
         <v>31</v>
       </c>
       <c r="H263" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I263" t="s">
         <v>24</v>
@@ -12260,7 +12056,7 @@
         <v>42</v>
       </c>
       <c r="H264" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I264" t="s">
         <v>31</v>
@@ -12304,7 +12100,7 @@
         <v>41</v>
       </c>
       <c r="H265" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I265" t="s">
         <v>41</v>
@@ -12339,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="H266" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I266" t="s">
         <v>46</v>
@@ -12383,7 +12179,7 @@
         <v>51</v>
       </c>
       <c r="H267" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I267" t="s">
         <v>51</v>
@@ -12402,9 +12198,6 @@
       </c>
       <c r="N267">
         <v>-2</v>
-      </c>
-      <c r="O267" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="268" spans="1:15">
@@ -12430,7 +12223,7 @@
         <v>33</v>
       </c>
       <c r="H268" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I268" t="s">
         <v>33</v>
@@ -12465,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I269" t="s">
         <v>25</v>
@@ -12509,7 +12302,7 @@
         <v>54</v>
       </c>
       <c r="H270" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I270" t="s">
         <v>25</v>
@@ -12528,6 +12321,9 @@
       </c>
       <c r="N270">
         <v>0</v>
+      </c>
+      <c r="O270" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="271" spans="1:15">
@@ -12553,7 +12349,7 @@
         <v>36</v>
       </c>
       <c r="H271" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I271" t="s">
         <v>25</v>
@@ -12571,7 +12367,7 @@
         <v>3</v>
       </c>
       <c r="N271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:15">
@@ -12597,7 +12393,7 @@
         <v>54</v>
       </c>
       <c r="H272" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I272" t="s">
         <v>25</v>
@@ -12615,10 +12411,10 @@
         <v>3</v>
       </c>
       <c r="N272">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15">
       <c r="A273">
         <v>2024</v>
       </c>
@@ -12641,7 +12437,7 @@
         <v>44</v>
       </c>
       <c r="H273" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I273" t="s">
         <v>25</v>
@@ -12659,10 +12455,13 @@
         <v>2</v>
       </c>
       <c r="N273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="O273" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15">
       <c r="A274">
         <v>2024</v>
       </c>
@@ -12685,7 +12484,7 @@
         <v>36</v>
       </c>
       <c r="H274" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I274" t="s">
         <v>25</v>
@@ -12703,7 +12502,7 @@
         <v>3</v>
       </c>
       <c r="N274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
